--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_269.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_269.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29092-d249725-Reviews-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>152</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Extended-Stay-America-Orange-County-Anaheim-Hills.h886534.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_269.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_269.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="764">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2186 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r572051887-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>29092</t>
+  </si>
+  <si>
+    <t>249725</t>
+  </si>
+  <si>
+    <t>572051887</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Vacation was a nightmare</t>
+  </si>
+  <si>
+    <t>I checked in 04/06/18 for 2 nights and where do i start... first off: Rude staff, they don’t acknowledge you when they speak to you. They dont bother explaining fees nor make any kind of conversation (absolutely NO customer service) she had a rough time asking for my I.D at check in since she didn’t bother making any eye contact or didn’t budge to look at me. (I checked in around 8pm on Friday, she wasn’t wearing. Name tag so I didn’t get a name) after check in, she went up to the room and said we had gotten the wrong room but that if we had already gotten settled in we would be able to stay there. I probably got a downgrade not even knowing) Housekeeping only cleans the room if you stay 7+ days. (Would have been nice to know this upon check in) Tv doesn’t work all channels have poor reception, WI-FI is extremely slow it’s a joke. This hotel is pet friendly so you hear barking throughout the hallways. It’s disgusting!!! What was my vacation turned out to be a nightmare. I definitely will NEVER come back. Oh and last thing, I lost my room key and asked for another and wasn’t asked for I.D. Really? This is not secure at all. I could have been a random person and all my belongings could have gotten stolen. Thanks for ruining our family vacation Extended stay America....I checked in 04/06/18 for 2 nights and where do i start... first off: Rude staff, they don’t acknowledge you when they speak to you. They dont bother explaining fees nor make any kind of conversation (absolutely NO customer service) she had a rough time asking for my I.D at check in since she didn’t bother making any eye contact or didn’t budge to look at me. (I checked in around 8pm on Friday, she wasn’t wearing. Name tag so I didn’t get a name) after check in, she went up to the room and said we had gotten the wrong room but that if we had already gotten settled in we would be able to stay there. I probably got a downgrade not even knowing) Housekeeping only cleans the room if you stay 7+ days. (Would have been nice to know this upon check in) Tv doesn’t work all channels have poor reception, WI-FI is extremely slow it’s a joke. This hotel is pet friendly so you hear barking throughout the hallways. It’s disgusting!!! What was my vacation turned out to be a nightmare. I definitely will NEVER come back. Oh and last thing, I lost my room key and asked for another and wasn’t asked for I.D. Really? This is not secure at all. I could have been a random person and all my belongings could have gotten stolen. Thanks for ruining our family vacation Extended stay America. I’ve attached a picture of the breakfast in the morning. Coffee, tea, hot chocolate, muffins, and granola bars. Was probably the only reason why it got 1 star.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2018</t>
+  </si>
+  <si>
+    <t>I checked in 04/06/18 for 2 nights and where do i start... first off: Rude staff, they don’t acknowledge you when they speak to you. They dont bother explaining fees nor make any kind of conversation (absolutely NO customer service) she had a rough time asking for my I.D at check in since she didn’t bother making any eye contact or didn’t budge to look at me. (I checked in around 8pm on Friday, she wasn’t wearing. Name tag so I didn’t get a name) after check in, she went up to the room and said we had gotten the wrong room but that if we had already gotten settled in we would be able to stay there. I probably got a downgrade not even knowing) Housekeeping only cleans the room if you stay 7+ days. (Would have been nice to know this upon check in) Tv doesn’t work all channels have poor reception, WI-FI is extremely slow it’s a joke. This hotel is pet friendly so you hear barking throughout the hallways. It’s disgusting!!! What was my vacation turned out to be a nightmare. I definitely will NEVER come back. Oh and last thing, I lost my room key and asked for another and wasn’t asked for I.D. Really? This is not secure at all. I could have been a random person and all my belongings could have gotten stolen. Thanks for ruining our family vacation Extended stay America....I checked in 04/06/18 for 2 nights and where do i start... first off: Rude staff, they don’t acknowledge you when they speak to you. They dont bother explaining fees nor make any kind of conversation (absolutely NO customer service) she had a rough time asking for my I.D at check in since she didn’t bother making any eye contact or didn’t budge to look at me. (I checked in around 8pm on Friday, she wasn’t wearing. Name tag so I didn’t get a name) after check in, she went up to the room and said we had gotten the wrong room but that if we had already gotten settled in we would be able to stay there. I probably got a downgrade not even knowing) Housekeeping only cleans the room if you stay 7+ days. (Would have been nice to know this upon check in) Tv doesn’t work all channels have poor reception, WI-FI is extremely slow it’s a joke. This hotel is pet friendly so you hear barking throughout the hallways. It’s disgusting!!! What was my vacation turned out to be a nightmare. I definitely will NEVER come back. Oh and last thing, I lost my room key and asked for another and wasn’t asked for I.D. Really? This is not secure at all. I could have been a random person and all my belongings could have gotten stolen. Thanks for ruining our family vacation Extended stay America. I’ve attached a picture of the breakfast in the morning. Coffee, tea, hot chocolate, muffins, and granola bars. Was probably the only reason why it got 1 star.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r568008464-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>568008464</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Not for a business traveler</t>
+  </si>
+  <si>
+    <t>Their "high speed" internet is very slow. I paid another $4.95 a day for faster wifi but it was still slow. Claimed I could stream Netflix, etc. Called tech support. They said the speed I have is the speed the hotel pays for.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Their "high speed" internet is very slow. I paid another $4.95 a day for faster wifi but it was still slow. Claimed I could stream Netflix, etc. Called tech support. They said the speed I have is the speed the hotel pays for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r566083051-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>566083051</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Watch out for staples</t>
+  </si>
+  <si>
+    <t>You get what you pay for. Greasy carpet and staples sticking out of the carpet. I learned the hard way by accidentally stepping on them. OUCH! There’s a distinct “old” smell in the room and throughout the hotel. Visible pee stains &amp; hair stuck to the ceiling in the shower. I needed to take a shower after showering. Needs major updates. Would not recommend or stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2018</t>
+  </si>
+  <si>
+    <t>You get what you pay for. Greasy carpet and staples sticking out of the carpet. I learned the hard way by accidentally stepping on them. OUCH! There’s a distinct “old” smell in the room and throughout the hotel. Visible pee stains &amp; hair stuck to the ceiling in the shower. I needed to take a shower after showering. Needs major updates. Would not recommend or stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r535654858-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>535654858</t>
+  </si>
+  <si>
+    <t>10/23/2017</t>
+  </si>
+  <si>
+    <t>Terrible Experience</t>
+  </si>
+  <si>
+    <t>The front desk people had not idea of what they were doing during check in.  The room smelled like smoke (very heavy smoke).  The carpet was stained and the comforter had burns in it.  The hotel was very noisy.  The breakfast was the biggest joke of all.  I will Never stay at the hotel again and I will not let any of the people that work for me stay at an Extended Stay when they are out of town.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded October 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2017</t>
+  </si>
+  <si>
+    <t>The front desk people had not idea of what they were doing during check in.  The room smelled like smoke (very heavy smoke).  The carpet was stained and the comforter had burns in it.  The hotel was very noisy.  The breakfast was the biggest joke of all.  I will Never stay at the hotel again and I will not let any of the people that work for me stay at an Extended Stay when they are out of town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r531582605-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>531582605</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Very Poor service</t>
+  </si>
+  <si>
+    <t>Horrible service, no room cleaning, "Continental breakfast" was a joke!  They had muffins, granola bars, hot water for tea was gone by 8:45, the ONE pot of coffee was gone by 8:45. It was supposed to be available from 6:30 - 9:30.  Not cleaning the rooms and changing the sheets or bringing fresh towels is not good service.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Horrible service, no room cleaning, "Continental breakfast" was a joke!  They had muffins, granola bars, hot water for tea was gone by 8:45, the ONE pot of coffee was gone by 8:45. It was supposed to be available from 6:30 - 9:30.  Not cleaning the rooms and changing the sheets or bringing fresh towels is not good service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r525280344-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>525280344</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrible </t>
+  </si>
+  <si>
+    <t>Horrible it doesnt even have breakfast, personnel doesnt want to work, not a very good wifi service, smells weird, i was in a non smoke rooom and it smelled awful. I got dissapointed of my stay. They dont do rooms you need to pay until seventh day.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded September 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2017</t>
+  </si>
+  <si>
+    <t>Horrible it doesnt even have breakfast, personnel doesnt want to work, not a very good wifi service, smells weird, i was in a non smoke rooom and it smelled awful. I got dissapointed of my stay. They dont do rooms you need to pay until seventh day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r509700803-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>509700803</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>I would never stay at another extended stay america. The price cheap price says it all. It felt extremely dirty. There were piles of dishes just sitting outside the rooms and no one came by to pick them up. The towels felt cheap and dirty as well. Pay the extra money and stay at a better and clean hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>I would never stay at another extended stay america. The price cheap price says it all. It felt extremely dirty. There were piles of dishes just sitting outside the rooms and no one came by to pick them up. The towels felt cheap and dirty as well. Pay the extra money and stay at a better and clean hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r506189558-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>506189558</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>My stay</t>
+  </si>
+  <si>
+    <t>Bathroom dirty , toilet stopped up. Tried saying booking.com cancelled reservations even after booking.com spoke with them. Hair dryer available upon request 4 days never got one.Garbadge sat outside door wasn't picked up as is you must stay 7 nights to get your room cleaned.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Bathroom dirty , toilet stopped up. Tried saying booking.com cancelled reservations even after booking.com spoke with them. Hair dryer available upon request 4 days never got one.Garbadge sat outside door wasn't picked up as is you must stay 7 nights to get your room cleaned.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r504990733-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>504990733</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Needs a cleaning</t>
+  </si>
+  <si>
+    <t>This place is a bacteria colony ready to infect its guests.  It needs a good scrubbing and cleaning top to bottom.  It was a dump, like a half-star motel.  There was blood drops on the bathroom floor and dust on many surfaces.  Hard water stains on the toilet and shower head.  The TV signals were analog and not in digital HD, like from the 1980'sMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>This place is a bacteria colony ready to infect its guests.  It needs a good scrubbing and cleaning top to bottom.  It was a dump, like a half-star motel.  There was blood drops on the bathroom floor and dust on many surfaces.  Hard water stains on the toilet and shower head.  The TV signals were analog and not in digital HD, like from the 1980'sMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r502853121-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>502853121</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Room for improvements</t>
+  </si>
+  <si>
+    <t>Busy location, you may have to wait to get into your reserved room for them to finish cleaning your room. Call and check to make sure the room accommodation you requested at booking is the room they are going to give you. Advise to do laundry elsewhere, or at least check that the equipment is working first before dropping in your coins. Any maintenance/ repair issues will not be accomplished over the weekend. Otherwise, furnishings, internet, etc are satisfactory. Caveat emptor! MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Busy location, you may have to wait to get into your reserved room for them to finish cleaning your room. Call and check to make sure the room accommodation you requested at booking is the room they are going to give you. Advise to do laundry elsewhere, or at least check that the equipment is working first before dropping in your coins. Any maintenance/ repair issues will not be accomplished over the weekend. Otherwise, furnishings, internet, etc are satisfactory. Caveat emptor! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r500090033-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>500090033</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>Good experience</t>
+  </si>
+  <si>
+    <t>It was a great price and close to all things we wanted to do. The bed was very cozy. For once my back and neck didn't hurt from sleeping on a hotel mattress and pillows. The staff was friendly. There was a group of a TON of kids staying at the same time we were. We didn't hear them running around or talking. So that I was very happy about. I would stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>It was a great price and close to all things we wanted to do. The bed was very cozy. For once my back and neck didn't hurt from sleeping on a hotel mattress and pillows. The staff was friendly. There was a group of a TON of kids staying at the same time we were. We didn't hear them running around or talking. So that I was very happy about. I would stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r497923569-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>497923569</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Worst experience ever !</t>
+  </si>
+  <si>
+    <t>First room was suppose to be a one bedroom suite suite with a sofa sleeper. One it was a studio type room with literally a half wall that was as long as king bed . Sofa sleeper was discustingly filthy and no linens of blankets provide. Went to call front desk and phone did not work!!!! Being that we checked in at 11:45pm this was very inconvenient ! Alexandriantried her best as she changed us to a 2 double bed room. Total down grade for what we paid for. But at this time of the night my whole family was exhausted and had no choice . I nostice room was muggy and had a weird smell so I turn the AC in hope to freshen up the place . As we are changing into our pjs. I was barefoot and realized the carpet was wet!!!! Discusting that was the smell. Long horrible story short we could not get now 3rd room and had no choice to sleep in a room with wet carpet. Next morning I went to front desk and they couldn't do anything to help our terrible situation! All she said was we had to check out by 11 and check back in at 3 pm check in time and we could leave our bags behind front desk! We were here for a family function and booked two nights for comfort convinience no way I was doing all...First room was suppose to be a one bedroom suite suite with a sofa sleeper. One it was a studio type room with literally a half wall that was as long as king bed . Sofa sleeper was discustingly filthy and no linens of blankets provide. Went to call front desk and phone did not work!!!! Being that we checked in at 11:45pm this was very inconvenient ! Alexandriantried her best as she changed us to a 2 double bed room. Total down grade for what we paid for. But at this time of the night my whole family was exhausted and had no choice . I nostice room was muggy and had a weird smell so I turn the AC in hope to freshen up the place . As we are changing into our pjs. I was barefoot and realized the carpet was wet!!!! Discusting that was the smell. Long horrible story short we could not get now 3rd room and had no choice to sleep in a room with wet carpet. Next morning I went to front desk and they couldn't do anything to help our terrible situation! All she said was we had to check out by 11 and check back in at 3 pm check in time and we could leave our bags behind front desk! We were here for a family function and booked two nights for comfort convinience no way I was doing all that!!!! I checked out of that dump and all I got was a 20% discount on my first night , even thou it's already was a down grade from what I originally paid, and a full refund for the second night we were suppose to stay!! Terrible conditions!!!! Management needs to get a grip on the terrible housekeeping!!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded July 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2017</t>
+  </si>
+  <si>
+    <t>First room was suppose to be a one bedroom suite suite with a sofa sleeper. One it was a studio type room with literally a half wall that was as long as king bed . Sofa sleeper was discustingly filthy and no linens of blankets provide. Went to call front desk and phone did not work!!!! Being that we checked in at 11:45pm this was very inconvenient ! Alexandriantried her best as she changed us to a 2 double bed room. Total down grade for what we paid for. But at this time of the night my whole family was exhausted and had no choice . I nostice room was muggy and had a weird smell so I turn the AC in hope to freshen up the place . As we are changing into our pjs. I was barefoot and realized the carpet was wet!!!! Discusting that was the smell. Long horrible story short we could not get now 3rd room and had no choice to sleep in a room with wet carpet. Next morning I went to front desk and they couldn't do anything to help our terrible situation! All she said was we had to check out by 11 and check back in at 3 pm check in time and we could leave our bags behind front desk! We were here for a family function and booked two nights for comfort convinience no way I was doing all...First room was suppose to be a one bedroom suite suite with a sofa sleeper. One it was a studio type room with literally a half wall that was as long as king bed . Sofa sleeper was discustingly filthy and no linens of blankets provide. Went to call front desk and phone did not work!!!! Being that we checked in at 11:45pm this was very inconvenient ! Alexandriantried her best as she changed us to a 2 double bed room. Total down grade for what we paid for. But at this time of the night my whole family was exhausted and had no choice . I nostice room was muggy and had a weird smell so I turn the AC in hope to freshen up the place . As we are changing into our pjs. I was barefoot and realized the carpet was wet!!!! Discusting that was the smell. Long horrible story short we could not get now 3rd room and had no choice to sleep in a room with wet carpet. Next morning I went to front desk and they couldn't do anything to help our terrible situation! All she said was we had to check out by 11 and check back in at 3 pm check in time and we could leave our bags behind front desk! We were here for a family function and booked two nights for comfort convinience no way I was doing all that!!!! I checked out of that dump and all I got was a 20% discount on my first night , even thou it's already was a down grade from what I originally paid, and a full refund for the second night we were suppose to stay!! Terrible conditions!!!! Management needs to get a grip on the terrible housekeeping!!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r494147205-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>494147205</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>don't stay here unless your ready to clean etc.</t>
+  </si>
+  <si>
+    <t>I would not recomment this hotel to anyone, especially if you have a handicap person confined to a wheel chair,  No housekeeping in 4 days. staff rude, only thing that was good was the location and there was a starbvucks across trhe street bdecause their  in house coffee etc  was horrible,MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>I would not recomment this hotel to anyone, especially if you have a handicap person confined to a wheel chair,  No housekeeping in 4 days. staff rude, only thing that was good was the location and there was a starbvucks across trhe street bdecause their  in house coffee etc  was horrible,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r493271921-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>493271921</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t>If u have kids dont stay here</t>
+  </si>
+  <si>
+    <t>The place is dirty, beds are lopsided,the hallways smell like cigarettes even on non-smoking where we stayed.the staff was uncaring. I went down to talk to staff about sending housekeeping to remove trash from and they never showed up.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded June 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2017</t>
+  </si>
+  <si>
+    <t>The place is dirty, beds are lopsided,the hallways smell like cigarettes even on non-smoking where we stayed.the staff was uncaring. I went down to talk to staff about sending housekeeping to remove trash from and they never showed up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r491710867-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>491710867</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>Horrible customer service/room</t>
+  </si>
+  <si>
+    <t>Customer service night manager was rude took over a hour to check in when I made the reservation with the toll free number she was awesome especially because it was so last minute and we did not want to drive bk. One I got there the service was totally different! Nothing like the toll free lady! He was rude, unprofessional and had my daughter and mother as well as myself waiting 1hr and half for a room then get up to the floor and it's the wrong room. Needed a double bed and he rudely says "well I have to see if there's one clean, or they may not be a room for you" seriously! Smokey room, iron Dis not work, bathroom half cleaned, called him to tell him everything "I'm not authorized to handle any of it" you have to speak With the am manager. Rude! Told her the next day nothing happened didn't even offer to try and make anything better. The only thing I was returned was 15% which is because it was earned from the rewards. Nothing credited to my bill for so much inconvenience. Smh poor sevice never succeeds!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded June 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2017</t>
+  </si>
+  <si>
+    <t>Customer service night manager was rude took over a hour to check in when I made the reservation with the toll free number she was awesome especially because it was so last minute and we did not want to drive bk. One I got there the service was totally different! Nothing like the toll free lady! He was rude, unprofessional and had my daughter and mother as well as myself waiting 1hr and half for a room then get up to the floor and it's the wrong room. Needed a double bed and he rudely says "well I have to see if there's one clean, or they may not be a room for you" seriously! Smokey room, iron Dis not work, bathroom half cleaned, called him to tell him everything "I'm not authorized to handle any of it" you have to speak With the am manager. Rude! Told her the next day nothing happened didn't even offer to try and make anything better. The only thing I was returned was 15% which is because it was earned from the rewards. Nothing credited to my bill for so much inconvenience. Smh poor sevice never succeeds!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r466198548-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>466198548</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First time and last time </t>
+  </si>
+  <si>
+    <t>I had to book a room near the Anaheim convention center . The prices were high in the area due to a convention in town.For 180 a night for a 60 dollar a night value of a motel.Run down lobby .Bad bed ,worse pillows old crappy blanket .10 Tv channels .The wifi is so poor you can't even watch Netflix.The claim to have breakfast buts it's not worth even going down for.Don't come here your better off with a motel 6 at least you know not to expect much MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded March 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2017</t>
+  </si>
+  <si>
+    <t>I had to book a room near the Anaheim convention center . The prices were high in the area due to a convention in town.For 180 a night for a 60 dollar a night value of a motel.Run down lobby .Bad bed ,worse pillows old crappy blanket .10 Tv channels .The wifi is so poor you can't even watch Netflix.The claim to have breakfast buts it's not worth even going down for.Don't come here your better off with a motel 6 at least you know not to expect much More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r464344464-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>464344464</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>Not for the Business Traveler</t>
+  </si>
+  <si>
+    <t>If you are looking for a place to stay for a night, you can get a room cheap (I paid $82.00/night) but if you need business services, stay clear.The free "high speed" internet was very slow - I paid an extra $14.00 for the higher "high speed" internet. And it was only slightly better. I called tech support and he acknowledged the problem but he said that there were a lot of people on the hotel network and the hotel would not spend more for more bandwidth.Room was small and had little outlets - no usb outlets either.No business center to print out documents but the front desk did it for 3 cents a page.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded March 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2017</t>
+  </si>
+  <si>
+    <t>If you are looking for a place to stay for a night, you can get a room cheap (I paid $82.00/night) but if you need business services, stay clear.The free "high speed" internet was very slow - I paid an extra $14.00 for the higher "high speed" internet. And it was only slightly better. I called tech support and he acknowledged the problem but he said that there were a lot of people on the hotel network and the hotel would not spend more for more bandwidth.Room was small and had little outlets - no usb outlets either.No business center to print out documents but the front desk did it for 3 cents a page.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r461706597-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>461706597</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t>Not overly clean</t>
+  </si>
+  <si>
+    <t>Bedroom was clean and quiet, mattress was comfortable.  Kitchen area was clean, but you have to request dishes and silver and pots and can opener and toaster and dish rack and coffee maker.  They say they sanitize between guest uses which makes sense, but we had to buy our own scouring pads.  The bathtub had hair (including pubic) around the tub, soap in the drain, soap flakes in the shower area.  We were so exhausted, we went to bed, thinking housekeeping would get it in the morning.  Housekeeping didn't even show up.  We requested a new box of tissues because the one in the room was empty.  They showed up acting like they were doing us a favor (my husband was in the bathroom and I said to come back in half an hour. )  They said they were very busy.  When we left we told the floor maid that we were leaving and she said she'd call downstairs for help so room was cleaned when we returned.  Very strange if housekeeping is not included but that is not advertised?  Breakfast bar downstairs is ok.  This was President's Day weekend, so the place was pretty full.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded February 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2017</t>
+  </si>
+  <si>
+    <t>Bedroom was clean and quiet, mattress was comfortable.  Kitchen area was clean, but you have to request dishes and silver and pots and can opener and toaster and dish rack and coffee maker.  They say they sanitize between guest uses which makes sense, but we had to buy our own scouring pads.  The bathtub had hair (including pubic) around the tub, soap in the drain, soap flakes in the shower area.  We were so exhausted, we went to bed, thinking housekeeping would get it in the morning.  Housekeeping didn't even show up.  We requested a new box of tissues because the one in the room was empty.  They showed up acting like they were doing us a favor (my husband was in the bathroom and I said to come back in half an hour. )  They said they were very busy.  When we left we told the floor maid that we were leaving and she said she'd call downstairs for help so room was cleaned when we returned.  Very strange if housekeeping is not included but that is not advertised?  Breakfast bar downstairs is ok.  This was President's Day weekend, so the place was pretty full.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r445124139-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>445124139</t>
+  </si>
+  <si>
+    <t>12/18/2016</t>
+  </si>
+  <si>
+    <t>Near Disney !</t>
+  </si>
+  <si>
+    <t>Booked this hotel as it is near Disney. However, we drove instead of walking to Disney - mainly due to the concern with walking back in the dark. They do offer paid shuttle service though.First room was stinky and had to get a replacement. Service is a little slow. Otherwise reasonable place to stay. Breakfast is grab and go, no sit down service.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded December 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2016</t>
+  </si>
+  <si>
+    <t>Booked this hotel as it is near Disney. However, we drove instead of walking to Disney - mainly due to the concern with walking back in the dark. They do offer paid shuttle service though.First room was stinky and had to get a replacement. Service is a little slow. Otherwise reasonable place to stay. Breakfast is grab and go, no sit down service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r438137358-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>438137358</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>Good Location, Weird Experience</t>
+  </si>
+  <si>
+    <t>This hotel's location is good. In a quiet area and even though my room faced the highway, the noise level was minimal. Cleanliness is questionable. Wasn't the worst but definitely wasn't the best. We had to wait about fifteen minutes for a front desk clerk to show up. Once they did, check-in was quick and pleasant. The bed was comfortable, and the shower was an average hotel shower. Since they do not clean your room every day, you have to get fresh towels at the front desk. Our odd experience was that someone from the hotel knocked on our door the  morning before our check-out &amp; said they needed to replace something in the room &amp; they'd be right back. We thought maybe it would be the fire alarm on the wall which was barely holding on. But no. All they did was change the evacuation sign on the back of the door. That probably could've waited until we checked out the next morning. Since we had to catch an early flight, we left the hotel about 4am and were surprised to see that there is no desk personnel overnight. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded November 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2016</t>
+  </si>
+  <si>
+    <t>This hotel's location is good. In a quiet area and even though my room faced the highway, the noise level was minimal. Cleanliness is questionable. Wasn't the worst but definitely wasn't the best. We had to wait about fifteen minutes for a front desk clerk to show up. Once they did, check-in was quick and pleasant. The bed was comfortable, and the shower was an average hotel shower. Since they do not clean your room every day, you have to get fresh towels at the front desk. Our odd experience was that someone from the hotel knocked on our door the  morning before our check-out &amp; said they needed to replace something in the room &amp; they'd be right back. We thought maybe it would be the fire alarm on the wall which was barely holding on. But no. All they did was change the evacuation sign on the back of the door. That probably could've waited until we checked out the next morning. Since we had to catch an early flight, we left the hotel about 4am and were surprised to see that there is no desk personnel overnight. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r437191833-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>437191833</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice hotel </t>
+  </si>
+  <si>
+    <t>I didn't experience anything bad, the only thing I disliked was my room smelling like smoke, and the breakfast isn't really breakfast I consider it a snack but other than that everything was good. If your not so picky about what I've described I recommend this hotel for you.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded November 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2016</t>
+  </si>
+  <si>
+    <t>I didn't experience anything bad, the only thing I disliked was my room smelling like smoke, and the breakfast isn't really breakfast I consider it a snack but other than that everything was good. If your not so picky about what I've described I recommend this hotel for you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r436622242-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>436622242</t>
+  </si>
+  <si>
+    <t>11/12/2016</t>
+  </si>
+  <si>
+    <t>Love this place! Wouldn't stay anywhere else!</t>
+  </si>
+  <si>
+    <t>Quiet and has the greatest kitchenettes. The price is amazing!I would not stay anywhere else. Such quality for such an inexpensive stay.I love this place! Nice staff, friendly and will bend over backwards for you.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded November 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2016</t>
+  </si>
+  <si>
+    <t>Quiet and has the greatest kitchenettes. The price is amazing!I would not stay anywhere else. Such quality for such an inexpensive stay.I love this place! Nice staff, friendly and will bend over backwards for you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r432010908-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>432010908</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t>Horroble experience</t>
+  </si>
+  <si>
+    <t>Very bad experience staying in this place . There is nothing good to say about it . Filthy hotel even the front door glass all finger prints and dirty . The rooms are very bad dirty outdated dirty looking towels actually me and my wife we skipped the shower since we stayed overnight . The so called breakfast is a disaster they have it next to the front door and very lousy muffins and bars .In the room the sheets were not clean because there was hair on them and no glasses to drink water .When I asked about the restroom in the lobby area the guy at the desk he has to take me to the laundry room to the bathroom and I have to work my way to the toilet since they stacked all the dirty sheets in big plastic bags around the toilet.There is no staff in the front desk at night and when I asked about that in am I was told to call to get somebody .I don't recommend this hotel to anybody and it should be shut down and shouldn't be on Trip adviser list . All the fixtures in the room are old and the sink was clogged. I will give less than one star if I can . I had never ever had an experience like this in my life . MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded October 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2016</t>
+  </si>
+  <si>
+    <t>Very bad experience staying in this place . There is nothing good to say about it . Filthy hotel even the front door glass all finger prints and dirty . The rooms are very bad dirty outdated dirty looking towels actually me and my wife we skipped the shower since we stayed overnight . The so called breakfast is a disaster they have it next to the front door and very lousy muffins and bars .In the room the sheets were not clean because there was hair on them and no glasses to drink water .When I asked about the restroom in the lobby area the guy at the desk he has to take me to the laundry room to the bathroom and I have to work my way to the toilet since they stacked all the dirty sheets in big plastic bags around the toilet.There is no staff in the front desk at night and when I asked about that in am I was told to call to get somebody .I don't recommend this hotel to anybody and it should be shut down and shouldn't be on Trip adviser list . All the fixtures in the room are old and the sink was clogged. I will give less than one star if I can . I had never ever had an experience like this in my life . More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r425021682-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>425021682</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>Don;t stay here</t>
+  </si>
+  <si>
+    <t>There was food in the microwave; the towels on the bathroom counter looked dirty; the windows were so dirty you could barely see out of them; had to ask for a glass; had to shove the footrest in really hard to get it to lock.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded October 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2016</t>
+  </si>
+  <si>
+    <t>There was food in the microwave; the towels on the bathroom counter looked dirty; the windows were so dirty you could barely see out of them; had to ask for a glass; had to shove the footrest in really hard to get it to lock.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r412717144-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>412717144</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>Security is lacking - Hide you belongings</t>
+  </si>
+  <si>
+    <t>It seems that the Homeless population has grown nearby this hotel so you might consider someplace else if you plan on bringing a loaded car. When I left out the back door, there was a homeless person, radio plugged into the outlet, blocking the door. The night before, several people smoking and joking out under the trees near the train-tracks, and they weren't dressed like they belonged there, especially with the shopping basket full of stuff. As for the room itself, it was adequate, but certainly not worth the $100 (plus the high hotel tax). Yes the water is hot and the tv works (except it only gets about 20 channels and no locals), but the flooring is coming up in the bathroom, my feet were black after walking on the carpet, the bed was cheap. This is a no-star hotel, that needs a better remodel and security. The staff was very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2016</t>
+  </si>
+  <si>
+    <t>It seems that the Homeless population has grown nearby this hotel so you might consider someplace else if you plan on bringing a loaded car. When I left out the back door, there was a homeless person, radio plugged into the outlet, blocking the door. The night before, several people smoking and joking out under the trees near the train-tracks, and they weren't dressed like they belonged there, especially with the shopping basket full of stuff. As for the room itself, it was adequate, but certainly not worth the $100 (plus the high hotel tax). Yes the water is hot and the tv works (except it only gets about 20 channels and no locals), but the flooring is coming up in the bathroom, my feet were black after walking on the carpet, the bed was cheap. This is a no-star hotel, that needs a better remodel and security. The staff was very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r403021785-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>403021785</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>Never Stay Here.</t>
+  </si>
+  <si>
+    <t>All was great, until we discovered a huge ant problem, they were all over the beds, in our luggage and crawling all over us. It was disgusting. They had gotten into my luggage, and unfortunately causing me to have to buy a new set , but when I had told the hotel they couldn't give me cash to buy a new one, 3 weeks later and I'm still waiting on their insurance company. We got refunded for one night, and to go through all the hassle of having to drive to find new luggage switching rooms and washing all of our clothes. Not worth it. I would've expected a little more. I was told the manager would be able to talk to us in the morning and when the time came, she had avoided us. They even refused to transfer us hotels. We still had ants in our new room, but not as bad as before. Still gross.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded August 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2016</t>
+  </si>
+  <si>
+    <t>All was great, until we discovered a huge ant problem, they were all over the beds, in our luggage and crawling all over us. It was disgusting. They had gotten into my luggage, and unfortunately causing me to have to buy a new set , but when I had told the hotel they couldn't give me cash to buy a new one, 3 weeks later and I'm still waiting on their insurance company. We got refunded for one night, and to go through all the hassle of having to drive to find new luggage switching rooms and washing all of our clothes. Not worth it. I would've expected a little more. I was told the manager would be able to talk to us in the morning and when the time came, she had avoided us. They even refused to transfer us hotels. We still had ants in our new room, but not as bad as before. Still gross.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r400840815-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>400840815</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>Two Rooms - Both DISGUSTING!!!</t>
+  </si>
+  <si>
+    <t>Where to begin... Let's start with check-in. This is the first time in my life that the check-in process took more than a couple minutes. My family and I arrived at 5pm local time, and after finding my reservation (abt 5 minutes), the desk clerk said, "let me run up and make sure your rooms have been cleaned." A first, but I didn't think that much about it at the time. After another 10 minutes, we finally got to our rooms. 
+When we booked, we requested double queen, non-smoking rooms. Neither room fit that description, as both were double full. smoking permitted rooms. Strike one! As we began looking around the rooms, we noticed the filth and conditions there in. There was a layer of crud on both the kitchenette and bathroom countertops! Dirty footprints in the tub, a constant drip in the fridge (which had filled about a quarter inch of the crisper drawer) and dirty bedspreads. My wife cleaned the fridge, while I called the front desk to let them know about the leak, and that we would need new towels. We were told the fridge leak was normal!
+We cleaned the room the best we could, but the carpet felt like it hadn't been vacuumed since it was installed (back in the 80's). It had multiple stains and was gross to walk on without shoes.
+Never was the room refreshed (new soap/shampoo) which meets the cleaning policy...Where to begin... Let's start with check-in. This is the first time in my life that the check-in process took more than a couple minutes. My family and I arrived at 5pm local time, and after finding my reservation (abt 5 minutes), the desk clerk said, "let me run up and make sure your rooms have been cleaned." A first, but I didn't think that much about it at the time. After another 10 minutes, we finally got to our rooms. When we booked, we requested double queen, non-smoking rooms. Neither room fit that description, as both were double full. smoking permitted rooms. Strike one! As we began looking around the rooms, we noticed the filth and conditions there in. There was a layer of crud on both the kitchenette and bathroom countertops! Dirty footprints in the tub, a constant drip in the fridge (which had filled about a quarter inch of the crisper drawer) and dirty bedspreads. My wife cleaned the fridge, while I called the front desk to let them know about the leak, and that we would need new towels. We were told the fridge leak was normal!We cleaned the room the best we could, but the carpet felt like it hadn't been vacuumed since it was installed (back in the 80's). It had multiple stains and was gross to walk on without shoes.Never was the room refreshed (new soap/shampoo) which meets the cleaning policy of the hotel. We booked a 7 night stay, and saw the cleaning crew once in that week, but NEVER did they enter our room. I understand California's drought problem, but this cleaning policy seems more about saving a buck than conserving water. As a member of the USAF for 28 years, I have lived in multiple hotels and temporary living facilities around the world, but this is the worst run-down, disgusting flea-bag of a place I have ever stayed (and that includes forward locations, in combat in the Middle East). For the amount I payed, I expected at least basic standards of cleanliness.As for what I requested for rooms vice what we got... I asked the staff about making a change in room assignments. What I was told was the hotel only has double full, smoking permitted rooms, and even if they had double queen, non-smoking rooms they were sold-out. Fine, I get being fully booked, but don't advertise that you have the more desirable rooms when it isn't true! Also, the picture you have on booking.com is NOT a true representation of this location. This hotel is a three story building, on a freeway entrance with no pool, hot tub or other amenities.To be honest, this type of hospitality experience is more to be expected from a sleazy, charge-by-the-hour motel than an extended stay hospitality!I would NEVER stay at this or any other Extended Stay America location again!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Where to begin... Let's start with check-in. This is the first time in my life that the check-in process took more than a couple minutes. My family and I arrived at 5pm local time, and after finding my reservation (abt 5 minutes), the desk clerk said, "let me run up and make sure your rooms have been cleaned." A first, but I didn't think that much about it at the time. After another 10 minutes, we finally got to our rooms. 
+When we booked, we requested double queen, non-smoking rooms. Neither room fit that description, as both were double full. smoking permitted rooms. Strike one! As we began looking around the rooms, we noticed the filth and conditions there in. There was a layer of crud on both the kitchenette and bathroom countertops! Dirty footprints in the tub, a constant drip in the fridge (which had filled about a quarter inch of the crisper drawer) and dirty bedspreads. My wife cleaned the fridge, while I called the front desk to let them know about the leak, and that we would need new towels. We were told the fridge leak was normal!
+We cleaned the room the best we could, but the carpet felt like it hadn't been vacuumed since it was installed (back in the 80's). It had multiple stains and was gross to walk on without shoes.
+Never was the room refreshed (new soap/shampoo) which meets the cleaning policy...Where to begin... Let's start with check-in. This is the first time in my life that the check-in process took more than a couple minutes. My family and I arrived at 5pm local time, and after finding my reservation (abt 5 minutes), the desk clerk said, "let me run up and make sure your rooms have been cleaned." A first, but I didn't think that much about it at the time. After another 10 minutes, we finally got to our rooms. When we booked, we requested double queen, non-smoking rooms. Neither room fit that description, as both were double full. smoking permitted rooms. Strike one! As we began looking around the rooms, we noticed the filth and conditions there in. There was a layer of crud on both the kitchenette and bathroom countertops! Dirty footprints in the tub, a constant drip in the fridge (which had filled about a quarter inch of the crisper drawer) and dirty bedspreads. My wife cleaned the fridge, while I called the front desk to let them know about the leak, and that we would need new towels. We were told the fridge leak was normal!We cleaned the room the best we could, but the carpet felt like it hadn't been vacuumed since it was installed (back in the 80's). It had multiple stains and was gross to walk on without shoes.Never was the room refreshed (new soap/shampoo) which meets the cleaning policy of the hotel. We booked a 7 night stay, and saw the cleaning crew once in that week, but NEVER did they enter our room. I understand California's drought problem, but this cleaning policy seems more about saving a buck than conserving water. As a member of the USAF for 28 years, I have lived in multiple hotels and temporary living facilities around the world, but this is the worst run-down, disgusting flea-bag of a place I have ever stayed (and that includes forward locations, in combat in the Middle East). For the amount I payed, I expected at least basic standards of cleanliness.As for what I requested for rooms vice what we got... I asked the staff about making a change in room assignments. What I was told was the hotel only has double full, smoking permitted rooms, and even if they had double queen, non-smoking rooms they were sold-out. Fine, I get being fully booked, but don't advertise that you have the more desirable rooms when it isn't true! Also, the picture you have on booking.com is NOT a true representation of this location. This hotel is a three story building, on a freeway entrance with no pool, hot tub or other amenities.To be honest, this type of hospitality experience is more to be expected from a sleazy, charge-by-the-hour motel than an extended stay hospitality!I would NEVER stay at this or any other Extended Stay America location again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r396985821-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>396985821</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Great stay!!</t>
+  </si>
+  <si>
+    <t>This was a great place to stay!! Staff was always very nice, and friendly!! Small laundry area, but very nice. Washers work very well, as do dryers. It's located fairly close to a lot of things. Disneyland only about 15 minutes down the road. The kitchen in the rooms are absolutely great!! They provide you with all the stuff you'll need for your kitchen. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded July 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2016</t>
+  </si>
+  <si>
+    <t>This was a great place to stay!! Staff was always very nice, and friendly!! Small laundry area, but very nice. Washers work very well, as do dryers. It's located fairly close to a lot of things. Disneyland only about 15 minutes down the road. The kitchen in the rooms are absolutely great!! They provide you with all the stuff you'll need for your kitchen. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r396421001-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>396421001</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Never stay here</t>
+  </si>
+  <si>
+    <t>The room and halls were dirty--we had to clean the room upon arrival.  3 out of 5 dryers not working. Ants in the room.  Parking lot --a couple of guys living in their car 24 hours for 4 days. Dust on lamps, bugs in bathroom.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded July 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2016</t>
+  </si>
+  <si>
+    <t>The room and halls were dirty--we had to clean the room upon arrival.  3 out of 5 dryers not working. Ants in the room.  Parking lot --a couple of guys living in their car 24 hours for 4 days. Dust on lamps, bugs in bathroom.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r394085255-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>394085255</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>HOTEL FROM HELL</t>
+  </si>
+  <si>
+    <t>this is the most horrific place we have booked for our customers.no service, no high speed access to internet, rude employees, charges much more than any other hotel.  all are advertised but not delivered.no service, no high speed access to internet, rude employees,MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>this is the most horrific place we have booked for our customers.no service, no high speed access to internet, rude employees, charges much more than any other hotel.  all are advertised but not delivered.no service, no high speed access to internet, rude employees,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r371968511-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>371968511</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>this hotel was the best!</t>
+  </si>
+  <si>
+    <t>LOVEEED THE SERVICE!!!!!!!!manager was really nice!will really stay here again loved the housekeepers they are great in leaving the room super clean and detailed ! not rude at all!!!cant wait to come back here nxt yearso i give this hotel 100% great customer serviceMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded May 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2016</t>
+  </si>
+  <si>
+    <t>LOVEEED THE SERVICE!!!!!!!!manager was really nice!will really stay here again loved the housekeepers they are great in leaving the room super clean and detailed ! not rude at all!!!cant wait to come back here nxt yearso i give this hotel 100% great customer serviceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r359542910-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>359542910</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t>Not worth the price!!!</t>
+  </si>
+  <si>
+    <t>I paid $179 for a $45 one star room. They are not flexible about early check ins. Only room avail was handicapped first floor so bathroom was one giant roll in shower. A bottle of dog shampoo was left behind on a dirty soapdish. (nice to know last one in there was a dog)! Dirty Shower pan and tile floors, Several Holes in old dingy blanket, Outdated furnishings. You can hear anyone above walking around. Only one cup/glass, no ice machine nor any ice made in freezer. Way Overpriced! I'll never stay here again. Brea location much, much cleaner/nicer!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded April 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2016</t>
+  </si>
+  <si>
+    <t>I paid $179 for a $45 one star room. They are not flexible about early check ins. Only room avail was handicapped first floor so bathroom was one giant roll in shower. A bottle of dog shampoo was left behind on a dirty soapdish. (nice to know last one in there was a dog)! Dirty Shower pan and tile floors, Several Holes in old dingy blanket, Outdated furnishings. You can hear anyone above walking around. Only one cup/glass, no ice machine nor any ice made in freezer. Way Overpriced! I'll never stay here again. Brea location much, much cleaner/nicer!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r359481536-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>359481536</t>
+  </si>
+  <si>
+    <t>Excellent stay away from the tourist and traffic!</t>
+  </si>
+  <si>
+    <t>Room was more than expected, clean, well maintained.  On premise laundry facility and 24 hour availability made it accommodating for us.  Grab and go breakfast was like it says "grab and go", held the kids for when we reached the theme parks.  Staff was more than helpful and answered our questions and resolved our problems efficiently.MoreShow less</t>
+  </si>
+  <si>
+    <t>Room was more than expected, clean, well maintained.  On premise laundry facility and 24 hour availability made it accommodating for us.  Grab and go breakfast was like it says "grab and go", held the kids for when we reached the theme parks.  Staff was more than helpful and answered our questions and resolved our problems efficiently.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r347704710-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>347704710</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t>It Worked Well</t>
+  </si>
+  <si>
+    <t>I hadn't been at this ESA before but since I had business in the area I gave it a try.  Everything worked well and it was clean.  Nice TV.  A newer large flat screen.  Wished it had more channels though but it worked.  The A/C / heater worked fine and the internet signal was strong.  The desk clerk was friendly and efficient. What I find interesting about this chain is that the several of their locations that I have stayed at in California all have the same notice hanging in the bathroom.  It says "Help Save Water!  California Is Facing A Historic Drought."  And then it suggests that you continue to use your used towels and sheets.  What's interesting is that the owners of this chain is NOT doing their share.  The faucets in the tub are very antiquated  They're the type that either they're off or they're FULL ON. NO in-between.  They could be saving thousands of gallons of water by updating these.  Oh well.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded February 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2016</t>
+  </si>
+  <si>
+    <t>I hadn't been at this ESA before but since I had business in the area I gave it a try.  Everything worked well and it was clean.  Nice TV.  A newer large flat screen.  Wished it had more channels though but it worked.  The A/C / heater worked fine and the internet signal was strong.  The desk clerk was friendly and efficient. What I find interesting about this chain is that the several of their locations that I have stayed at in California all have the same notice hanging in the bathroom.  It says "Help Save Water!  California Is Facing A Historic Drought."  And then it suggests that you continue to use your used towels and sheets.  What's interesting is that the owners of this chain is NOT doing their share.  The faucets in the tub are very antiquated  They're the type that either they're off or they're FULL ON. NO in-between.  They could be saving thousands of gallons of water by updating these.  Oh well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r342385947-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>342385947</t>
+  </si>
+  <si>
+    <t>01/24/2016</t>
+  </si>
+  <si>
+    <t>Average with bait and switch rates</t>
+  </si>
+  <si>
+    <t>Not bad, except profound dishonest with rates.I didn't know how long I would need a temporary place. It $2 lower per day for 15 days versus eight. (62.99 vs 64.99.) Plus, my reservation noted that any discount for longer stays would be taken out at checkout.I found a place sooner than expected and so shortened my stay to 8 days. They changed my daily rate to $69.99 for the first 7 nights and then double-charged me $94.99 for the last night.According to my spreadsheet, they overcharged me by $172.49MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded February 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2016</t>
+  </si>
+  <si>
+    <t>Not bad, except profound dishonest with rates.I didn't know how long I would need a temporary place. It $2 lower per day for 15 days versus eight. (62.99 vs 64.99.) Plus, my reservation noted that any discount for longer stays would be taken out at checkout.I found a place sooner than expected and so shortened my stay to 8 days. They changed my daily rate to $69.99 for the first 7 nights and then double-charged me $94.99 for the last night.According to my spreadsheet, they overcharged me by $172.49More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r334683483-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>334683483</t>
+  </si>
+  <si>
+    <t>12/23/2015</t>
+  </si>
+  <si>
+    <t>Just so so - about what you'd expect</t>
+  </si>
+  <si>
+    <t>I had never stayed at an Extended Stay, but when I did, it pretty much lived up to my expectations which is to say, not much. It's a basic hotel room that is nice enough to sleep in, but is not somewhere I would ever want to hang out at during the day. Rooms are not cleaned regularly, which is fine by me. Towels can be exchanged at the front desk. The small continental breakfast in the lobby was fine for being free--oatmeal, a few types of fruit and coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded January 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2016</t>
+  </si>
+  <si>
+    <t>I had never stayed at an Extended Stay, but when I did, it pretty much lived up to my expectations which is to say, not much. It's a basic hotel room that is nice enough to sleep in, but is not somewhere I would ever want to hang out at during the day. Rooms are not cleaned regularly, which is fine by me. Towels can be exchanged at the front desk. The small continental breakfast in the lobby was fine for being free--oatmeal, a few types of fruit and coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r305939644-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>305939644</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>"Nice staff but overpriced"</t>
+  </si>
+  <si>
+    <t>I stayed for 3/2 nights the staff was very nice. Hotel is located 5 blocks from Disneyland which is very helpful if you want to walk to park and enjoy the area. there is a shuttle that also comes on property for $5.00. the room was very basic and even though there is a kitchenette it was not that helpful to me since there is only two burners. i was thinking when i booked that i would have full kitchen. for the price you should get more. the biggest complaint would be that there is no ice machine at all ! The assistant manager GG was very helpful and try to help me with shuttle arrangements so i appreciate that.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded September 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2015</t>
+  </si>
+  <si>
+    <t>I stayed for 3/2 nights the staff was very nice. Hotel is located 5 blocks from Disneyland which is very helpful if you want to walk to park and enjoy the area. there is a shuttle that also comes on property for $5.00. the room was very basic and even though there is a kitchenette it was not that helpful to me since there is only two burners. i was thinking when i booked that i would have full kitchen. for the price you should get more. the biggest complaint would be that there is no ice machine at all ! The assistant manager GG was very helpful and try to help me with shuttle arrangements so i appreciate that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r303176311-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>303176311</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>Been to better Extended Stays</t>
+  </si>
+  <si>
+    <t>Shame that this Extended Stay was a bit of a let down. The room was very basic, however everyday things you expect a hotel to have available were hard to get a hold of.We asked for a hairdryer for 4 nights in a row, and they kept telling us they would deliver one. We ended up just buying one from Walmart. Same with towels. Impossible to get hold of clean ones.Just spend a few more bucks and get a proper hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded September 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2015</t>
+  </si>
+  <si>
+    <t>Shame that this Extended Stay was a bit of a let down. The room was very basic, however everyday things you expect a hotel to have available were hard to get a hold of.We asked for a hairdryer for 4 nights in a row, and they kept telling us they would deliver one. We ended up just buying one from Walmart. Same with towels. Impossible to get hold of clean ones.Just spend a few more bucks and get a proper hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r294867288-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>294867288</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>A brief walk and good dining options along the way</t>
+  </si>
+  <si>
+    <t>About 5 blocks from main gate of Disney. Accommodations were decent. We needed it for one night since our other hotel (previously boomed) was already sold out for the night we needed to add on. Booked a military rate and joining the rewards program (for free) added an additional discount. Although check out staff forgot to make adjustment the front desk management followed up immediately to confirm discount adjusted.Room was clean, breakfast was basic continental. Would consider them again if other locations normally desired not available.Cheesecake Factory less than one block away, a 7-11 nearby along with souvenir store. Also very close to Anaheim Garden Walk with several stores, restaurant and movie theatre nearby.This is definitely a place to consider for more than just a few days stay when needing studio or suite accommodations.  Kitchenette is decent sized.Biggest suggestion for any travelers... don't try to do Disney in one day. Break up your visits to the park and experience your stay in the Anaheim resort area. You will get a better experience overall and a good place to stay while you're there.MoreShow less</t>
+  </si>
+  <si>
+    <t>About 5 blocks from main gate of Disney. Accommodations were decent. We needed it for one night since our other hotel (previously boomed) was already sold out for the night we needed to add on. Booked a military rate and joining the rewards program (for free) added an additional discount. Although check out staff forgot to make adjustment the front desk management followed up immediately to confirm discount adjusted.Room was clean, breakfast was basic continental. Would consider them again if other locations normally desired not available.Cheesecake Factory less than one block away, a 7-11 nearby along with souvenir store. Also very close to Anaheim Garden Walk with several stores, restaurant and movie theatre nearby.This is definitely a place to consider for more than just a few days stay when needing studio or suite accommodations.  Kitchenette is decent sized.Biggest suggestion for any travelers... don't try to do Disney in one day. Break up your visits to the park and experience your stay in the Anaheim resort area. You will get a better experience overall and a good place to stay while you're there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r272762162-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>272762162</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>good but be watchful</t>
+  </si>
+  <si>
+    <t>Attached kitchen is really helpful when travelling with family and kids and ESA is known for its basic+, clean, economical options. We find this hotel comfortable but you really have to be sure your room is properly cleaned and done. 1. We took two rooms, one is fine but the other has food/beer in the refrigerator and trash. That could mean a lot for a picky traveller, but overall this is a good stay, we only have to be watchful. 2. There is no daily house-keeping unless you stay for more than 6 days. 3. staff at reception are cordial and helpful. 4. And yes, you have to explicitly ask for the 'kitchen tub', otherwise there is no cutlery in the room. This is only a few miles away from the disneyland but the fare per night is still bearable in this area. So, this makes a nice option for all visiting the disney.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Attached kitchen is really helpful when travelling with family and kids and ESA is known for its basic+, clean, economical options. We find this hotel comfortable but you really have to be sure your room is properly cleaned and done. 1. We took two rooms, one is fine but the other has food/beer in the refrigerator and trash. That could mean a lot for a picky traveller, but overall this is a good stay, we only have to be watchful. 2. There is no daily house-keeping unless you stay for more than 6 days. 3. staff at reception are cordial and helpful. 4. And yes, you have to explicitly ask for the 'kitchen tub', otherwise there is no cutlery in the room. This is only a few miles away from the disneyland but the fare per night is still bearable in this area. So, this makes a nice option for all visiting the disney.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r272607707-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>272607707</t>
+  </si>
+  <si>
+    <t>05/17/2015</t>
+  </si>
+  <si>
+    <t>Very friendly staff.</t>
+  </si>
+  <si>
+    <t>We have stayed in a lot of hotels, and stayed in this hotel for 2 months, so we know what a friendly staff is like.  Carolyn and Gigi and there staff truly made it very nice.  If I can't be home, it is sure nice for people to make you feel at home.  Oh yeah, watching the Disneyland fireworks out my window every night was a great added bonus.  I definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2015</t>
+  </si>
+  <si>
+    <t>We have stayed in a lot of hotels, and stayed in this hotel for 2 months, so we know what a friendly staff is like.  Carolyn and Gigi and there staff truly made it very nice.  If I can't be home, it is sure nice for people to make you feel at home.  Oh yeah, watching the Disneyland fireworks out my window every night was a great added bonus.  I definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r270919425-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>270919425</t>
+  </si>
+  <si>
+    <t>05/09/2015</t>
+  </si>
+  <si>
+    <t>Mr.Simmons project manager Hale Glass Corp.</t>
+  </si>
+  <si>
+    <t>I would highly recommend this hotel for short or extended stays what you get for your dollar can not be matched.the staff was helpful and kind. The place was always clean and new looking and up to date. Very quiet and private. The very worst thing was freeway noise . I had to keep the dual windows closed due to the noise which seemed to remedy the problem. The A/C units were a little loud but worked well. No other issues in an 8 month stay. NOT BAD !!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded May 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2015</t>
+  </si>
+  <si>
+    <t>I would highly recommend this hotel for short or extended stays what you get for your dollar can not be matched.the staff was helpful and kind. The place was always clean and new looking and up to date. Very quiet and private. The very worst thing was freeway noise . I had to keep the dual windows closed due to the noise which seemed to remedy the problem. The A/C units were a little loud but worked well. No other issues in an 8 month stay. NOT BAD !!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r255496109-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>255496109</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Great place to stay. The front desk staff and the manager are very professional and polite.They helped me with all my needs without hesitation. The hotel is very clean and quiet, and my room was very clean and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded March 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2015</t>
+  </si>
+  <si>
+    <t>Great place to stay. The front desk staff and the manager are very professional and polite.They helped me with all my needs without hesitation. The hotel is very clean and quiet, and my room was very clean and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r255246402-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>255246402</t>
+  </si>
+  <si>
+    <t>02/19/2015</t>
+  </si>
+  <si>
+    <t>Sketchy, Dirty Room</t>
+  </si>
+  <si>
+    <t>This was my first experience at this brand in November. The location was next to my husbands work and the drive time would be minimal. Here's my break down of this location-Pros: -Friendly front desk staff that were helpful          In a shopping/business center with a coffee     house, carls Jr, flame broiler, and Remart. Cons: Dirty parking lot, grimey dirty room, dirty elevator.           Sketchy activity in the parking lot           Alot of sketchy people living here            Sign at front desk saying police have a right to search all guest registration information           Police activity alot in the building            Top floor non smoking rooms share a floor with smoking rooms! I finally asked why the hallway on my floor smelled like smoke and i found out the reason.          1st floor smells gross  MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded March 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2015</t>
+  </si>
+  <si>
+    <t>This was my first experience at this brand in November. The location was next to my husbands work and the drive time would be minimal. Here's my break down of this location-Pros: -Friendly front desk staff that were helpful          In a shopping/business center with a coffee     house, carls Jr, flame broiler, and Remart. Cons: Dirty parking lot, grimey dirty room, dirty elevator.           Sketchy activity in the parking lot           Alot of sketchy people living here            Sign at front desk saying police have a right to search all guest registration information           Police activity alot in the building            Top floor non smoking rooms share a floor with smoking rooms! I finally asked why the hallway on my floor smelled like smoke and i found out the reason.          1st floor smells gross  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r250491908-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>250491908</t>
+  </si>
+  <si>
+    <t>01/22/2015</t>
+  </si>
+  <si>
+    <t>Very Disappointing</t>
+  </si>
+  <si>
+    <t>BEWARE - this place is very disappointing.  I was shocked to arrive at this Extended Stay hotel &amp; find the cabinets &amp; drawers completely bare in my room - not even a coffee pot.  When I called about it I was told I could get coffee at the front.  Later I went to the front desk &amp; was told "oh - didn't you see a sign in your room that says you have to ask for these things?" (my room has no such sign).  At that point I was given a coffee pot in a bag which contained 1 coffee packet, 2 creamer &amp; 2 sugar packets (no sweeteners &amp; I have diabetes).  And of course I had no cups in my room (so used an empty soda cup from the night before). There's a stove in the room it had no pots &amp; pans or utensils.  Apparently you have to request that too.  The so-called continental "breakfast" consisted of gummy packaged muffins, granola bars &amp; apples (1 rotten apple lying at the bottom by the door).  On my way to "breakfast" I also noticed the dark brown hallway carpet was covered in bits of paper that had never been vacuumed.  1 washcloth.  Very limited cable channels (though there were 2 showtime channels).  Staff is not overly helpful or friendly.  WILL NEVER STAY HERE AGAIN (though I'm stuck for 2 nights due to cancellation policy).MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded January 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2015</t>
+  </si>
+  <si>
+    <t>BEWARE - this place is very disappointing.  I was shocked to arrive at this Extended Stay hotel &amp; find the cabinets &amp; drawers completely bare in my room - not even a coffee pot.  When I called about it I was told I could get coffee at the front.  Later I went to the front desk &amp; was told "oh - didn't you see a sign in your room that says you have to ask for these things?" (my room has no such sign).  At that point I was given a coffee pot in a bag which contained 1 coffee packet, 2 creamer &amp; 2 sugar packets (no sweeteners &amp; I have diabetes).  And of course I had no cups in my room (so used an empty soda cup from the night before). There's a stove in the room it had no pots &amp; pans or utensils.  Apparently you have to request that too.  The so-called continental "breakfast" consisted of gummy packaged muffins, granola bars &amp; apples (1 rotten apple lying at the bottom by the door).  On my way to "breakfast" I also noticed the dark brown hallway carpet was covered in bits of paper that had never been vacuumed.  1 washcloth.  Very limited cable channels (though there were 2 showtime channels).  Staff is not overly helpful or friendly.  WILL NEVER STAY HERE AGAIN (though I'm stuck for 2 nights due to cancellation policy).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r239403190-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>239403190</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>Stay away!!</t>
+  </si>
+  <si>
+    <t>Booked this for my mother so she was close to her sister.  Breakfast is average at best.  NO ice machine in the hotel, NO maid service during your stay, NO plates, glasses, pans on and on.  I book a smoking room, NO ashtrays even after going to the front desk where they said sorry they always walk off.  As my mother said, "Do NOT book a room here for anyone!" At the end of the day they would rather spend a few dollars more due to their experience.  Her and her boyfriend took the LUX bus in from Las Vegas and they would of rather stayed at the DoubleTree in Orange at approximately $80.00 more a night than stay here.  And this from someone whom is on a monthly budget.The only good thing is you can walk to a movie theater, Lazy Dog, Chili's and Kilted Skirt not to mention, Honda Center as well as the A"s!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Booked this for my mother so she was close to her sister.  Breakfast is average at best.  NO ice machine in the hotel, NO maid service during your stay, NO plates, glasses, pans on and on.  I book a smoking room, NO ashtrays even after going to the front desk where they said sorry they always walk off.  As my mother said, "Do NOT book a room here for anyone!" At the end of the day they would rather spend a few dollars more due to their experience.  Her and her boyfriend took the LUX bus in from Las Vegas and they would of rather stayed at the DoubleTree in Orange at approximately $80.00 more a night than stay here.  And this from someone whom is on a monthly budget.The only good thing is you can walk to a movie theater, Lazy Dog, Chili's and Kilted Skirt not to mention, Honda Center as well as the A"s!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r233953282-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>233953282</t>
+  </si>
+  <si>
+    <t>10/12/2014</t>
+  </si>
+  <si>
+    <t>Good price but not worth it</t>
+  </si>
+  <si>
+    <t>Close to Honda Center and located in a shopping center with a theater and numerous eating establishments. Rooms were clean but this hotel provides nothing in your room (coffee maker, utensils, pans,etc) unless you ask and then pay another fee. Most hotels with a kitchen provide some of these things. Our hallway reeked of Marijuana and staff couldn't do anything about it unless they knew EXACTLY who had it. Not handicap friendly either. They provide coffee and cheap muffins in lobby,but u better hurry to get some because by 10, it disappears. I went down at 9:58 &amp; they had already put it away. Coffee is inexpensive and they should keep it out all day. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded November 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2014</t>
+  </si>
+  <si>
+    <t>Close to Honda Center and located in a shopping center with a theater and numerous eating establishments. Rooms were clean but this hotel provides nothing in your room (coffee maker, utensils, pans,etc) unless you ask and then pay another fee. Most hotels with a kitchen provide some of these things. Our hallway reeked of Marijuana and staff couldn't do anything about it unless they knew EXACTLY who had it. Not handicap friendly either. They provide coffee and cheap muffins in lobby,but u better hurry to get some because by 10, it disappears. I went down at 9:58 &amp; they had already put it away. Coffee is inexpensive and they should keep it out all day. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r223837635-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>223837635</t>
+  </si>
+  <si>
+    <t>08/23/2014</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>I have stayed at other extended stay hotels and this has been the worst experience by far. It did not meet average expectations for a two star hotel in any categories. Room was not ready when I came. I ha to wait two hours later for my room. Staff was incredibly dismissive and rude. The location is right next to the freeway- very loud. Windows were dirty and covered in a thick layer of dirt. The pillows had a horrible odor to them. There was a loud argument  in the lobby with two drunk guys and the maid. I could go on...MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded August 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at other extended stay hotels and this has been the worst experience by far. It did not meet average expectations for a two star hotel in any categories. Room was not ready when I came. I ha to wait two hours later for my room. Staff was incredibly dismissive and rude. The location is right next to the freeway- very loud. Windows were dirty and covered in a thick layer of dirt. The pillows had a horrible odor to them. There was a loud argument  in the lobby with two drunk guys and the maid. I could go on...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r215259729-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>215259729</t>
+  </si>
+  <si>
+    <t>07/13/2014</t>
+  </si>
+  <si>
+    <t>Very good place to stay for Disneyland visitors</t>
+  </si>
+  <si>
+    <t>Pros:- The room was nice and comfortable. Everything was clean and in good working order.- The proximity to Disneyland (10-15 minutes) was terrific. So easy and quick to get to the park.- The grab-and-go breakfast was adequate (apples or oranges, granola/oatmeal bars, coffee), but made for great Disneyland snacks! I would definitely recommend taking a bit extra and bringing it to the park!Cons:- The corridor for the first floor rooms was not exactly in the best shape. It seemed it was not well taken care of. However, once you get through it, all is forgotten.Overall: A convenient and comfortable place to stay for your Disneyland vacation.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded July 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2014</t>
+  </si>
+  <si>
+    <t>Pros:- The room was nice and comfortable. Everything was clean and in good working order.- The proximity to Disneyland (10-15 minutes) was terrific. So easy and quick to get to the park.- The grab-and-go breakfast was adequate (apples or oranges, granola/oatmeal bars, coffee), but made for great Disneyland snacks! I would definitely recommend taking a bit extra and bringing it to the park!Cons:- The corridor for the first floor rooms was not exactly in the best shape. It seemed it was not well taken care of. However, once you get through it, all is forgotten.Overall: A convenient and comfortable place to stay for your Disneyland vacation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r213845432-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>213845432</t>
+  </si>
+  <si>
+    <t>07/05/2014</t>
+  </si>
+  <si>
+    <t>A Good Surprise</t>
+  </si>
+  <si>
+    <t>We were going to Knotts for the day and heading up to Big Bear the next day and just needed a room for the day/night because we had our pet with us. We needed to check in around 10am and it was becoming impossible to find a place that would take us were we usually stay (Hyatt, Marriott) We were able to check in at 11 to a smoking room (we do not smoke) which was surprisingly very clean and not stinky at all. Staff was very nice and accommodating. Loved that they had a kitchen setup. Overall it was a good stay.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded July 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2014</t>
+  </si>
+  <si>
+    <t>We were going to Knotts for the day and heading up to Big Bear the next day and just needed a room for the day/night because we had our pet with us. We needed to check in around 10am and it was becoming impossible to find a place that would take us were we usually stay (Hyatt, Marriott) We were able to check in at 11 to a smoking room (we do not smoke) which was surprisingly very clean and not stinky at all. Staff was very nice and accommodating. Loved that they had a kitchen setup. Overall it was a good stay.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r207745147-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>207745147</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>This place is amazing!!!!</t>
+  </si>
+  <si>
+    <t>I have stayed here several times and each and every time has been absolutely perfect!  The Front Desk staff is amazing as is the property itself.  The grab and go breakfast is great and always well stocked.  The property is clean and the rooms are incredibly comfortable.  I would highly recommend this property to anyone who is looking for a quiet and relaxing place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded June 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed here several times and each and every time has been absolutely perfect!  The Front Desk staff is amazing as is the property itself.  The grab and go breakfast is great and always well stocked.  The property is clean and the rooms are incredibly comfortable.  I would highly recommend this property to anyone who is looking for a quiet and relaxing place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r203245081-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>203245081</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
+    <t>Amazing written all over this place!!!</t>
+  </si>
+  <si>
+    <t>Had the best experience out here as well as staff presentation. I will definitely come back out here for another stay. Definitely worth every dime. Customer service was great. Room was clean and if there was any problem, it was taken care of right away. Definitely made my family experience hassle free and much more than just wonderful MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded May 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2014</t>
+  </si>
+  <si>
+    <t>Had the best experience out here as well as staff presentation. I will definitely come back out here for another stay. Definitely worth every dime. Customer service was great. Room was clean and if there was any problem, it was taken care of right away. Definitely made my family experience hassle free and much more than just wonderful More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r203245007-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>203245007</t>
+  </si>
+  <si>
+    <t>Outstanding!!</t>
+  </si>
+  <si>
+    <t>My stay at extended stay was just amazing. The cleanliness of the room was phenomenal. The customer service was exceptionally friendly. My check in was fast and simple. My room service was out of this world. I didnt want to leave the hotel because of how awesome my accommodations were. I did not want to leave the hotel room. MoreShow less</t>
+  </si>
+  <si>
+    <t>My stay at extended stay was just amazing. The cleanliness of the room was phenomenal. The customer service was exceptionally friendly. My check in was fast and simple. My room service was out of this world. I didnt want to leave the hotel because of how awesome my accommodations were. I did not want to leave the hotel room. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r203244948-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>203244948</t>
+  </si>
+  <si>
+    <t>Economically Friendly</t>
+  </si>
+  <si>
+    <t>Great stay, friendly staff (including front desk clerk Chris, and manager). I felt like it was more of a home than a hotel! The room also came with many extra amenities perfect for multiple night stays. I would recommend these hotels to anyone! Cons? Wifi speed, no daily serviceMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Great stay, friendly staff (including front desk clerk Chris, and manager). I felt like it was more of a home than a hotel! The room also came with many extra amenities perfect for multiple night stays. I would recommend these hotels to anyone! Cons? Wifi speed, no daily serviceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r200252025-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>200252025</t>
+  </si>
+  <si>
+    <t>04/07/2014</t>
+  </si>
+  <si>
+    <t>staying for work</t>
+  </si>
+  <si>
+    <t>Overall cleanliness of room was gross. I was stuck staying here for a month for work. There was hair on bedsheets and towels. Sweat stained pillows and old gross stained blankets. I'm glad I brought my own and i ended up cleaning the room myself just to make sure.  Upon my wakeup on first night, there were police in the room across from me looking for a wanted person. The hotel could give no explanation as to what was going on because police wouldn't tell them, but the person wasn't coming back. The train every evening felt like an earthquake when it passed. I would never stay at this location again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded April 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2014</t>
+  </si>
+  <si>
+    <t>Overall cleanliness of room was gross. I was stuck staying here for a month for work. There was hair on bedsheets and towels. Sweat stained pillows and old gross stained blankets. I'm glad I brought my own and i ended up cleaning the room myself just to make sure.  Upon my wakeup on first night, there were police in the room across from me looking for a wanted person. The hotel could give no explanation as to what was going on because police wouldn't tell them, but the person wasn't coming back. The train every evening felt like an earthquake when it passed. I would never stay at this location again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r196945001-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>196945001</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>Say Something</t>
+  </si>
+  <si>
+    <t>Just walked in and looking for a place for me, just wanted to relax and away from people at home.......first time at Extended Stay Hotel, was studio room and impressed that they had everything inside, neat and clean. I like it a lot except no hair dryer but that was good to know that when i check in the guy was helping me said that if anything i need or help just call the front desk. "My bad " accidentally forgot my Debit card at the desk that was nice of them that they informed me rigth away make me feel comfortable. I will recomend this place to my family and friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded March 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2014</t>
+  </si>
+  <si>
+    <t>Just walked in and looking for a place for me, just wanted to relax and away from people at home.......first time at Extended Stay Hotel, was studio room and impressed that they had everything inside, neat and clean. I like it a lot except no hair dryer but that was good to know that when i check in the guy was helping me said that if anything i need or help just call the front desk. "My bad " accidentally forgot my Debit card at the desk that was nice of them that they informed me rigth away make me feel comfortable. I will recomend this place to my family and friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r196658725-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>196658725</t>
+  </si>
+  <si>
+    <t>03/08/2014</t>
+  </si>
+  <si>
+    <t>Best value for the money!</t>
+  </si>
+  <si>
+    <t>Everything exceeded my expectations!  I had some very specific needs and the staff did everything they could to help us.  The rooms were clean, the kitchen saved us money and the beds were very comfortable (for the price).  I highly recommend this hotel and plan on staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded March 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2014</t>
+  </si>
+  <si>
+    <t>Everything exceeded my expectations!  I had some very specific needs and the staff did everything they could to help us.  The rooms were clean, the kitchen saved us money and the beds were very comfortable (for the price).  I highly recommend this hotel and plan on staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r194889259-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>194889259</t>
+  </si>
+  <si>
+    <t>02/21/2014</t>
+  </si>
+  <si>
+    <t>Great Stay, Location &amp; Rooms</t>
+  </si>
+  <si>
+    <t>Stayed at the Extended Stay America (Anaheim Hills) for 2 months. The staff were extremely helpful, professional and courteous.  The location was very convenient and close to several restaurants. The hotel and the rooms were clean and well maintained. The studio style living here made it very convenient and easy for anyone looking to stay for an extended period. The stay was very well priced and you will definitely get a great value for your money. I highly recommend this hotel for both short and long term stays.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded February 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2014</t>
+  </si>
+  <si>
+    <t>Stayed at the Extended Stay America (Anaheim Hills) for 2 months. The staff were extremely helpful, professional and courteous.  The location was very convenient and close to several restaurants. The hotel and the rooms were clean and well maintained. The studio style living here made it very convenient and easy for anyone looking to stay for an extended period. The stay was very well priced and you will definitely get a great value for your money. I highly recommend this hotel for both short and long term stays.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r194599017-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>194599017</t>
+  </si>
+  <si>
+    <t>02/18/2014</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>(Before I post this review, I must aplogize to Dalip for the delay in this review. Circumstances beyond my control prevented me from doing so, BUT, I will have the pleasure of seeing him again as Priceline booked my hotel trip again for this weekend.)I booked this through Priceline last month, January, and was a little concerned after reading some of reviews. But after contact Dalip through email, he was very helpful and made sure that whatever concern I had were taken care of. The property was going through some sort of construction make over, but it did not interfere with my being there, and the property was clean and everything in order. The room itself was pretty immaculate. Sure, there is some wear on the furniture, but the room was spit-spot clean. The front desk was very professional and responsive. I did not eat breakfast here, so I can not comment on the breakfast items. The hotel is within an enclosed Office Park and there is an "It's a Grind" Coffee House and Teriyaki Bowl Joint place which name I don't remember. Taco Bell, Pollo Loco and Starbucks are right nearby as well. I really liked the easy freeway access. Even though it's near the freeway, it's a restful play to stay. So Dalip....here I come...see you on Friday!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded February 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2014</t>
+  </si>
+  <si>
+    <t>(Before I post this review, I must aplogize to Dalip for the delay in this review. Circumstances beyond my control prevented me from doing so, BUT, I will have the pleasure of seeing him again as Priceline booked my hotel trip again for this weekend.)I booked this through Priceline last month, January, and was a little concerned after reading some of reviews. But after contact Dalip through email, he was very helpful and made sure that whatever concern I had were taken care of. The property was going through some sort of construction make over, but it did not interfere with my being there, and the property was clean and everything in order. The room itself was pretty immaculate. Sure, there is some wear on the furniture, but the room was spit-spot clean. The front desk was very professional and responsive. I did not eat breakfast here, so I can not comment on the breakfast items. The hotel is within an enclosed Office Park and there is an "It's a Grind" Coffee House and Teriyaki Bowl Joint place which name I don't remember. Taco Bell, Pollo Loco and Starbucks are right nearby as well. I really liked the easy freeway access. Even though it's near the freeway, it's a restful play to stay. So Dalip....here I come...see you on Friday!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r194103497-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>194103497</t>
+  </si>
+  <si>
+    <t>02/14/2014</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Basic, reasonable, clean, courteous, reliable...all appropriate for the business traveler. However, for this particular property one of the biggest gripes (having nothing to do with the hotel itself) is that there are NO decent restaurants that are close to this site. There are many fast-food type of places, but if you want a regular sit-down restaurant type of experience to chill out, have a few drinks and generally unwind (as many of us business travelers need) you will be very disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded February 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2014</t>
+  </si>
+  <si>
+    <t>Basic, reasonable, clean, courteous, reliable...all appropriate for the business traveler. However, for this particular property one of the biggest gripes (having nothing to do with the hotel itself) is that there are NO decent restaurants that are close to this site. There are many fast-food type of places, but if you want a regular sit-down restaurant type of experience to chill out, have a few drinks and generally unwind (as many of us business travelers need) you will be very disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r189491497-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>189491497</t>
+  </si>
+  <si>
+    <t>01/03/2014</t>
+  </si>
+  <si>
+    <t>Hotel was in bad shape and smelled like smoke</t>
+  </si>
+  <si>
+    <t>This Extended Stay America was in poor shape after a room fire and smelled like smoke. My colleague received a room that smelled of cat urine and changed to a different room. Extended Stay America should not be ranked a 2 star hotel, by the greatest exaggeration it could be a 1-1/2 star but really should be ranked 1 star. The bedding is not comfortable, the toilet paper is little better than 220 grit sandpaper and the breakfast of cereal bars and coffee does not qualify as breakfast included. The fact that maid service is an extra charge should indicate the type of hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded January 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2014</t>
+  </si>
+  <si>
+    <t>This Extended Stay America was in poor shape after a room fire and smelled like smoke. My colleague received a room that smelled of cat urine and changed to a different room. Extended Stay America should not be ranked a 2 star hotel, by the greatest exaggeration it could be a 1-1/2 star but really should be ranked 1 star. The bedding is not comfortable, the toilet paper is little better than 220 grit sandpaper and the breakfast of cereal bars and coffee does not qualify as breakfast included. The fact that maid service is an extra charge should indicate the type of hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r188900364-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>188900364</t>
+  </si>
+  <si>
+    <t>12/29/2013</t>
+  </si>
+  <si>
+    <t>Service Trumps!</t>
+  </si>
+  <si>
+    <t>I stayed with my family for two days at this place while visiting Disney. The staff were courteous and friendly and stayed positive even when things went bad. Love that attitude and service mindset as it trumps all others for me. The facilities were neat, the bed was clean, the room and rest room were clean. Breakfast could have been better but then it was not bad. Thanks to the lady whose name starts with W...it was a long unusual name and I forgot to write it down sorry...but your service is still vivid in my memory. Will definitely recommend to stay with family.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded December 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2013</t>
+  </si>
+  <si>
+    <t>I stayed with my family for two days at this place while visiting Disney. The staff were courteous and friendly and stayed positive even when things went bad. Love that attitude and service mindset as it trumps all others for me. The facilities were neat, the bed was clean, the room and rest room were clean. Breakfast could have been better but then it was not bad. Thanks to the lady whose name starts with W...it was a long unusual name and I forgot to write it down sorry...but your service is still vivid in my memory. Will definitely recommend to stay with family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r188327634-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>188327634</t>
+  </si>
+  <si>
+    <t>12/22/2013</t>
+  </si>
+  <si>
+    <t>Longer than expected re-location stay</t>
+  </si>
+  <si>
+    <t>Dalip Kumar, the hotel manager, is beyond outstanding. Always warm, friendly, and genuine. Has gone way out of his way to make sure my stay here has been excellent. Know of NO OTHER manager that is as "good" as he is. Lupinina at the front is the greatest. Always says it is a pleasure to serve me. She also helped with computer lessons to help me accomplish several jobs that were over my head. I call her "my go to girl". Great, great, great! Still staying her for over 6 weeks. Plan to stay about another month. Beyond excellent place to stay. Very reasonable rates and worth every penny.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Owner at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded December 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 24, 2013</t>
+  </si>
+  <si>
+    <t>Dalip Kumar, the hotel manager, is beyond outstanding. Always warm, friendly, and genuine. Has gone way out of his way to make sure my stay here has been excellent. Know of NO OTHER manager that is as "good" as he is. Lupinina at the front is the greatest. Always says it is a pleasure to serve me. She also helped with computer lessons to help me accomplish several jobs that were over my head. I call her "my go to girl". Great, great, great! Still staying her for over 6 weeks. Plan to stay about another month. Beyond excellent place to stay. Very reasonable rates and worth every penny.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r185508076-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>185508076</t>
+  </si>
+  <si>
+    <t>11/22/2013</t>
+  </si>
+  <si>
+    <t>Hope you like smoke</t>
+  </si>
+  <si>
+    <t>I've stayed here now many times during the past five months.  Most times the stay is pleasant, but this time the room (a non-smoking one) reeked of smoke.  It was in the carpet, the bed, the curtains.... everywhere!   As a non-smoker, it was extremely unpleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded November 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2013</t>
+  </si>
+  <si>
+    <t>I've stayed here now many times during the past five months.  Most times the stay is pleasant, but this time the room (a non-smoking one) reeked of smoke.  It was in the carpet, the bed, the curtains.... everywhere!   As a non-smoker, it was extremely unpleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r182764659-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>182764659</t>
+  </si>
+  <si>
+    <t>10/28/2013</t>
+  </si>
+  <si>
+    <t>What a load of stench!</t>
+  </si>
+  <si>
+    <t>Stayed here for a while, the rooms were terrible, uncomfortable beds with stains on the padding .. stinky carpet and I tell you what housekeeping don't have a clue. Quick 2 minute job, no dusting or polishing .. Can't speak English either, you kidding me? How do these people communicate?I will never stay here again. The reception staff were great though. Helped me everytime.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded October 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for a while, the rooms were terrible, uncomfortable beds with stains on the padding .. stinky carpet and I tell you what housekeeping don't have a clue. Quick 2 minute job, no dusting or polishing .. Can't speak English either, you kidding me? How do these people communicate?I will never stay here again. The reception staff were great though. Helped me everytime.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r181529690-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>181529690</t>
+  </si>
+  <si>
+    <t>10/18/2013</t>
+  </si>
+  <si>
+    <t>Nice Place To Stay</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in October 2013 and found it to be a very nice and comfortable hotel. The staff is friendly and helpful and the rooms are clean. I was impressed at the amount of cleaning and general maintenance that is done on a daily basis. The only items that I found missing were a hair dryer and work out facility. There is plenty of parking and I haven't seen or heard and loud people partying or talking late night. My kitchen had most everything you would need to cook with and it was relatively clean. My only complaint would be the recliner in my room. The vinyl was cracked and looked like a cat had used it as a scratching post. (see picture)MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded October 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2013</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in October 2013 and found it to be a very nice and comfortable hotel. The staff is friendly and helpful and the rooms are clean. I was impressed at the amount of cleaning and general maintenance that is done on a daily basis. The only items that I found missing were a hair dryer and work out facility. There is plenty of parking and I haven't seen or heard and loud people partying or talking late night. My kitchen had most everything you would need to cook with and it was relatively clean. My only complaint would be the recliner in my room. The vinyl was cracked and looked like a cat had used it as a scratching post. (see picture)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r175120948-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>175120948</t>
+  </si>
+  <si>
+    <t>09/01/2013</t>
+  </si>
+  <si>
+    <t>I extended my stay</t>
+  </si>
+  <si>
+    <t>I have stayed at alot of hotels but this one by far was the best value for the money. The staff and management team were all very hepful and very friendly. The roons very spacious and clean. All and all a very nice safe and peaceful environment. I really enjoyed my stay and would recomend it to everyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded September 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2013</t>
+  </si>
+  <si>
+    <t>I have stayed at alot of hotels but this one by far was the best value for the money. The staff and management team were all very hepful and very friendly. The roons very spacious and clean. All and all a very nice safe and peaceful environment. I really enjoyed my stay and would recomend it to everyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r173393000-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>173393000</t>
+  </si>
+  <si>
+    <t>08/21/2013</t>
+  </si>
+  <si>
+    <t>Extended Stay hotels are definitely a home away from home!</t>
+  </si>
+  <si>
+    <t>You can not beat the price in regard to what you are receiving with this hotel.  Excellent service, clean and spacious rooms including kitchens.  It's definitely like a home away from home.  I fully recommend Extended Stay Hotels...MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded August 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2013</t>
+  </si>
+  <si>
+    <t>You can not beat the price in regard to what you are receiving with this hotel.  Excellent service, clean and spacious rooms including kitchens.  It's definitely like a home away from home.  I fully recommend Extended Stay Hotels...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r170779490-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>170779490</t>
+  </si>
+  <si>
+    <t>08/04/2013</t>
+  </si>
+  <si>
+    <t>Sewer gas odor in bathroom and rocking horse toilet</t>
+  </si>
+  <si>
+    <t>Top of the refrigerator and windows were dirty.  Toilet had recently been caulked at the floor but the bolts were either broken or loose and the sewer odor leaked into the room.  Over all the room appeared clean until you tried to look out the windows.  I cleaned the top of the refrigerator with a disinfectant wipe and presented it to the front desk on check out.  It was black.   They did offer me a discount for my inconvenience.  I think this hotel is too close to the freeway to spend more than a day or two.  The pollution from the traffic permeates the air.  I left with a dry cough from the smog.  I would stay at the other location in Brea next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded August 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2013</t>
+  </si>
+  <si>
+    <t>Top of the refrigerator and windows were dirty.  Toilet had recently been caulked at the floor but the bolts were either broken or loose and the sewer odor leaked into the room.  Over all the room appeared clean until you tried to look out the windows.  I cleaned the top of the refrigerator with a disinfectant wipe and presented it to the front desk on check out.  It was black.   They did offer me a discount for my inconvenience.  I think this hotel is too close to the freeway to spend more than a day or two.  The pollution from the traffic permeates the air.  I left with a dry cough from the smog.  I would stay at the other location in Brea next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r167050851-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>167050851</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>Shiny Clean; reasonably priced, and restful.</t>
+  </si>
+  <si>
+    <t>Just a great home to stay at when your away from home. Trouble free, clean, quiet, fun because there is nothing to think or worry about-it's all taken care of. The staff is happy and cheerful. They make one feel great when away from home. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded July 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2013</t>
+  </si>
+  <si>
+    <t>Just a great home to stay at when your away from home. Trouble free, clean, quiet, fun because there is nothing to think or worry about-it's all taken care of. The staff is happy and cheerful. They make one feel great when away from home. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r164914950-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>164914950</t>
+  </si>
+  <si>
+    <t>06/23/2013</t>
+  </si>
+  <si>
+    <t>Great  value, excellent location, clean and quiet</t>
+  </si>
+  <si>
+    <t>Even though this backs to the 91 freeway, the rooms have heavy storm windows that provide impressive sound proofing. Had no problems getting a good night's sleep, despite the heavy traffic outside. This is property is in excellent condition, and has a very friendly and helpful staff. My only complaint is that the office is closed from 11 pm -7 am and does not provide for checkout, with a full statement on the night before a typical early morning departure.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded June 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2013</t>
+  </si>
+  <si>
+    <t>Even though this backs to the 91 freeway, the rooms have heavy storm windows that provide impressive sound proofing. Had no problems getting a good night's sleep, despite the heavy traffic outside. This is property is in excellent condition, and has a very friendly and helpful staff. My only complaint is that the office is closed from 11 pm -7 am and does not provide for checkout, with a full statement on the night before a typical early morning departure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r163709272-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>163709272</t>
+  </si>
+  <si>
+    <t>06/11/2013</t>
+  </si>
+  <si>
+    <t>Bad to great</t>
+  </si>
+  <si>
+    <t>I booked my stay with Expedia. If I make a mistake, I don't lie about it. I was suppose to have a nonsmoking room and I did. However, between the selection and confirmation of as room, Expedia automatically chose smoking room. It's time, I didn't verify with the hotel about my reservation, and I was in the wrong about my reservation.  Although the night staff was curt with me, that my room's lock wasn't working much, the manager rectified the situation promptly the next morning. Jay was competent and kind in dealing with the situation. He did offer to give me a nonsmoking room the next day. He even helped with the refund of my stay with Expedia as I made accommodation plans elsewhere last night already. If I wasn't going to another hotel, I would stay here again. The guests seemed to enjoy their stay...some seemed to be regulars also. Thank you again to Jay and Gigi.
+Aside from the room being a smoking room, there was a toaster, microwave, fridge, ergonomic chairs and writing tables, iron and ironing board. 
+Oh, the breakfast was a grab and go type consisting of premium flavoured coffee or to chocolate, packaged muffins, oatmeal granola bars, apples, and hot water for whatever else you may want to make. There may well be other things but I was there at 7:15AM. 
+Overall, it could have been a great stay had I gotten a nonsmoking...I booked my stay with Expedia. If I make a mistake, I don't lie about it. I was suppose to have a nonsmoking room and I did. However, between the selection and confirmation of as room, Expedia automatically chose smoking room. It's time, I didn't verify with the hotel about my reservation, and I was in the wrong about my reservation.  Although the night staff was curt with me, that my room's lock wasn't working much, the manager rectified the situation promptly the next morning. Jay was competent and kind in dealing with the situation. He did offer to give me a nonsmoking room the next day. He even helped with the refund of my stay with Expedia as I made accommodation plans elsewhere last night already. If I wasn't going to another hotel, I would stay here again. The guests seemed to enjoy their stay...some seemed to be regulars also. Thank you again to Jay and Gigi.Aside from the room being a smoking room, there was a toaster, microwave, fridge, ergonomic chairs and writing tables, iron and ironing board. Oh, the breakfast was a grab and go type consisting of premium flavoured coffee or to chocolate, packaged muffins, oatmeal granola bars, apples, and hot water for whatever else you may want to make. There may well be other things but I was there at 7:15AM. Overall, it could have been a great stay had I gotten a nonsmoking room that Expedia incorrectly booked for me. Thanks to Extended Stay for offering me a great and smart solution.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked my stay with Expedia. If I make a mistake, I don't lie about it. I was suppose to have a nonsmoking room and I did. However, between the selection and confirmation of as room, Expedia automatically chose smoking room. It's time, I didn't verify with the hotel about my reservation, and I was in the wrong about my reservation.  Although the night staff was curt with me, that my room's lock wasn't working much, the manager rectified the situation promptly the next morning. Jay was competent and kind in dealing with the situation. He did offer to give me a nonsmoking room the next day. He even helped with the refund of my stay with Expedia as I made accommodation plans elsewhere last night already. If I wasn't going to another hotel, I would stay here again. The guests seemed to enjoy their stay...some seemed to be regulars also. Thank you again to Jay and Gigi.
+Aside from the room being a smoking room, there was a toaster, microwave, fridge, ergonomic chairs and writing tables, iron and ironing board. 
+Oh, the breakfast was a grab and go type consisting of premium flavoured coffee or to chocolate, packaged muffins, oatmeal granola bars, apples, and hot water for whatever else you may want to make. There may well be other things but I was there at 7:15AM. 
+Overall, it could have been a great stay had I gotten a nonsmoking...I booked my stay with Expedia. If I make a mistake, I don't lie about it. I was suppose to have a nonsmoking room and I did. However, between the selection and confirmation of as room, Expedia automatically chose smoking room. It's time, I didn't verify with the hotel about my reservation, and I was in the wrong about my reservation.  Although the night staff was curt with me, that my room's lock wasn't working much, the manager rectified the situation promptly the next morning. Jay was competent and kind in dealing with the situation. He did offer to give me a nonsmoking room the next day. He even helped with the refund of my stay with Expedia as I made accommodation plans elsewhere last night already. If I wasn't going to another hotel, I would stay here again. The guests seemed to enjoy their stay...some seemed to be regulars also. Thank you again to Jay and Gigi.Aside from the room being a smoking room, there was a toaster, microwave, fridge, ergonomic chairs and writing tables, iron and ironing board. Oh, the breakfast was a grab and go type consisting of premium flavoured coffee or to chocolate, packaged muffins, oatmeal granola bars, apples, and hot water for whatever else you may want to make. There may well be other things but I was there at 7:15AM. Overall, it could have been a great stay had I gotten a nonsmoking room that Expedia incorrectly booked for me. Thanks to Extended Stay for offering me a great and smart solution.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r154978776-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>154978776</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>dirty bathroom and bed</t>
+  </si>
+  <si>
+    <t>When I checked in I saw visible urine on the toilet. When I went to sleep I found blood on my pillow and dirt on my sheets!  It was not just a little dirt.  I stripped the bed and found multiple stains.  This resulted in the single worst night that I've ever had in a hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded March 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2013</t>
+  </si>
+  <si>
+    <t>When I checked in I saw visible urine on the toilet. When I went to sleep I found blood on my pillow and dirt on my sheets!  It was not just a little dirt.  I stripped the bed and found multiple stains.  This resulted in the single worst night that I've ever had in a hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r153448424-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>153448424</t>
+  </si>
+  <si>
+    <t>03/01/2013</t>
+  </si>
+  <si>
+    <t>Horrible!!!  Stay Away!!!</t>
+  </si>
+  <si>
+    <t>With only 1 room left, they knowingly placed us next to a person with mental issues.  Now I know why everyone moved out of that room, because I did the same thing after trying to get another room for 2 weeks!!  The mental person would yell and scream at the top of his lungs about wanting to kill everyone and stab everyone using every foul language you can imagine.  He would scream, hit, and slam things on the wall.  I even heard him cutting wood in the room.  All of this happened throughout the day and into the night.  The first two weeks, I have seen the cops come by twice and an ambulance that took him away (however, he came back a few days later).  When I asked the counter about that guy and getting another room, I was told that all the rooms were taken and thay they were in process of trying to kick that guy out.  My wife and I couldn't sleep at night and was seriously worried for our safety.  I talked to a another guy across from us (not even sharing a common wall) and he couldn't sleep either.  He called his American Express card and received a full refund!   I emailed  corporate about the situation to see if they could do anything for me, and left all my information.  I never heard back from them.   After two weeks I finally moved out of...With only 1 room left, they knowingly placed us next to a person with mental issues.  Now I know why everyone moved out of that room, because I did the same thing after trying to get another room for 2 weeks!!  The mental person would yell and scream at the top of his lungs about wanting to kill everyone and stab everyone using every foul language you can imagine.  He would scream, hit, and slam things on the wall.  I even heard him cutting wood in the room.  All of this happened throughout the day and into the night.  The first two weeks, I have seen the cops come by twice and an ambulance that took him away (however, he came back a few days later).  When I asked the counter about that guy and getting another room, I was told that all the rooms were taken and thay they were in process of trying to kick that guy out.  My wife and I couldn't sleep at night and was seriously worried for our safety.  I talked to a another guy across from us (not even sharing a common wall) and he couldn't sleep either.  He called his American Express card and received a full refund!   I emailed  corporate about the situation to see if they could do anything for me, and left all my information.  I never heard back from them.   After two weeks I finally moved out of the room and into another room down the hall.  It was better, but the walls are thin.  You can hear everyone above you walking, having sex, and people talking all over the place into the wee hours of the night.  None of the ranges have vents, so if you cook, the smell will stay in your room for a long time.  The windows are hard as hell to close and open!  My wife couldn't get it to budge at all.  I had to apply a lot of force to open and close the window.  This is the same for both rooms. This is the absolutely worst place I have ever stayed in my entire life and will never go back!  I would never recommend this hotel to anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded March 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2013</t>
+  </si>
+  <si>
+    <t>With only 1 room left, they knowingly placed us next to a person with mental issues.  Now I know why everyone moved out of that room, because I did the same thing after trying to get another room for 2 weeks!!  The mental person would yell and scream at the top of his lungs about wanting to kill everyone and stab everyone using every foul language you can imagine.  He would scream, hit, and slam things on the wall.  I even heard him cutting wood in the room.  All of this happened throughout the day and into the night.  The first two weeks, I have seen the cops come by twice and an ambulance that took him away (however, he came back a few days later).  When I asked the counter about that guy and getting another room, I was told that all the rooms were taken and thay they were in process of trying to kick that guy out.  My wife and I couldn't sleep at night and was seriously worried for our safety.  I talked to a another guy across from us (not even sharing a common wall) and he couldn't sleep either.  He called his American Express card and received a full refund!   I emailed  corporate about the situation to see if they could do anything for me, and left all my information.  I never heard back from them.   After two weeks I finally moved out of...With only 1 room left, they knowingly placed us next to a person with mental issues.  Now I know why everyone moved out of that room, because I did the same thing after trying to get another room for 2 weeks!!  The mental person would yell and scream at the top of his lungs about wanting to kill everyone and stab everyone using every foul language you can imagine.  He would scream, hit, and slam things on the wall.  I even heard him cutting wood in the room.  All of this happened throughout the day and into the night.  The first two weeks, I have seen the cops come by twice and an ambulance that took him away (however, he came back a few days later).  When I asked the counter about that guy and getting another room, I was told that all the rooms were taken and thay they were in process of trying to kick that guy out.  My wife and I couldn't sleep at night and was seriously worried for our safety.  I talked to a another guy across from us (not even sharing a common wall) and he couldn't sleep either.  He called his American Express card and received a full refund!   I emailed  corporate about the situation to see if they could do anything for me, and left all my information.  I never heard back from them.   After two weeks I finally moved out of the room and into another room down the hall.  It was better, but the walls are thin.  You can hear everyone above you walking, having sex, and people talking all over the place into the wee hours of the night.  None of the ranges have vents, so if you cook, the smell will stay in your room for a long time.  The windows are hard as hell to close and open!  My wife couldn't get it to budge at all.  I had to apply a lot of force to open and close the window.  This is the same for both rooms. This is the absolutely worst place I have ever stayed in my entire life and will never go back!  I would never recommend this hotel to anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r153339311-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>153339311</t>
+  </si>
+  <si>
+    <t>02/27/2013</t>
+  </si>
+  <si>
+    <t>I feel like home</t>
+  </si>
+  <si>
+    <t>This hotel is great, good location near Honda center and Angels stadium. The room is big and clean with fully equipped kitchen make life easier and affordable when travel. The staff are excellent and friendly .MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is great, good location near Honda center and Angels stadium. The room is big and clean with fully equipped kitchen make life easier and affordable when travel. The staff are excellent and friendly .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r150462282-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>150462282</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>So far so good</t>
+  </si>
+  <si>
+    <t>Room is clean, towels need to be replaced, feels like sandpaper, ouch. Most important it is a safe area. Price is very good considering what you get for what you pay. Nice kichenette. Full size refrigerator. Quite. Lots of professionals stay here, Good selections of restaurants nearby. Friendly staff.They serve continental breakfast ( Small Mufins, Coffee, Oatmeal, Apple and Oranges and etc.) The breakfast can be better or at least change the menu from day to day. I would stay here if I ever come back in the area. It is not at the center of OC, but worth the drive.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded January 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2013</t>
+  </si>
+  <si>
+    <t>Room is clean, towels need to be replaced, feels like sandpaper, ouch. Most important it is a safe area. Price is very good considering what you get for what you pay. Nice kichenette. Full size refrigerator. Quite. Lots of professionals stay here, Good selections of restaurants nearby. Friendly staff.They serve continental breakfast ( Small Mufins, Coffee, Oatmeal, Apple and Oranges and etc.) The breakfast can be better or at least change the menu from day to day. I would stay here if I ever come back in the area. It is not at the center of OC, but worth the drive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r150240625-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>150240625</t>
+  </si>
+  <si>
+    <t>01/21/2013</t>
+  </si>
+  <si>
+    <t>feel like home</t>
+  </si>
+  <si>
+    <t>the service was excellent compared to other hotels that i used to stay when I travelled. The staff were so friendly and know what theyre doing. Their rooms are very clean, they always check on me if I need anything. I felt like its my home but only stayed there for a week. Its been a great experienced staying in this hotel. And I will definitely tell my friends and families to stay there when they have meetings or vacations in Orange County. Thanks Extended Stay America Anaheim Hills for all your great service and you are the best.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded January 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2013</t>
+  </si>
+  <si>
+    <t>the service was excellent compared to other hotels that i used to stay when I travelled. The staff were so friendly and know what theyre doing. Their rooms are very clean, they always check on me if I need anything. I felt like its my home but only stayed there for a week. Its been a great experienced staying in this hotel. And I will definitely tell my friends and families to stay there when they have meetings or vacations in Orange County. Thanks Extended Stay America Anaheim Hills for all your great service and you are the best.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r149916683-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>149916683</t>
+  </si>
+  <si>
+    <t>01/17/2013</t>
+  </si>
+  <si>
+    <t>Very Understanding to Business Needs...</t>
+  </si>
+  <si>
+    <t>I had asked for a late checkout because I had been tied up on conference calls and other various phone calls and such during my morning. The gentleman at the front desk, Louis, was very accommodating and asked "will noon work?". Well one thing lead to the next and I ended up staying until 1:20 in the afternoon. Louis was really nice and as I tried to compensate them for the room he said something to the effect that "you stay here often enough, get out of here!". What a relief it is to deal with someone that's that easy to work with, and it's in California to boot!.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded January 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2013</t>
+  </si>
+  <si>
+    <t>I had asked for a late checkout because I had been tied up on conference calls and other various phone calls and such during my morning. The gentleman at the front desk, Louis, was very accommodating and asked "will noon work?". Well one thing lead to the next and I ended up staying until 1:20 in the afternoon. Louis was really nice and as I tried to compensate them for the room he said something to the effect that "you stay here often enough, get out of here!". What a relief it is to deal with someone that's that easy to work with, and it's in California to boot!.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r145423787-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>145423787</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>newly remodeled  great manager  one big downside</t>
+  </si>
+  <si>
+    <t>I have been staying Mostly ES Deluxe don't understand why none in LA area, but they did nice remodeling of room  real fresh look, Take I go breakfeast is ok standard continental breakfeast stuff, but one thing I never can understand is why this chain has such bad TV selections, if you stay long you do want to see more than 5 national news channels, the local broadcast channels, 4 sport channels and two weather channels, the deluxe side of this chain is a bit better, The manager Robert make you feel right at home very friendly and does everything to make your stay pleasantMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded November 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2012</t>
+  </si>
+  <si>
+    <t>I have been staying Mostly ES Deluxe don't understand why none in LA area, but they did nice remodeling of room  real fresh look, Take I go breakfeast is ok standard continental breakfeast stuff, but one thing I never can understand is why this chain has such bad TV selections, if you stay long you do want to see more than 5 national news channels, the local broadcast channels, 4 sport channels and two weather channels, the deluxe side of this chain is a bit better, The manager Robert make you feel right at home very friendly and does everything to make your stay pleasantMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r143810678-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>143810678</t>
+  </si>
+  <si>
+    <t>10/26/2012</t>
+  </si>
+  <si>
+    <t>Don't stay here unless you like sleeping with strangers!</t>
+  </si>
+  <si>
+    <t>I do not have much to say about this hotel do to the fact we could not stay there because they booked our room to other guest. The reason we know this is because after we checked in and went to our room, it was already occupied by other guest.  We walked straight out and went back to the front desk, to be told that some one  did not do their job right and moved guest around with out entering it into the system. So after the front deck man ( who is so rude) called his manger, he told us they were all booked. So we had to drive around and try to find a place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded October 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2012</t>
+  </si>
+  <si>
+    <t>I do not have much to say about this hotel do to the fact we could not stay there because they booked our room to other guest. The reason we know this is because after we checked in and went to our room, it was already occupied by other guest.  We walked straight out and went back to the front desk, to be told that some one  did not do their job right and moved guest around with out entering it into the system. So after the front deck man ( who is so rude) called his manger, he told us they were all booked. So we had to drive around and try to find a place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r140875530-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>140875530</t>
+  </si>
+  <si>
+    <t>09/21/2012</t>
+  </si>
+  <si>
+    <t>You Get What You Pay For</t>
+  </si>
+  <si>
+    <t>The hotel was easy to find thanks to the excellent directions given by the hotel web site.  The location was right next to the Riverside Freeway so there was steady traffic noise.  To drown it out required turning the AC fan way up which wasn't any better than the freeway noise.  I skipped the "Take and Go Breakfast".  It just didn't look very appealing.  The room was clean and adequate.  I wouldn't stay there again due to the close proximity to the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded September 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2012</t>
+  </si>
+  <si>
+    <t>The hotel was easy to find thanks to the excellent directions given by the hotel web site.  The location was right next to the Riverside Freeway so there was steady traffic noise.  To drown it out required turning the AC fan way up which wasn't any better than the freeway noise.  I skipped the "Take and Go Breakfast".  It just didn't look very appealing.  The room was clean and adequate.  I wouldn't stay there again due to the close proximity to the freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r136859821-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>136859821</t>
+  </si>
+  <si>
+    <t>08/10/2012</t>
+  </si>
+  <si>
+    <t>Clean, poor customer service Lacked basics</t>
+  </si>
+  <si>
+    <t>We deicded to go on a last minute trip to California and the 2 hotels we like to stay at were booked. I needed a hotel with a fridge and the location was right and based on previously reviews I booked this hotel. We arrived tired and had to wait almost 10 minutes for anyone to check us in. The front desk was empty. The room was clean and basic but lacked things like a pen or shampoo. I asked for shampoo but was told I had to go to the store and buy it. Paying over $100 a night I expect shampoo and a pen. I was not expecting the level of the Hyatt summerfield or Marriott residence but felt I got the bare bones that I could tolerate and a good location for what we needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded August 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2012</t>
+  </si>
+  <si>
+    <t>We deicded to go on a last minute trip to California and the 2 hotels we like to stay at were booked. I needed a hotel with a fridge and the location was right and based on previously reviews I booked this hotel. We arrived tired and had to wait almost 10 minutes for anyone to check us in. The front desk was empty. The room was clean and basic but lacked things like a pen or shampoo. I asked for shampoo but was told I had to go to the store and buy it. Paying over $100 a night I expect shampoo and a pen. I was not expecting the level of the Hyatt summerfield or Marriott residence but felt I got the bare bones that I could tolerate and a good location for what we needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r134133243-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>134133243</t>
+  </si>
+  <si>
+    <t>07/11/2012</t>
+  </si>
+  <si>
+    <t>Enjoyable</t>
+  </si>
+  <si>
+    <t>The hotel appeared to be new or just remodeled. It was clean inside and out. The room was large and also very clean and functional. The beds were as comfortable as any hotel we have stayed in and we've stayed in many. The front desk was staffed by a named Naresh Nick, Arlene and Rowena, who was very pleasant and polite and a credit to the hotel. Housekeeper was friendly gave once a week room service and provided extra towel per my request.  Because it is an Extended Stay there is no restaurant only bunch of fast food enclosed but this location was very convenient for us. Would stay there again whenever I am in AnaheimMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Orange County - Anaheim Hills, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>The hotel appeared to be new or just remodeled. It was clean inside and out. The room was large and also very clean and functional. The beds were as comfortable as any hotel we have stayed in and we've stayed in many. The front desk was staffed by a named Naresh Nick, Arlene and Rowena, who was very pleasant and polite and a credit to the hotel. Housekeeper was friendly gave once a week room service and provided extra towel per my request.  Because it is an Extended Stay there is no restaurant only bunch of fast food enclosed but this location was very convenient for us. Would stay there again whenever I am in AnaheimMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r134115210-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>134115210</t>
+  </si>
+  <si>
+    <t>Excellent value,  Well Run Clean Property</t>
+  </si>
+  <si>
+    <t>I was here to cheer my daughter at a volleyball tournament in Anaheim.  She was staying with her team, and  I wanted an inexpensive place to stay, where I could make my own food.  Couldn't be happier with the Extended StayAmerica Orange County.  Room was spacious, clean and had a kitchen!  I loved the laundry facilities, because we were traveling for a week before so I could launder my own and my daughter's clothes for the rest of our trip.  Loved the convenient location to the freeway.  There is a Starbucks nearby, for any coffee needs not met by the cofffee pot in the room.  The setting is a business park, so the neighborhood felt very safe.  I was so comfortable here.  Couldn't believe the low price!  I will be back!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I was here to cheer my daughter at a volleyball tournament in Anaheim.  She was staying with her team, and  I wanted an inexpensive place to stay, where I could make my own food.  Couldn't be happier with the Extended StayAmerica Orange County.  Room was spacious, clean and had a kitchen!  I loved the laundry facilities, because we were traveling for a week before so I could launder my own and my daughter's clothes for the rest of our trip.  Loved the convenient location to the freeway.  There is a Starbucks nearby, for any coffee needs not met by the cofffee pot in the room.  The setting is a business park, so the neighborhood felt very safe.  I was so comfortable here.  Couldn't believe the low price!  I will be back!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r133529480-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>133529480</t>
+  </si>
+  <si>
+    <t>07/05/2012</t>
+  </si>
+  <si>
+    <t>Clean room but bad checking / houskeeping</t>
+  </si>
+  <si>
+    <t>This was much better than my stay in their Huntington Beach property. The rooms where nicer and newly renovated but the checking got messed up really bad. I was very clear with my online reservation and left detailed notes in the comments box and special requests. I needed two double rooms to accommodate my mother in law and all of my kids. When I got there at 5:00 PM, the desk informed me that "Sorry. Housekeeping never cleaned your room and they left for the day so I have to give you a different room with a Queen bed."
+What?  We never cleaned the room for you?  They also kept asking if I had mentioned what I needed when I made the reservation. So there is obviously a communication breakdown between the corporate reservation system and the actual location. No one even looked at my special requests.
+I tried to call a few days before my arrival to confirm everything and was placed on hold for over 15 minutes so I hung up. 
+We eventually got the checkin worked out and I had to settle on the room accommodations because there was no other choice. The check in clerk seemed to have no power and did pretty good with hat he had to work with. He had to call the manager a few times.
+The funny part about it was that I had a guest voucher from my last trip...This was much better than my stay in their Huntington Beach property. The rooms where nicer and newly renovated but the checking got messed up really bad. I was very clear with my online reservation and left detailed notes in the comments box and special requests. I needed two double rooms to accommodate my mother in law and all of my kids. When I got there at 5:00 PM, the desk informed me that "Sorry. Housekeeping never cleaned your room and they left for the day so I have to give you a different room with a Queen bed."What?  We never cleaned the room for you?  They also kept asking if I had mentioned what I needed when I made the reservation. So there is obviously a communication breakdown between the corporate reservation system and the actual location. No one even looked at my special requests.I tried to call a few days before my arrival to confirm everything and was placed on hold for over 15 minutes so I hung up. We eventually got the checkin worked out and I had to settle on the room accommodations because there was no other choice. The check in clerk seemed to have no power and did pretty good with hat he had to work with. He had to call the manager a few times.The funny part about it was that I had a guest voucher from my last trip I was using. That was given to me because that last experience was so terrible. This one was much better but the problems seem to be chain wide with this place. I have to admit that the rooms where clean and the location was pretty good compared to the Huntington Beach location but these places seem to have a hard time with their housekeeping staff and the front desk staff are very passive.There where facility amenities we where not told about like the grab &amp; go breakfast.  I found it on accident one day because I was checking out early. Don't expect top notch service but do expect clean rooms. There was no maid service during my stay of 2 days but the area was safe for my family and it was conveniently located for my needs. The beds where just OK.  Could have been more comfortable for "Newly Renovated"MoreShow less</t>
+  </si>
+  <si>
+    <t>This was much better than my stay in their Huntington Beach property. The rooms where nicer and newly renovated but the checking got messed up really bad. I was very clear with my online reservation and left detailed notes in the comments box and special requests. I needed two double rooms to accommodate my mother in law and all of my kids. When I got there at 5:00 PM, the desk informed me that "Sorry. Housekeeping never cleaned your room and they left for the day so I have to give you a different room with a Queen bed."
+What?  We never cleaned the room for you?  They also kept asking if I had mentioned what I needed when I made the reservation. So there is obviously a communication breakdown between the corporate reservation system and the actual location. No one even looked at my special requests.
+I tried to call a few days before my arrival to confirm everything and was placed on hold for over 15 minutes so I hung up. 
+We eventually got the checkin worked out and I had to settle on the room accommodations because there was no other choice. The check in clerk seemed to have no power and did pretty good with hat he had to work with. He had to call the manager a few times.
+The funny part about it was that I had a guest voucher from my last trip...This was much better than my stay in their Huntington Beach property. The rooms where nicer and newly renovated but the checking got messed up really bad. I was very clear with my online reservation and left detailed notes in the comments box and special requests. I needed two double rooms to accommodate my mother in law and all of my kids. When I got there at 5:00 PM, the desk informed me that "Sorry. Housekeeping never cleaned your room and they left for the day so I have to give you a different room with a Queen bed."What?  We never cleaned the room for you?  They also kept asking if I had mentioned what I needed when I made the reservation. So there is obviously a communication breakdown between the corporate reservation system and the actual location. No one even looked at my special requests.I tried to call a few days before my arrival to confirm everything and was placed on hold for over 15 minutes so I hung up. We eventually got the checkin worked out and I had to settle on the room accommodations because there was no other choice. The check in clerk seemed to have no power and did pretty good with hat he had to work with. He had to call the manager a few times.The funny part about it was that I had a guest voucher from my last trip I was using. That was given to me because that last experience was so terrible. This one was much better but the problems seem to be chain wide with this place. I have to admit that the rooms where clean and the location was pretty good compared to the Huntington Beach location but these places seem to have a hard time with their housekeeping staff and the front desk staff are very passive.There where facility amenities we where not told about like the grab &amp; go breakfast.  I found it on accident one day because I was checking out early. Don't expect top notch service but do expect clean rooms. There was no maid service during my stay of 2 days but the area was safe for my family and it was conveniently located for my needs. The beds where just OK.  Could have been more comfortable for "Newly Renovated"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r127491343-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>127491343</t>
+  </si>
+  <si>
+    <t>04/08/2012</t>
+  </si>
+  <si>
+    <t>Aowsome</t>
+  </si>
+  <si>
+    <t>Nice location right on freeway, comfortable room, friendly staffMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Nice location right on freeway, comfortable room, friendly staffMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r127490656-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>127490656</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>Being an account manager for the south-west division for company based on the east-coast, I have had several occasions to travel to and stay in several of the hotels that Orange County has to offer.  Since my trip in March was going to be an extended stay, I decided to stay at the namesake hotel in Anaheim Hills.  This location is well situated, close to freeways into OC and Riverside; the rooms are clean and well maintained and the service was delivered with a smile and a can-do attitude.  I would highly recommend this location for an Extended Stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Being an account manager for the south-west division for company based on the east-coast, I have had several occasions to travel to and stay in several of the hotels that Orange County has to offer.  Since my trip in March was going to be an extended stay, I decided to stay at the namesake hotel in Anaheim Hills.  This location is well situated, close to freeways into OC and Riverside; the rooms are clean and well maintained and the service was delivered with a smile and a can-do attitude.  I would highly recommend this location for an Extended Stay.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2828,5833 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>107</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>132</v>
+      </c>
+      <c r="X11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>97</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>140</v>
+      </c>
+      <c r="X12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>148</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>165</v>
+      </c>
+      <c r="X15" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>173</v>
+      </c>
+      <c r="X16" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>181</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>182</v>
+      </c>
+      <c r="X17" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s">
+        <v>189</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>190</v>
+      </c>
+      <c r="O18" t="s">
+        <v>191</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>192</v>
+      </c>
+      <c r="X18" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>190</v>
+      </c>
+      <c r="O19" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>200</v>
+      </c>
+      <c r="X19" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>204</v>
+      </c>
+      <c r="J20" t="s">
+        <v>205</v>
+      </c>
+      <c r="K20" t="s">
+        <v>206</v>
+      </c>
+      <c r="L20" t="s">
+        <v>207</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>208</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>209</v>
+      </c>
+      <c r="X20" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" t="s">
+        <v>214</v>
+      </c>
+      <c r="K21" t="s">
+        <v>215</v>
+      </c>
+      <c r="L21" t="s">
+        <v>216</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>217</v>
+      </c>
+      <c r="X21" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s">
+        <v>223</v>
+      </c>
+      <c r="L22" t="s">
+        <v>224</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>208</v>
+      </c>
+      <c r="O22" t="s">
+        <v>107</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>225</v>
+      </c>
+      <c r="X22" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>229</v>
+      </c>
+      <c r="J23" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" t="s">
+        <v>231</v>
+      </c>
+      <c r="L23" t="s">
+        <v>232</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>208</v>
+      </c>
+      <c r="O23" t="s">
+        <v>191</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>233</v>
+      </c>
+      <c r="X23" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>236</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>237</v>
+      </c>
+      <c r="J24" t="s">
+        <v>238</v>
+      </c>
+      <c r="K24" t="s">
+        <v>239</v>
+      </c>
+      <c r="L24" t="s">
+        <v>240</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>241</v>
+      </c>
+      <c r="O24" t="s">
+        <v>107</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>242</v>
+      </c>
+      <c r="X24" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>246</v>
+      </c>
+      <c r="J25" t="s">
+        <v>247</v>
+      </c>
+      <c r="K25" t="s">
+        <v>248</v>
+      </c>
+      <c r="L25" t="s">
+        <v>249</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>241</v>
+      </c>
+      <c r="O25" t="s">
+        <v>107</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>250</v>
+      </c>
+      <c r="X25" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>254</v>
+      </c>
+      <c r="J26" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" t="s">
+        <v>256</v>
+      </c>
+      <c r="L26" t="s">
+        <v>257</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>258</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>259</v>
+      </c>
+      <c r="X26" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>263</v>
+      </c>
+      <c r="J27" t="s">
+        <v>264</v>
+      </c>
+      <c r="K27" t="s">
+        <v>265</v>
+      </c>
+      <c r="L27" t="s">
+        <v>266</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>267</v>
+      </c>
+      <c r="O27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>268</v>
+      </c>
+      <c r="X27" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>271</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>272</v>
+      </c>
+      <c r="J28" t="s">
+        <v>273</v>
+      </c>
+      <c r="K28" t="s">
+        <v>274</v>
+      </c>
+      <c r="L28" t="s">
+        <v>275</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>258</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>276</v>
+      </c>
+      <c r="X28" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>279</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>280</v>
+      </c>
+      <c r="J29" t="s">
+        <v>281</v>
+      </c>
+      <c r="K29" t="s">
+        <v>282</v>
+      </c>
+      <c r="L29" t="s">
+        <v>283</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>267</v>
+      </c>
+      <c r="O29" t="s">
+        <v>107</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>284</v>
+      </c>
+      <c r="X29" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>287</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>288</v>
+      </c>
+      <c r="J30" t="s">
+        <v>289</v>
+      </c>
+      <c r="K30" t="s">
+        <v>290</v>
+      </c>
+      <c r="L30" t="s">
+        <v>291</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>267</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>292</v>
+      </c>
+      <c r="X30" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>295</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>296</v>
+      </c>
+      <c r="J31" t="s">
+        <v>297</v>
+      </c>
+      <c r="K31" t="s">
+        <v>298</v>
+      </c>
+      <c r="L31" t="s">
+        <v>299</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>300</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>301</v>
+      </c>
+      <c r="X31" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>304</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>305</v>
+      </c>
+      <c r="J32" t="s">
+        <v>306</v>
+      </c>
+      <c r="K32" t="s">
+        <v>307</v>
+      </c>
+      <c r="L32" t="s">
+        <v>308</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>309</v>
+      </c>
+      <c r="O32" t="s">
+        <v>98</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>310</v>
+      </c>
+      <c r="X32" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>313</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>314</v>
+      </c>
+      <c r="J33" t="s">
+        <v>315</v>
+      </c>
+      <c r="K33" t="s">
+        <v>316</v>
+      </c>
+      <c r="L33" t="s">
+        <v>317</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>318</v>
+      </c>
+      <c r="O33" t="s">
+        <v>191</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>319</v>
+      </c>
+      <c r="X33" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>322</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>323</v>
+      </c>
+      <c r="J34" t="s">
+        <v>315</v>
+      </c>
+      <c r="K34" t="s">
+        <v>324</v>
+      </c>
+      <c r="L34" t="s">
+        <v>325</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>318</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>319</v>
+      </c>
+      <c r="X34" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>327</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>328</v>
+      </c>
+      <c r="J35" t="s">
+        <v>329</v>
+      </c>
+      <c r="K35" t="s">
+        <v>330</v>
+      </c>
+      <c r="L35" t="s">
+        <v>331</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>332</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>333</v>
+      </c>
+      <c r="X35" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>336</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>337</v>
+      </c>
+      <c r="J36" t="s">
+        <v>338</v>
+      </c>
+      <c r="K36" t="s">
+        <v>339</v>
+      </c>
+      <c r="L36" t="s">
+        <v>340</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>341</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>342</v>
+      </c>
+      <c r="X36" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>345</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>346</v>
+      </c>
+      <c r="J37" t="s">
+        <v>347</v>
+      </c>
+      <c r="K37" t="s">
+        <v>348</v>
+      </c>
+      <c r="L37" t="s">
+        <v>349</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>350</v>
+      </c>
+      <c r="O37" t="s">
+        <v>107</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>351</v>
+      </c>
+      <c r="X37" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>354</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>355</v>
+      </c>
+      <c r="J38" t="s">
+        <v>356</v>
+      </c>
+      <c r="K38" t="s">
+        <v>357</v>
+      </c>
+      <c r="L38" t="s">
+        <v>358</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>359</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>360</v>
+      </c>
+      <c r="X38" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>363</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>364</v>
+      </c>
+      <c r="J39" t="s">
+        <v>365</v>
+      </c>
+      <c r="K39" t="s">
+        <v>366</v>
+      </c>
+      <c r="L39" t="s">
+        <v>367</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>368</v>
+      </c>
+      <c r="X39" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>371</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>372</v>
+      </c>
+      <c r="J40" t="s">
+        <v>373</v>
+      </c>
+      <c r="K40" t="s">
+        <v>374</v>
+      </c>
+      <c r="L40" t="s">
+        <v>375</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>350</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>377</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>378</v>
+      </c>
+      <c r="J41" t="s">
+        <v>379</v>
+      </c>
+      <c r="K41" t="s">
+        <v>380</v>
+      </c>
+      <c r="L41" t="s">
+        <v>381</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>382</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>383</v>
+      </c>
+      <c r="X41" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>386</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>387</v>
+      </c>
+      <c r="J42" t="s">
+        <v>388</v>
+      </c>
+      <c r="K42" t="s">
+        <v>389</v>
+      </c>
+      <c r="L42" t="s">
+        <v>390</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>391</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>392</v>
+      </c>
+      <c r="X42" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>395</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>396</v>
+      </c>
+      <c r="J43" t="s">
+        <v>397</v>
+      </c>
+      <c r="K43" t="s">
+        <v>398</v>
+      </c>
+      <c r="L43" t="s">
+        <v>399</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>382</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>400</v>
+      </c>
+      <c r="X43" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>403</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>404</v>
+      </c>
+      <c r="J44" t="s">
+        <v>405</v>
+      </c>
+      <c r="K44" t="s">
+        <v>406</v>
+      </c>
+      <c r="L44" t="s">
+        <v>407</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>408</v>
+      </c>
+      <c r="O44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>409</v>
+      </c>
+      <c r="X44" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>412</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>413</v>
+      </c>
+      <c r="J45" t="s">
+        <v>414</v>
+      </c>
+      <c r="K45" t="s">
+        <v>415</v>
+      </c>
+      <c r="L45" t="s">
+        <v>416</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>417</v>
+      </c>
+      <c r="X45" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>420</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>421</v>
+      </c>
+      <c r="J46" t="s">
+        <v>422</v>
+      </c>
+      <c r="K46" t="s">
+        <v>423</v>
+      </c>
+      <c r="L46" t="s">
+        <v>424</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>425</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>426</v>
+      </c>
+      <c r="X46" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>429</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>430</v>
+      </c>
+      <c r="J47" t="s">
+        <v>431</v>
+      </c>
+      <c r="K47" t="s">
+        <v>432</v>
+      </c>
+      <c r="L47" t="s">
+        <v>433</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>434</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>436</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>437</v>
+      </c>
+      <c r="J48" t="s">
+        <v>438</v>
+      </c>
+      <c r="K48" t="s">
+        <v>439</v>
+      </c>
+      <c r="L48" t="s">
+        <v>440</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>441</v>
+      </c>
+      <c r="O48" t="s">
+        <v>98</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>442</v>
+      </c>
+      <c r="X48" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>445</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>446</v>
+      </c>
+      <c r="J49" t="s">
+        <v>447</v>
+      </c>
+      <c r="K49" t="s">
+        <v>448</v>
+      </c>
+      <c r="L49" t="s">
+        <v>449</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>450</v>
+      </c>
+      <c r="X49" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>453</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>454</v>
+      </c>
+      <c r="J50" t="s">
+        <v>455</v>
+      </c>
+      <c r="K50" t="s">
+        <v>456</v>
+      </c>
+      <c r="L50" t="s">
+        <v>457</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>458</v>
+      </c>
+      <c r="X50" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>461</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>462</v>
+      </c>
+      <c r="J51" t="s">
+        <v>463</v>
+      </c>
+      <c r="K51" t="s">
+        <v>464</v>
+      </c>
+      <c r="L51" t="s">
+        <v>465</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>466</v>
+      </c>
+      <c r="X51" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>469</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>470</v>
+      </c>
+      <c r="J52" t="s">
+        <v>471</v>
+      </c>
+      <c r="K52" t="s">
+        <v>472</v>
+      </c>
+      <c r="L52" t="s">
+        <v>473</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>474</v>
+      </c>
+      <c r="O52" t="s">
+        <v>107</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>475</v>
+      </c>
+      <c r="X52" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>478</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>479</v>
+      </c>
+      <c r="J53" t="s">
+        <v>480</v>
+      </c>
+      <c r="K53" t="s">
+        <v>481</v>
+      </c>
+      <c r="L53" t="s">
+        <v>482</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>483</v>
+      </c>
+      <c r="X53" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>486</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>487</v>
+      </c>
+      <c r="J54" t="s">
+        <v>480</v>
+      </c>
+      <c r="K54" t="s">
+        <v>488</v>
+      </c>
+      <c r="L54" t="s">
+        <v>489</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>483</v>
+      </c>
+      <c r="X54" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>491</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>492</v>
+      </c>
+      <c r="J55" t="s">
+        <v>480</v>
+      </c>
+      <c r="K55" t="s">
+        <v>493</v>
+      </c>
+      <c r="L55" t="s">
+        <v>494</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>495</v>
+      </c>
+      <c r="O55" t="s">
+        <v>63</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>483</v>
+      </c>
+      <c r="X55" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>497</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>498</v>
+      </c>
+      <c r="J56" t="s">
+        <v>499</v>
+      </c>
+      <c r="K56" t="s">
+        <v>500</v>
+      </c>
+      <c r="L56" t="s">
+        <v>501</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>502</v>
+      </c>
+      <c r="O56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>503</v>
+      </c>
+      <c r="X56" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>506</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>507</v>
+      </c>
+      <c r="J57" t="s">
+        <v>508</v>
+      </c>
+      <c r="K57" t="s">
+        <v>509</v>
+      </c>
+      <c r="L57" t="s">
+        <v>510</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>502</v>
+      </c>
+      <c r="O57" t="s">
+        <v>191</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>511</v>
+      </c>
+      <c r="X57" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>514</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>515</v>
+      </c>
+      <c r="J58" t="s">
+        <v>516</v>
+      </c>
+      <c r="K58" t="s">
+        <v>517</v>
+      </c>
+      <c r="L58" t="s">
+        <v>518</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>502</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>519</v>
+      </c>
+      <c r="X58" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>522</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>523</v>
+      </c>
+      <c r="J59" t="s">
+        <v>524</v>
+      </c>
+      <c r="K59" t="s">
+        <v>525</v>
+      </c>
+      <c r="L59" t="s">
+        <v>526</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>527</v>
+      </c>
+      <c r="O59" t="s">
+        <v>63</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>528</v>
+      </c>
+      <c r="X59" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>531</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>532</v>
+      </c>
+      <c r="J60" t="s">
+        <v>533</v>
+      </c>
+      <c r="K60" t="s">
+        <v>534</v>
+      </c>
+      <c r="L60" t="s">
+        <v>535</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>527</v>
+      </c>
+      <c r="O60" t="s">
+        <v>191</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>536</v>
+      </c>
+      <c r="X60" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>539</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>540</v>
+      </c>
+      <c r="J61" t="s">
+        <v>541</v>
+      </c>
+      <c r="K61" t="s">
+        <v>542</v>
+      </c>
+      <c r="L61" t="s">
+        <v>543</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>544</v>
+      </c>
+      <c r="O61" t="s">
+        <v>63</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>545</v>
+      </c>
+      <c r="X61" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>548</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>549</v>
+      </c>
+      <c r="J62" t="s">
+        <v>550</v>
+      </c>
+      <c r="K62" t="s">
+        <v>551</v>
+      </c>
+      <c r="L62" t="s">
+        <v>552</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>553</v>
+      </c>
+      <c r="O62" t="s">
+        <v>63</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>554</v>
+      </c>
+      <c r="X62" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>557</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>558</v>
+      </c>
+      <c r="J63" t="s">
+        <v>559</v>
+      </c>
+      <c r="K63" t="s">
+        <v>560</v>
+      </c>
+      <c r="L63" t="s">
+        <v>561</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>562</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>563</v>
+      </c>
+      <c r="X63" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>566</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>567</v>
+      </c>
+      <c r="J64" t="s">
+        <v>568</v>
+      </c>
+      <c r="K64" t="s">
+        <v>569</v>
+      </c>
+      <c r="L64" t="s">
+        <v>570</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>544</v>
+      </c>
+      <c r="O64" t="s">
+        <v>191</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>571</v>
+      </c>
+      <c r="X64" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>574</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>575</v>
+      </c>
+      <c r="J65" t="s">
+        <v>576</v>
+      </c>
+      <c r="K65" t="s">
+        <v>577</v>
+      </c>
+      <c r="L65" t="s">
+        <v>578</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>544</v>
+      </c>
+      <c r="O65" t="s">
+        <v>63</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>579</v>
+      </c>
+      <c r="X65" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>582</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>583</v>
+      </c>
+      <c r="J66" t="s">
+        <v>584</v>
+      </c>
+      <c r="K66" t="s">
+        <v>585</v>
+      </c>
+      <c r="L66" t="s">
+        <v>586</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>587</v>
+      </c>
+      <c r="X66" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>590</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>591</v>
+      </c>
+      <c r="J67" t="s">
+        <v>592</v>
+      </c>
+      <c r="K67" t="s">
+        <v>593</v>
+      </c>
+      <c r="L67" t="s">
+        <v>594</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>553</v>
+      </c>
+      <c r="O67" t="s">
+        <v>191</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>595</v>
+      </c>
+      <c r="X67" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>598</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>599</v>
+      </c>
+      <c r="J68" t="s">
+        <v>600</v>
+      </c>
+      <c r="K68" t="s">
+        <v>601</v>
+      </c>
+      <c r="L68" t="s">
+        <v>602</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>603</v>
+      </c>
+      <c r="X68" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>606</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>607</v>
+      </c>
+      <c r="J69" t="s">
+        <v>608</v>
+      </c>
+      <c r="K69" t="s">
+        <v>609</v>
+      </c>
+      <c r="L69" t="s">
+        <v>610</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>611</v>
+      </c>
+      <c r="X69" t="s">
+        <v>612</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>614</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>615</v>
+      </c>
+      <c r="J70" t="s">
+        <v>616</v>
+      </c>
+      <c r="K70" t="s">
+        <v>617</v>
+      </c>
+      <c r="L70" t="s">
+        <v>618</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>619</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>620</v>
+      </c>
+      <c r="X70" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>623</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>624</v>
+      </c>
+      <c r="J71" t="s">
+        <v>625</v>
+      </c>
+      <c r="K71" t="s">
+        <v>626</v>
+      </c>
+      <c r="L71" t="s">
+        <v>627</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>628</v>
+      </c>
+      <c r="X71" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>631</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>632</v>
+      </c>
+      <c r="J72" t="s">
+        <v>633</v>
+      </c>
+      <c r="K72" t="s">
+        <v>634</v>
+      </c>
+      <c r="L72" t="s">
+        <v>635</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>636</v>
+      </c>
+      <c r="O72" t="s">
+        <v>63</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>637</v>
+      </c>
+      <c r="X72" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>640</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>641</v>
+      </c>
+      <c r="J73" t="s">
+        <v>642</v>
+      </c>
+      <c r="K73" t="s">
+        <v>643</v>
+      </c>
+      <c r="L73" t="s">
+        <v>644</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>636</v>
+      </c>
+      <c r="O73" t="s">
+        <v>191</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>646</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>647</v>
+      </c>
+      <c r="J74" t="s">
+        <v>648</v>
+      </c>
+      <c r="K74" t="s">
+        <v>649</v>
+      </c>
+      <c r="L74" t="s">
+        <v>650</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>651</v>
+      </c>
+      <c r="O74" t="s">
+        <v>63</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>652</v>
+      </c>
+      <c r="X74" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>655</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>656</v>
+      </c>
+      <c r="J75" t="s">
+        <v>657</v>
+      </c>
+      <c r="K75" t="s">
+        <v>658</v>
+      </c>
+      <c r="L75" t="s">
+        <v>659</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>660</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>661</v>
+      </c>
+      <c r="X75" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>664</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>665</v>
+      </c>
+      <c r="J76" t="s">
+        <v>666</v>
+      </c>
+      <c r="K76" t="s">
+        <v>667</v>
+      </c>
+      <c r="L76" t="s">
+        <v>668</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>661</v>
+      </c>
+      <c r="X76" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>670</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>671</v>
+      </c>
+      <c r="J77" t="s">
+        <v>672</v>
+      </c>
+      <c r="K77" t="s">
+        <v>673</v>
+      </c>
+      <c r="L77" t="s">
+        <v>674</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>660</v>
+      </c>
+      <c r="O77" t="s">
+        <v>107</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>675</v>
+      </c>
+      <c r="X77" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>678</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>679</v>
+      </c>
+      <c r="J78" t="s">
+        <v>680</v>
+      </c>
+      <c r="K78" t="s">
+        <v>681</v>
+      </c>
+      <c r="L78" t="s">
+        <v>682</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>660</v>
+      </c>
+      <c r="O78" t="s">
+        <v>191</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>683</v>
+      </c>
+      <c r="X78" t="s">
+        <v>684</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>686</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>687</v>
+      </c>
+      <c r="J79" t="s">
+        <v>688</v>
+      </c>
+      <c r="K79" t="s">
+        <v>689</v>
+      </c>
+      <c r="L79" t="s">
+        <v>690</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>660</v>
+      </c>
+      <c r="O79" t="s">
+        <v>63</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>691</v>
+      </c>
+      <c r="X79" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>694</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>695</v>
+      </c>
+      <c r="J80" t="s">
+        <v>696</v>
+      </c>
+      <c r="K80" t="s">
+        <v>697</v>
+      </c>
+      <c r="L80" t="s">
+        <v>698</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>699</v>
+      </c>
+      <c r="O80" t="s">
+        <v>63</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>700</v>
+      </c>
+      <c r="X80" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>703</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>704</v>
+      </c>
+      <c r="J81" t="s">
+        <v>705</v>
+      </c>
+      <c r="K81" t="s">
+        <v>706</v>
+      </c>
+      <c r="L81" t="s">
+        <v>707</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>708</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>709</v>
+      </c>
+      <c r="X81" t="s">
+        <v>710</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>712</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>713</v>
+      </c>
+      <c r="J82" t="s">
+        <v>714</v>
+      </c>
+      <c r="K82" t="s">
+        <v>715</v>
+      </c>
+      <c r="L82" t="s">
+        <v>716</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>717</v>
+      </c>
+      <c r="O82" t="s">
+        <v>191</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>718</v>
+      </c>
+      <c r="X82" t="s">
+        <v>719</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>721</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>722</v>
+      </c>
+      <c r="J83" t="s">
+        <v>723</v>
+      </c>
+      <c r="K83" t="s">
+        <v>724</v>
+      </c>
+      <c r="L83" t="s">
+        <v>725</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>726</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>727</v>
+      </c>
+      <c r="X83" t="s">
+        <v>728</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>730</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>731</v>
+      </c>
+      <c r="J84" t="s">
+        <v>732</v>
+      </c>
+      <c r="K84" t="s">
+        <v>733</v>
+      </c>
+      <c r="L84" t="s">
+        <v>734</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>735</v>
+      </c>
+      <c r="O84" t="s">
+        <v>63</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>736</v>
+      </c>
+      <c r="X84" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>739</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>740</v>
+      </c>
+      <c r="J85" t="s">
+        <v>732</v>
+      </c>
+      <c r="K85" t="s">
+        <v>741</v>
+      </c>
+      <c r="L85" t="s">
+        <v>742</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>743</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>736</v>
+      </c>
+      <c r="X85" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>745</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>746</v>
+      </c>
+      <c r="J86" t="s">
+        <v>747</v>
+      </c>
+      <c r="K86" t="s">
+        <v>748</v>
+      </c>
+      <c r="L86" t="s">
+        <v>749</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>735</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>736</v>
+      </c>
+      <c r="X86" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>751</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>752</v>
+      </c>
+      <c r="J87" t="s">
+        <v>753</v>
+      </c>
+      <c r="K87" t="s">
+        <v>754</v>
+      </c>
+      <c r="L87" t="s">
+        <v>755</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>756</v>
+      </c>
+      <c r="O87" t="s">
+        <v>191</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>736</v>
+      </c>
+      <c r="X87" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>40684</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>758</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>759</v>
+      </c>
+      <c r="J88" t="s">
+        <v>753</v>
+      </c>
+      <c r="K88" t="s">
+        <v>760</v>
+      </c>
+      <c r="L88" t="s">
+        <v>761</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>762</v>
+      </c>
+      <c r="O88" t="s">
+        <v>63</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>736</v>
+      </c>
+      <c r="X88" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>763</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_269.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_269.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="851">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>locampo25</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>I checked in 04/06/18 for 2 nights and where do i start... first off: Rude staff, they don’t acknowledge you when they speak to you. They dont bother explaining fees nor make any kind of conversation (absolutely NO customer service) she had a rough time asking for my I.D at check in since she didn’t bother making any eye contact or didn’t budge to look at me. (I checked in around 8pm on Friday, she wasn’t wearing. Name tag so I didn’t get a name) after check in, she went up to the room and said we had gotten the wrong room but that if we had already gotten settled in we would be able to stay there. I probably got a downgrade not even knowing) Housekeeping only cleans the room if you stay 7+ days. (Would have been nice to know this upon check in) Tv doesn’t work all channels have poor reception, WI-FI is extremely slow it’s a joke. This hotel is pet friendly so you hear barking throughout the hallways. It’s disgusting!!! What was my vacation turned out to be a nightmare. I definitely will NEVER come back. Oh and last thing, I lost my room key and asked for another and wasn’t asked for I.D. Really? This is not secure at all. I could have been a random person and all my belongings could have gotten stolen. Thanks for ruining our family vacation Extended stay America....I checked in 04/06/18 for 2 nights and where do i start... first off: Rude staff, they don’t acknowledge you when they speak to you. They dont bother explaining fees nor make any kind of conversation (absolutely NO customer service) she had a rough time asking for my I.D at check in since she didn’t bother making any eye contact or didn’t budge to look at me. (I checked in around 8pm on Friday, she wasn’t wearing. Name tag so I didn’t get a name) after check in, she went up to the room and said we had gotten the wrong room but that if we had already gotten settled in we would be able to stay there. I probably got a downgrade not even knowing) Housekeeping only cleans the room if you stay 7+ days. (Would have been nice to know this upon check in) Tv doesn’t work all channels have poor reception, WI-FI is extremely slow it’s a joke. This hotel is pet friendly so you hear barking throughout the hallways. It’s disgusting!!! What was my vacation turned out to be a nightmare. I definitely will NEVER come back. Oh and last thing, I lost my room key and asked for another and wasn’t asked for I.D. Really? This is not secure at all. I could have been a random person and all my belongings could have gotten stolen. Thanks for ruining our family vacation Extended stay America. I’ve attached a picture of the breakfast in the morning. Coffee, tea, hot chocolate, muffins, and granola bars. Was probably the only reason why it got 1 star.More</t>
   </si>
   <si>
+    <t>546grantm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r568008464-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>Their "high speed" internet is very slow. I paid another $4.95 a day for faster wifi but it was still slow. Claimed I could stream Netflix, etc. Called tech support. They said the speed I have is the speed the hotel pays for.More</t>
   </si>
   <si>
+    <t>Taylor M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r566083051-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>You get what you pay for. Greasy carpet and staples sticking out of the carpet. I learned the hard way by accidentally stepping on them. OUCH! There’s a distinct “old” smell in the room and throughout the hotel. Visible pee stains &amp; hair stuck to the ceiling in the shower. I needed to take a shower after showering. Needs major updates. Would not recommend or stay here again. More</t>
   </si>
   <si>
+    <t>H6393ITjudithp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r535654858-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>The front desk people had not idea of what they were doing during check in.  The room smelled like smoke (very heavy smoke).  The carpet was stained and the comforter had burns in it.  The hotel was very noisy.  The breakfast was the biggest joke of all.  I will Never stay at the hotel again and I will not let any of the people that work for me stay at an Extended Stay when they are out of town.More</t>
   </si>
   <si>
+    <t>Greg E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r531582605-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -294,6 +309,9 @@
     <t>Horrible service, no room cleaning, "Continental breakfast" was a joke!  They had muffins, granola bars, hot water for tea was gone by 8:45, the ONE pot of coffee was gone by 8:45. It was supposed to be available from 6:30 - 9:30.  Not cleaning the rooms and changing the sheets or bringing fresh towels is not good service.More</t>
   </si>
   <si>
+    <t>Carla V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r525280344-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>Horrible it doesnt even have breakfast, personnel doesnt want to work, not a very good wifi service, smells weird, i was in a non smoke rooom and it smelled awful. I got dissapointed of my stay. They dont do rooms you need to pay until seventh day.More</t>
   </si>
   <si>
+    <t>828kv956</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r509700803-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>I would never stay at another extended stay america. The price cheap price says it all. It felt extremely dirty. There were piles of dishes just sitting outside the rooms and no one came by to pick them up. The towels felt cheap and dirty as well. Pay the extra money and stay at a better and clean hotel. More</t>
   </si>
   <si>
+    <t>Breezy2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r506189558-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -375,6 +399,9 @@
     <t>Bathroom dirty , toilet stopped up. Tried saying booking.com cancelled reservations even after booking.com spoke with them. Hair dryer available upon request 4 days never got one.Garbadge sat outside door wasn't picked up as is you must stay 7 nights to get your room cleaned.More</t>
   </si>
   <si>
+    <t>G569XIjohnl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r504990733-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
     <t>This place is a bacteria colony ready to infect its guests.  It needs a good scrubbing and cleaning top to bottom.  It was a dump, like a half-star motel.  There was blood drops on the bathroom floor and dust on many surfaces.  Hard water stains on the toilet and shower head.  The TV signals were analog and not in digital HD, like from the 1980'sMore</t>
   </si>
   <si>
+    <t>V6246PUrichardh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r502853121-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -423,6 +453,9 @@
     <t>Busy location, you may have to wait to get into your reserved room for them to finish cleaning your room. Call and check to make sure the room accommodation you requested at booking is the room they are going to give you. Advise to do laundry elsewhere, or at least check that the equipment is working first before dropping in your coins. Any maintenance/ repair issues will not be accomplished over the weekend. Otherwise, furnishings, internet, etc are satisfactory. Caveat emptor! More</t>
   </si>
   <si>
+    <t>Jfuen25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r500090033-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -447,6 +480,9 @@
     <t>It was a great price and close to all things we wanted to do. The bed was very cozy. For once my back and neck didn't hurt from sleeping on a hotel mattress and pillows. The staff was friendly. There was a group of a TON of kids staying at the same time we were. We didn't hear them running around or talking. So that I was very happy about. I would stay there again. More</t>
   </si>
   <si>
+    <t>VeronicanJimmy4ever</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r497923569-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -474,6 +510,9 @@
     <t>First room was suppose to be a one bedroom suite suite with a sofa sleeper. One it was a studio type room with literally a half wall that was as long as king bed . Sofa sleeper was discustingly filthy and no linens of blankets provide. Went to call front desk and phone did not work!!!! Being that we checked in at 11:45pm this was very inconvenient ! Alexandriantried her best as she changed us to a 2 double bed room. Total down grade for what we paid for. But at this time of the night my whole family was exhausted and had no choice . I nostice room was muggy and had a weird smell so I turn the AC in hope to freshen up the place . As we are changing into our pjs. I was barefoot and realized the carpet was wet!!!! Discusting that was the smell. Long horrible story short we could not get now 3rd room and had no choice to sleep in a room with wet carpet. Next morning I went to front desk and they couldn't do anything to help our terrible situation! All she said was we had to check out by 11 and check back in at 3 pm check in time and we could leave our bags behind front desk! We were here for a family function and booked two nights for comfort convinience no way I was doing all...First room was suppose to be a one bedroom suite suite with a sofa sleeper. One it was a studio type room with literally a half wall that was as long as king bed . Sofa sleeper was discustingly filthy and no linens of blankets provide. Went to call front desk and phone did not work!!!! Being that we checked in at 11:45pm this was very inconvenient ! Alexandriantried her best as she changed us to a 2 double bed room. Total down grade for what we paid for. But at this time of the night my whole family was exhausted and had no choice . I nostice room was muggy and had a weird smell so I turn the AC in hope to freshen up the place . As we are changing into our pjs. I was barefoot and realized the carpet was wet!!!! Discusting that was the smell. Long horrible story short we could not get now 3rd room and had no choice to sleep in a room with wet carpet. Next morning I went to front desk and they couldn't do anything to help our terrible situation! All she said was we had to check out by 11 and check back in at 3 pm check in time and we could leave our bags behind front desk! We were here for a family function and booked two nights for comfort convinience no way I was doing all that!!!! I checked out of that dump and all I got was a 20% discount on my first night , even thou it's already was a down grade from what I originally paid, and a full refund for the second night we were suppose to stay!! Terrible conditions!!!! Management needs to get a grip on the terrible housekeeping!!!! More</t>
   </si>
   <si>
+    <t>V23ZUbobs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r494147205-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -498,6 +537,9 @@
     <t>I would not recomment this hotel to anyone, especially if you have a handicap person confined to a wheel chair,  No housekeeping in 4 days. staff rude, only thing that was good was the location and there was a starbvucks across trhe street bdecause their  in house coffee etc  was horrible,More</t>
   </si>
   <si>
+    <t>michellecC299SZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r493271921-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -522,6 +564,9 @@
     <t>The place is dirty, beds are lopsided,the hallways smell like cigarettes even on non-smoking where we stayed.the staff was uncaring. I went down to talk to staff about sending housekeeping to remove trash from and they never showed up.More</t>
   </si>
   <si>
+    <t>Dria2008</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r491710867-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -546,6 +591,9 @@
     <t>Customer service night manager was rude took over a hour to check in when I made the reservation with the toll free number she was awesome especially because it was so last minute and we did not want to drive bk. One I got there the service was totally different! Nothing like the toll free lady! He was rude, unprofessional and had my daughter and mother as well as myself waiting 1hr and half for a room then get up to the floor and it's the wrong room. Needed a double bed and he rudely says "well I have to see if there's one clean, or they may not be a room for you" seriously! Smokey room, iron Dis not work, bathroom half cleaned, called him to tell him everything "I'm not authorized to handle any of it" you have to speak With the am manager. Rude! Told her the next day nothing happened didn't even offer to try and make anything better. The only thing I was returned was 15% which is because it was earned from the rewards. Nothing credited to my bill for so much inconvenience. Smh poor sevice never succeeds!More</t>
   </si>
   <si>
+    <t>Jeffrey M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r466198548-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -573,6 +621,9 @@
     <t>I had to book a room near the Anaheim convention center . The prices were high in the area due to a convention in town.For 180 a night for a 60 dollar a night value of a motel.Run down lobby .Bad bed ,worse pillows old crappy blanket .10 Tv channels .The wifi is so poor you can't even watch Netflix.The claim to have breakfast buts it's not worth even going down for.Don't come here your better off with a motel 6 at least you know not to expect much More</t>
   </si>
   <si>
+    <t>TravellerfromPhilly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r464344464-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -603,6 +654,9 @@
     <t>If you are looking for a place to stay for a night, you can get a room cheap (I paid $82.00/night) but if you need business services, stay clear.The free "high speed" internet was very slow - I paid an extra $14.00 for the higher "high speed" internet. And it was only slightly better. I called tech support and he acknowledged the problem but he said that there were a lot of people on the hotel network and the hotel would not spend more for more bandwidth.Room was small and had little outlets - no usb outlets either.No business center to print out documents but the front desk did it for 3 cents a page.More</t>
   </si>
   <si>
+    <t>Renee002</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r461706597-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -627,6 +681,9 @@
     <t>Bedroom was clean and quiet, mattress was comfortable.  Kitchen area was clean, but you have to request dishes and silver and pots and can opener and toaster and dish rack and coffee maker.  They say they sanitize between guest uses which makes sense, but we had to buy our own scouring pads.  The bathtub had hair (including pubic) around the tub, soap in the drain, soap flakes in the shower area.  We were so exhausted, we went to bed, thinking housekeeping would get it in the morning.  Housekeeping didn't even show up.  We requested a new box of tissues because the one in the room was empty.  They showed up acting like they were doing us a favor (my husband was in the bathroom and I said to come back in half an hour. )  They said they were very busy.  When we left we told the floor maid that we were leaving and she said she'd call downstairs for help so room was cleaned when we returned.  Very strange if housekeeping is not included but that is not advertised?  Breakfast bar downstairs is ok.  This was President's Day weekend, so the place was pretty full.More</t>
   </si>
   <si>
+    <t>Andrewkb73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r445124139-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -654,6 +711,9 @@
     <t>Booked this hotel as it is near Disney. However, we drove instead of walking to Disney - mainly due to the concern with walking back in the dark. They do offer paid shuttle service though.First room was stinky and had to get a replacement. Service is a little slow. Otherwise reasonable place to stay. Breakfast is grab and go, no sit down service.More</t>
   </si>
   <si>
+    <t>wavetosea</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r438137358-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -678,6 +738,9 @@
     <t>This hotel's location is good. In a quiet area and even though my room faced the highway, the noise level was minimal. Cleanliness is questionable. Wasn't the worst but definitely wasn't the best. We had to wait about fifteen minutes for a front desk clerk to show up. Once they did, check-in was quick and pleasant. The bed was comfortable, and the shower was an average hotel shower. Since they do not clean your room every day, you have to get fresh towels at the front desk. Our odd experience was that someone from the hotel knocked on our door the  morning before our check-out &amp; said they needed to replace something in the room &amp; they'd be right back. We thought maybe it would be the fire alarm on the wall which was barely holding on. But no. All they did was change the evacuation sign on the back of the door. That probably could've waited until we checked out the next morning. Since we had to catch an early flight, we left the hotel about 4am and were surprised to see that there is no desk personnel overnight. More</t>
   </si>
   <si>
+    <t>Jesus P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r437191833-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -702,6 +765,9 @@
     <t>I didn't experience anything bad, the only thing I disliked was my room smelling like smoke, and the breakfast isn't really breakfast I consider it a snack but other than that everything was good. If your not so picky about what I've described I recommend this hotel for you.More</t>
   </si>
   <si>
+    <t>genuality</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r436622242-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -726,6 +792,9 @@
     <t>Quiet and has the greatest kitchenettes. The price is amazing!I would not stay anywhere else. Such quality for such an inexpensive stay.I love this place! Nice staff, friendly and will bend over backwards for you.More</t>
   </si>
   <si>
+    <t>mazin k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r432010908-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -753,6 +822,9 @@
     <t>Very bad experience staying in this place . There is nothing good to say about it . Filthy hotel even the front door glass all finger prints and dirty . The rooms are very bad dirty outdated dirty looking towels actually me and my wife we skipped the shower since we stayed overnight . The so called breakfast is a disaster they have it next to the front door and very lousy muffins and bars .In the room the sheets were not clean because there was hair on them and no glasses to drink water .When I asked about the restroom in the lobby area the guy at the desk he has to take me to the laundry room to the bathroom and I have to work my way to the toilet since they stacked all the dirty sheets in big plastic bags around the toilet.There is no staff in the front desk at night and when I asked about that in am I was told to call to get somebody .I don't recommend this hotel to anybody and it should be shut down and shouldn't be on Trip adviser list . All the fixtures in the room are old and the sink was clogged. I will give less than one star if I can . I had never ever had an experience like this in my life . More</t>
   </si>
   <si>
+    <t>Sammantha M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r425021682-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -777,6 +849,9 @@
     <t>There was food in the microwave; the towels on the bathroom counter looked dirty; the windows were so dirty you could barely see out of them; had to ask for a glass; had to shove the footrest in really hard to get it to lock.More</t>
   </si>
   <si>
+    <t>John B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r412717144-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -804,6 +879,9 @@
     <t>It seems that the Homeless population has grown nearby this hotel so you might consider someplace else if you plan on bringing a loaded car. When I left out the back door, there was a homeless person, radio plugged into the outlet, blocking the door. The night before, several people smoking and joking out under the trees near the train-tracks, and they weren't dressed like they belonged there, especially with the shopping basket full of stuff. As for the room itself, it was adequate, but certainly not worth the $100 (plus the high hotel tax). Yes the water is hot and the tv works (except it only gets about 20 channels and no locals), but the flooring is coming up in the bathroom, my feet were black after walking on the carpet, the bed was cheap. This is a no-star hotel, that needs a better remodel and security. The staff was very nice.More</t>
   </si>
   <si>
+    <t>Megan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r403021785-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -829,6 +907,9 @@
   </si>
   <si>
     <t>All was great, until we discovered a huge ant problem, they were all over the beds, in our luggage and crawling all over us. It was disgusting. They had gotten into my luggage, and unfortunately causing me to have to buy a new set , but when I had told the hotel they couldn't give me cash to buy a new one, 3 weeks later and I'm still waiting on their insurance company. We got refunded for one night, and to go through all the hassle of having to drive to find new luggage switching rooms and washing all of our clothes. Not worth it. I would've expected a little more. I was told the manager would be able to talk to us in the morning and when the time came, she had avoided us. They even refused to transfer us hotels. We still had ants in our new room, but not as bad as before. Still gross.More</t>
+  </si>
+  <si>
+    <t>gcimatt</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r400840815-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
@@ -861,6 +942,9 @@
 Never was the room refreshed (new soap/shampoo) which meets the cleaning policy...Where to begin... Let's start with check-in. This is the first time in my life that the check-in process took more than a couple minutes. My family and I arrived at 5pm local time, and after finding my reservation (abt 5 minutes), the desk clerk said, "let me run up and make sure your rooms have been cleaned." A first, but I didn't think that much about it at the time. After another 10 minutes, we finally got to our rooms. When we booked, we requested double queen, non-smoking rooms. Neither room fit that description, as both were double full. smoking permitted rooms. Strike one! As we began looking around the rooms, we noticed the filth and conditions there in. There was a layer of crud on both the kitchenette and bathroom countertops! Dirty footprints in the tub, a constant drip in the fridge (which had filled about a quarter inch of the crisper drawer) and dirty bedspreads. My wife cleaned the fridge, while I called the front desk to let them know about the leak, and that we would need new towels. We were told the fridge leak was normal!We cleaned the room the best we could, but the carpet felt like it hadn't been vacuumed since it was installed (back in the 80's). It had multiple stains and was gross to walk on without shoes.Never was the room refreshed (new soap/shampoo) which meets the cleaning policy of the hotel. We booked a 7 night stay, and saw the cleaning crew once in that week, but NEVER did they enter our room. I understand California's drought problem, but this cleaning policy seems more about saving a buck than conserving water. As a member of the USAF for 28 years, I have lived in multiple hotels and temporary living facilities around the world, but this is the worst run-down, disgusting flea-bag of a place I have ever stayed (and that includes forward locations, in combat in the Middle East). For the amount I payed, I expected at least basic standards of cleanliness.As for what I requested for rooms vice what we got... I asked the staff about making a change in room assignments. What I was told was the hotel only has double full, smoking permitted rooms, and even if they had double queen, non-smoking rooms they were sold-out. Fine, I get being fully booked, but don't advertise that you have the more desirable rooms when it isn't true! Also, the picture you have on booking.com is NOT a true representation of this location. This hotel is a three story building, on a freeway entrance with no pool, hot tub or other amenities.To be honest, this type of hospitality experience is more to be expected from a sleazy, charge-by-the-hour motel than an extended stay hospitality!I would NEVER stay at this or any other Extended Stay America location again!More</t>
   </si>
   <si>
+    <t>Jean L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r396985821-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -885,6 +969,9 @@
     <t>This was a great place to stay!! Staff was always very nice, and friendly!! Small laundry area, but very nice. Washers work very well, as do dryers. It's located fairly close to a lot of things. Disneyland only about 15 minutes down the road. The kitchen in the rooms are absolutely great!! They provide you with all the stuff you'll need for your kitchen. More</t>
   </si>
   <si>
+    <t>Susan R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r396421001-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -909,6 +996,9 @@
     <t>The room and halls were dirty--we had to clean the room upon arrival.  3 out of 5 dryers not working. Ants in the room.  Parking lot --a couple of guys living in their car 24 hours for 4 days. Dust on lamps, bugs in bathroom.More</t>
   </si>
   <si>
+    <t>kbmnj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r394085255-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -936,6 +1026,9 @@
     <t>this is the most horrific place we have booked for our customers.no service, no high speed access to internet, rude employees, charges much more than any other hotel.  all are advertised but not delivered.no service, no high speed access to internet, rude employees,More</t>
   </si>
   <si>
+    <t>serg1818</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r371968511-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -963,6 +1056,9 @@
     <t>LOVEEED THE SERVICE!!!!!!!!manager was really nice!will really stay here again loved the housekeepers they are great in leaving the room super clean and detailed ! not rude at all!!!cant wait to come back here nxt yearso i give this hotel 100% great customer serviceMore</t>
   </si>
   <si>
+    <t>MELMO123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r359542910-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -990,6 +1086,9 @@
     <t>I paid $179 for a $45 one star room. They are not flexible about early check ins. Only room avail was handicapped first floor so bathroom was one giant roll in shower. A bottle of dog shampoo was left behind on a dirty soapdish. (nice to know last one in there was a dog)! Dirty Shower pan and tile floors, Several Holes in old dingy blanket, Outdated furnishings. You can hear anyone above walking around. Only one cup/glass, no ice machine nor any ice made in freezer. Way Overpriced! I'll never stay here again. Brea location much, much cleaner/nicer!More</t>
   </si>
   <si>
+    <t>Ronnie I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r359481536-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1005,6 +1104,9 @@
     <t>Room was more than expected, clean, well maintained.  On premise laundry facility and 24 hour availability made it accommodating for us.  Grab and go breakfast was like it says "grab and go", held the kids for when we reached the theme parks.  Staff was more than helpful and answered our questions and resolved our problems efficiently.More</t>
   </si>
   <si>
+    <t>Dale K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r347704710-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1032,6 +1134,9 @@
     <t>I hadn't been at this ESA before but since I had business in the area I gave it a try.  Everything worked well and it was clean.  Nice TV.  A newer large flat screen.  Wished it had more channels though but it worked.  The A/C / heater worked fine and the internet signal was strong.  The desk clerk was friendly and efficient. What I find interesting about this chain is that the several of their locations that I have stayed at in California all have the same notice hanging in the bathroom.  It says "Help Save Water!  California Is Facing A Historic Drought."  And then it suggests that you continue to use your used towels and sheets.  What's interesting is that the owners of this chain is NOT doing their share.  The faucets in the tub are very antiquated  They're the type that either they're off or they're FULL ON. NO in-between.  They could be saving thousands of gallons of water by updating these.  Oh well.More</t>
   </si>
   <si>
+    <t>GatoRat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r342385947-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1059,6 +1164,9 @@
     <t>Not bad, except profound dishonest with rates.I didn't know how long I would need a temporary place. It $2 lower per day for 15 days versus eight. (62.99 vs 64.99.) Plus, my reservation noted that any discount for longer stays would be taken out at checkout.I found a place sooner than expected and so shortened my stay to 8 days. They changed my daily rate to $69.99 for the first 7 nights and then double-charged me $94.99 for the last night.According to my spreadsheet, they overcharged me by $172.49More</t>
   </si>
   <si>
+    <t>DanielSkiffington</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r334683483-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1086,6 +1194,9 @@
     <t>I had never stayed at an Extended Stay, but when I did, it pretty much lived up to my expectations which is to say, not much. It's a basic hotel room that is nice enough to sleep in, but is not somewhere I would ever want to hang out at during the day. Rooms are not cleaned regularly, which is fine by me. Towels can be exchanged at the front desk. The small continental breakfast in the lobby was fine for being free--oatmeal, a few types of fruit and coffee.More</t>
   </si>
   <si>
+    <t>Laurisha S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r305939644-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1113,6 +1224,9 @@
     <t>I stayed for 3/2 nights the staff was very nice. Hotel is located 5 blocks from Disneyland which is very helpful if you want to walk to park and enjoy the area. there is a shuttle that also comes on property for $5.00. the room was very basic and even though there is a kitchenette it was not that helpful to me since there is only two burners. i was thinking when i booked that i would have full kitchen. for the price you should get more. the biggest complaint would be that there is no ice machine at all ! The assistant manager GG was very helpful and try to help me with shuttle arrangements so i appreciate that.More</t>
   </si>
   <si>
+    <t>christophermore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r303176311-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1137,6 +1251,9 @@
     <t>Shame that this Extended Stay was a bit of a let down. The room was very basic, however everyday things you expect a hotel to have available were hard to get a hold of.We asked for a hairdryer for 4 nights in a row, and they kept telling us they would deliver one. We ended up just buying one from Walmart. Same with towels. Impossible to get hold of clean ones.Just spend a few more bucks and get a proper hotel!More</t>
   </si>
   <si>
+    <t>Bibi B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r294867288-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1155,6 +1272,9 @@
     <t>About 5 blocks from main gate of Disney. Accommodations were decent. We needed it for one night since our other hotel (previously boomed) was already sold out for the night we needed to add on. Booked a military rate and joining the rewards program (for free) added an additional discount. Although check out staff forgot to make adjustment the front desk management followed up immediately to confirm discount adjusted.Room was clean, breakfast was basic continental. Would consider them again if other locations normally desired not available.Cheesecake Factory less than one block away, a 7-11 nearby along with souvenir store. Also very close to Anaheim Garden Walk with several stores, restaurant and movie theatre nearby.This is definitely a place to consider for more than just a few days stay when needing studio or suite accommodations.  Kitchenette is decent sized.Biggest suggestion for any travelers... don't try to do Disney in one day. Break up your visits to the park and experience your stay in the Anaheim resort area. You will get a better experience overall and a good place to stay while you're there.More</t>
   </si>
   <si>
+    <t>balusss</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r272762162-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1182,6 +1302,9 @@
     <t>Attached kitchen is really helpful when travelling with family and kids and ESA is known for its basic+, clean, economical options. We find this hotel comfortable but you really have to be sure your room is properly cleaned and done. 1. We took two rooms, one is fine but the other has food/beer in the refrigerator and trash. That could mean a lot for a picky traveller, but overall this is a good stay, we only have to be watchful. 2. There is no daily house-keeping unless you stay for more than 6 days. 3. staff at reception are cordial and helpful. 4. And yes, you have to explicitly ask for the 'kitchen tub', otherwise there is no cutlery in the room. This is only a few miles away from the disneyland but the fare per night is still bearable in this area. So, this makes a nice option for all visiting the disney.More</t>
   </si>
   <si>
+    <t>cdwatterson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r272607707-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1209,6 +1332,9 @@
     <t>We have stayed in a lot of hotels, and stayed in this hotel for 2 months, so we know what a friendly staff is like.  Carolyn and Gigi and there staff truly made it very nice.  If I can't be home, it is sure nice for people to make you feel at home.  Oh yeah, watching the Disneyland fireworks out my window every night was a great added bonus.  I definitely recommend this hotel.More</t>
   </si>
   <si>
+    <t>scooterwayne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r270919425-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1233,6 +1359,9 @@
     <t>I would highly recommend this hotel for short or extended stays what you get for your dollar can not be matched.the staff was helpful and kind. The place was always clean and new looking and up to date. Very quiet and private. The very worst thing was freeway noise . I had to keep the dual windows closed due to the noise which seemed to remedy the problem. The A/C units were a little loud but worked well. No other issues in an 8 month stay. NOT BAD !!More</t>
   </si>
   <si>
+    <t>David R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r255496109-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1260,6 +1389,9 @@
     <t>Great place to stay. The front desk staff and the manager are very professional and polite.They helped me with all my needs without hesitation. The hotel is very clean and quiet, and my room was very clean and comfortable.More</t>
   </si>
   <si>
+    <t>Laura N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r255246402-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1284,6 +1416,9 @@
     <t>This was my first experience at this brand in November. The location was next to my husbands work and the drive time would be minimal. Here's my break down of this location-Pros: -Friendly front desk staff that were helpful          In a shopping/business center with a coffee     house, carls Jr, flame broiler, and Remart. Cons: Dirty parking lot, grimey dirty room, dirty elevator.           Sketchy activity in the parking lot           Alot of sketchy people living here            Sign at front desk saying police have a right to search all guest registration information           Police activity alot in the building            Top floor non smoking rooms share a floor with smoking rooms! I finally asked why the hallway on my floor smelled like smoke and i found out the reason.          1st floor smells gross  More</t>
   </si>
   <si>
+    <t>pmarie55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r250491908-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1311,6 +1446,9 @@
     <t>BEWARE - this place is very disappointing.  I was shocked to arrive at this Extended Stay hotel &amp; find the cabinets &amp; drawers completely bare in my room - not even a coffee pot.  When I called about it I was told I could get coffee at the front.  Later I went to the front desk &amp; was told "oh - didn't you see a sign in your room that says you have to ask for these things?" (my room has no such sign).  At that point I was given a coffee pot in a bag which contained 1 coffee packet, 2 creamer &amp; 2 sugar packets (no sweeteners &amp; I have diabetes).  And of course I had no cups in my room (so used an empty soda cup from the night before). There's a stove in the room it had no pots &amp; pans or utensils.  Apparently you have to request that too.  The so-called continental "breakfast" consisted of gummy packaged muffins, granola bars &amp; apples (1 rotten apple lying at the bottom by the door).  On my way to "breakfast" I also noticed the dark brown hallway carpet was covered in bits of paper that had never been vacuumed.  1 washcloth.  Very limited cable channels (though there were 2 showtime channels).  Staff is not overly helpful or friendly.  WILL NEVER STAY HERE AGAIN (though I'm stuck for 2 nights due to cancellation policy).More</t>
   </si>
   <si>
+    <t>John C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r239403190-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1332,6 +1470,9 @@
     <t>Booked this for my mother so she was close to her sister.  Breakfast is average at best.  NO ice machine in the hotel, NO maid service during your stay, NO plates, glasses, pans on and on.  I book a smoking room, NO ashtrays even after going to the front desk where they said sorry they always walk off.  As my mother said, "Do NOT book a room here for anyone!" At the end of the day they would rather spend a few dollars more due to their experience.  Her and her boyfriend took the LUX bus in from Las Vegas and they would of rather stayed at the DoubleTree in Orange at approximately $80.00 more a night than stay here.  And this from someone whom is on a monthly budget.The only good thing is you can walk to a movie theater, Lazy Dog, Chili's and Kilted Skirt not to mention, Honda Center as well as the A"s!!More</t>
   </si>
   <si>
+    <t>Lindy Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r233953282-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1359,6 +1500,9 @@
     <t>Close to Honda Center and located in a shopping center with a theater and numerous eating establishments. Rooms were clean but this hotel provides nothing in your room (coffee maker, utensils, pans,etc) unless you ask and then pay another fee. Most hotels with a kitchen provide some of these things. Our hallway reeked of Marijuana and staff couldn't do anything about it unless they knew EXACTLY who had it. Not handicap friendly either. They provide coffee and cheap muffins in lobby,but u better hurry to get some because by 10, it disappears. I went down at 9:58 &amp; they had already put it away. Coffee is inexpensive and they should keep it out all day. More</t>
   </si>
   <si>
+    <t>Yseguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r223837635-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1383,6 +1527,9 @@
     <t>I have stayed at other extended stay hotels and this has been the worst experience by far. It did not meet average expectations for a two star hotel in any categories. Room was not ready when I came. I ha to wait two hours later for my room. Staff was incredibly dismissive and rude. The location is right next to the freeway- very loud. Windows were dirty and covered in a thick layer of dirt. The pillows had a horrible odor to them. There was a loud argument  in the lobby with two drunk guys and the maid. I could go on...More</t>
   </si>
   <si>
+    <t>Buddos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r215259729-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1407,6 +1554,9 @@
     <t>Pros:- The room was nice and comfortable. Everything was clean and in good working order.- The proximity to Disneyland (10-15 minutes) was terrific. So easy and quick to get to the park.- The grab-and-go breakfast was adequate (apples or oranges, granola/oatmeal bars, coffee), but made for great Disneyland snacks! I would definitely recommend taking a bit extra and bringing it to the park!Cons:- The corridor for the first floor rooms was not exactly in the best shape. It seemed it was not well taken care of. However, once you get through it, all is forgotten.Overall: A convenient and comfortable place to stay for your Disneyland vacation.More</t>
   </si>
   <si>
+    <t>Insearchofthe8wonder</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r213845432-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1431,6 +1581,9 @@
     <t>We were going to Knotts for the day and heading up to Big Bear the next day and just needed a room for the day/night because we had our pet with us. We needed to check in around 10am and it was becoming impossible to find a place that would take us were we usually stay (Hyatt, Marriott) We were able to check in at 11 to a smoking room (we do not smoke) which was surprisingly very clean and not stinky at all. Staff was very nice and accommodating. Loved that they had a kitchen setup. Overall it was a good stay.  More</t>
   </si>
   <si>
+    <t>Roy E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r207745147-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1458,6 +1611,9 @@
     <t>I have stayed here several times and each and every time has been absolutely perfect!  The Front Desk staff is amazing as is the property itself.  The grab and go breakfast is great and always well stocked.  The property is clean and the rooms are incredibly comfortable.  I would highly recommend this property to anyone who is looking for a quiet and relaxing place to stay.More</t>
   </si>
   <si>
+    <t>Shivnay K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r203245081-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1482,6 +1638,9 @@
     <t>Had the best experience out here as well as staff presentation. I will definitely come back out here for another stay. Definitely worth every dime. Customer service was great. Room was clean and if there was any problem, it was taken care of right away. Definitely made my family experience hassle free and much more than just wonderful More</t>
   </si>
   <si>
+    <t>Allan R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r203245007-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1497,6 +1656,9 @@
     <t>My stay at extended stay was just amazing. The cleanliness of the room was phenomenal. The customer service was exceptionally friendly. My check in was fast and simple. My room service was out of this world. I didnt want to leave the hotel because of how awesome my accommodations were. I did not want to leave the hotel room. More</t>
   </si>
   <si>
+    <t>MarkDrums</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r203244948-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1515,6 +1677,9 @@
     <t>Great stay, friendly staff (including front desk clerk Chris, and manager). I felt like it was more of a home than a hotel! The room also came with many extra amenities perfect for multiple night stays. I would recommend these hotels to anyone! Cons? Wifi speed, no daily serviceMore</t>
   </si>
   <si>
+    <t>L B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r200252025-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1542,6 +1707,9 @@
     <t>Overall cleanliness of room was gross. I was stuck staying here for a month for work. There was hair on bedsheets and towels. Sweat stained pillows and old gross stained blankets. I'm glad I brought my own and i ended up cleaning the room myself just to make sure.  Upon my wakeup on first night, there were police in the room across from me looking for a wanted person. The hotel could give no explanation as to what was going on because police wouldn't tell them, but the person wasn't coming back. The train every evening felt like an earthquake when it passed. I would never stay at this location again.More</t>
   </si>
   <si>
+    <t>Priya G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r196945001-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1566,6 +1734,9 @@
     <t>Just walked in and looking for a place for me, just wanted to relax and away from people at home.......first time at Extended Stay Hotel, was studio room and impressed that they had everything inside, neat and clean. I like it a lot except no hair dryer but that was good to know that when i check in the guy was helping me said that if anything i need or help just call the front desk. "My bad " accidentally forgot my Debit card at the desk that was nice of them that they informed me rigth away make me feel comfortable. I will recomend this place to my family and friends.More</t>
   </si>
   <si>
+    <t>Ryan M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r196658725-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1590,6 +1761,9 @@
     <t>Everything exceeded my expectations!  I had some very specific needs and the staff did everything they could to help us.  The rooms were clean, the kitchen saved us money and the beds were very comfortable (for the price).  I highly recommend this hotel and plan on staying here again.More</t>
   </si>
   <si>
+    <t>K H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r194889259-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1617,6 +1791,9 @@
     <t>Stayed at the Extended Stay America (Anaheim Hills) for 2 months. The staff were extremely helpful, professional and courteous.  The location was very convenient and close to several restaurants. The hotel and the rooms were clean and well maintained. The studio style living here made it very convenient and easy for anyone looking to stay for an extended period. The stay was very well priced and you will definitely get a great value for your money. I highly recommend this hotel for both short and long term stays.More</t>
   </si>
   <si>
+    <t>DCalvillo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r194599017-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1641,6 +1818,9 @@
     <t>(Before I post this review, I must aplogize to Dalip for the delay in this review. Circumstances beyond my control prevented me from doing so, BUT, I will have the pleasure of seeing him again as Priceline booked my hotel trip again for this weekend.)I booked this through Priceline last month, January, and was a little concerned after reading some of reviews. But after contact Dalip through email, he was very helpful and made sure that whatever concern I had were taken care of. The property was going through some sort of construction make over, but it did not interfere with my being there, and the property was clean and everything in order. The room itself was pretty immaculate. Sure, there is some wear on the furniture, but the room was spit-spot clean. The front desk was very professional and responsive. I did not eat breakfast here, so I can not comment on the breakfast items. The hotel is within an enclosed Office Park and there is an "It's a Grind" Coffee House and Teriyaki Bowl Joint place which name I don't remember. Taco Bell, Pollo Loco and Starbucks are right nearby as well. I really liked the easy freeway access. Even though it's near the freeway, it's a restful play to stay. So Dalip....here I come...see you on Friday!More</t>
   </si>
   <si>
+    <t>Robb W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r194103497-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1668,6 +1848,9 @@
     <t>Basic, reasonable, clean, courteous, reliable...all appropriate for the business traveler. However, for this particular property one of the biggest gripes (having nothing to do with the hotel itself) is that there are NO decent restaurants that are close to this site. There are many fast-food type of places, but if you want a regular sit-down restaurant type of experience to chill out, have a few drinks and generally unwind (as many of us business travelers need) you will be very disappointed.More</t>
   </si>
   <si>
+    <t>Kevin Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r189491497-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1695,6 +1878,9 @@
     <t>This Extended Stay America was in poor shape after a room fire and smelled like smoke. My colleague received a room that smelled of cat urine and changed to a different room. Extended Stay America should not be ranked a 2 star hotel, by the greatest exaggeration it could be a 1-1/2 star but really should be ranked 1 star. The bedding is not comfortable, the toilet paper is little better than 220 grit sandpaper and the breakfast of cereal bars and coffee does not qualify as breakfast included. The fact that maid service is an extra charge should indicate the type of hotel.More</t>
   </si>
   <si>
+    <t>psponsi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r188900364-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1722,6 +1908,9 @@
     <t>I stayed with my family for two days at this place while visiting Disney. The staff were courteous and friendly and stayed positive even when things went bad. Love that attitude and service mindset as it trumps all others for me. The facilities were neat, the bed was clean, the room and rest room were clean. Breakfast could have been better but then it was not bad. Thanks to the lady whose name starts with W...it was a long unusual name and I forgot to write it down sorry...but your service is still vivid in my memory. Will definitely recommend to stay with family.More</t>
   </si>
   <si>
+    <t>Carl L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r188327634-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1746,6 +1935,9 @@
     <t>Dalip Kumar, the hotel manager, is beyond outstanding. Always warm, friendly, and genuine. Has gone way out of his way to make sure my stay here has been excellent. Know of NO OTHER manager that is as "good" as he is. Lupinina at the front is the greatest. Always says it is a pleasure to serve me. She also helped with computer lessons to help me accomplish several jobs that were over my head. I call her "my go to girl". Great, great, great! Still staying her for over 6 weeks. Plan to stay about another month. Beyond excellent place to stay. Very reasonable rates and worth every penny.More</t>
   </si>
   <si>
+    <t>Robert S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r185508076-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1770,6 +1962,9 @@
     <t>I've stayed here now many times during the past five months.  Most times the stay is pleasant, but this time the room (a non-smoking one) reeked of smoke.  It was in the carpet, the bed, the curtains.... everywhere!   As a non-smoker, it was extremely unpleasant.More</t>
   </si>
   <si>
+    <t>raccoon45</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r182764659-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1794,6 +1989,9 @@
     <t>Stayed here for a while, the rooms were terrible, uncomfortable beds with stains on the padding .. stinky carpet and I tell you what housekeeping don't have a clue. Quick 2 minute job, no dusting or polishing .. Can't speak English either, you kidding me? How do these people communicate?I will never stay here again. The reception staff were great though. Helped me everytime.More</t>
   </si>
   <si>
+    <t>boneytd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r181529690-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1818,6 +2016,9 @@
     <t>I stayed at this hotel in October 2013 and found it to be a very nice and comfortable hotel. The staff is friendly and helpful and the rooms are clean. I was impressed at the amount of cleaning and general maintenance that is done on a daily basis. The only items that I found missing were a hair dryer and work out facility. There is plenty of parking and I haven't seen or heard and loud people partying or talking late night. My kitchen had most everything you would need to cook with and it was relatively clean. My only complaint would be the recliner in my room. The vinyl was cracked and looked like a cat had used it as a scratching post. (see picture)More</t>
   </si>
   <si>
+    <t>victorrenee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r175120948-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1842,6 +2043,9 @@
     <t>I have stayed at alot of hotels but this one by far was the best value for the money. The staff and management team were all very hepful and very friendly. The roons very spacious and clean. All and all a very nice safe and peaceful environment. I really enjoyed my stay and would recomend it to everyone.More</t>
   </si>
   <si>
+    <t>Hamdiesel6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r173393000-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1866,6 +2070,9 @@
     <t>You can not beat the price in regard to what you are receiving with this hotel.  Excellent service, clean and spacious rooms including kitchens.  It's definitely like a home away from home.  I fully recommend Extended Stay Hotels...More</t>
   </si>
   <si>
+    <t>bkeckta</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r170779490-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1893,6 +2100,9 @@
     <t>Top of the refrigerator and windows were dirty.  Toilet had recently been caulked at the floor but the bolts were either broken or loose and the sewer odor leaked into the room.  Over all the room appeared clean until you tried to look out the windows.  I cleaned the top of the refrigerator with a disinfectant wipe and presented it to the front desk on check out.  It was black.   They did offer me a discount for my inconvenience.  I think this hotel is too close to the freeway to spend more than a day or two.  The pollution from the traffic permeates the air.  I left with a dry cough from the smog.  I would stay at the other location in Brea next time.More</t>
   </si>
   <si>
+    <t>chankis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r167050851-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1917,6 +2127,9 @@
     <t>Just a great home to stay at when your away from home. Trouble free, clean, quiet, fun because there is nothing to think or worry about-it's all taken care of. The staff is happy and cheerful. They make one feel great when away from home. More</t>
   </si>
   <si>
+    <t>John R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r164914950-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1942,6 +2155,9 @@
   </si>
   <si>
     <t>Even though this backs to the 91 freeway, the rooms have heavy storm windows that provide impressive sound proofing. Had no problems getting a good night's sleep, despite the heavy traffic outside. This is property is in excellent condition, and has a very friendly and helpful staff. My only complaint is that the office is closed from 11 pm -7 am and does not provide for checkout, with a full statement on the night before a typical early morning departure.More</t>
+  </si>
+  <si>
+    <t>Iban-Torontonian</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r163709272-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
@@ -1968,6 +2184,9 @@
 Overall, it could have been a great stay had I gotten a nonsmoking...I booked my stay with Expedia. If I make a mistake, I don't lie about it. I was suppose to have a nonsmoking room and I did. However, between the selection and confirmation of as room, Expedia automatically chose smoking room. It's time, I didn't verify with the hotel about my reservation, and I was in the wrong about my reservation.  Although the night staff was curt with me, that my room's lock wasn't working much, the manager rectified the situation promptly the next morning. Jay was competent and kind in dealing with the situation. He did offer to give me a nonsmoking room the next day. He even helped with the refund of my stay with Expedia as I made accommodation plans elsewhere last night already. If I wasn't going to another hotel, I would stay here again. The guests seemed to enjoy their stay...some seemed to be regulars also. Thank you again to Jay and Gigi.Aside from the room being a smoking room, there was a toaster, microwave, fridge, ergonomic chairs and writing tables, iron and ironing board. Oh, the breakfast was a grab and go type consisting of premium flavoured coffee or to chocolate, packaged muffins, oatmeal granola bars, apples, and hot water for whatever else you may want to make. There may well be other things but I was there at 7:15AM. Overall, it could have been a great stay had I gotten a nonsmoking room that Expedia incorrectly booked for me. Thanks to Extended Stay for offering me a great and smart solution.More</t>
   </si>
   <si>
+    <t>sweettoothtep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r154978776-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -1995,6 +2214,9 @@
     <t>When I checked in I saw visible urine on the toilet. When I went to sleep I found blood on my pillow and dirt on my sheets!  It was not just a little dirt.  I stripped the bed and found multiple stains.  This resulted in the single worst night that I've ever had in a hotel.More</t>
   </si>
   <si>
+    <t>Richard H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r153448424-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -2022,6 +2244,9 @@
     <t>With only 1 room left, they knowingly placed us next to a person with mental issues.  Now I know why everyone moved out of that room, because I did the same thing after trying to get another room for 2 weeks!!  The mental person would yell and scream at the top of his lungs about wanting to kill everyone and stab everyone using every foul language you can imagine.  He would scream, hit, and slam things on the wall.  I even heard him cutting wood in the room.  All of this happened throughout the day and into the night.  The first two weeks, I have seen the cops come by twice and an ambulance that took him away (however, he came back a few days later).  When I asked the counter about that guy and getting another room, I was told that all the rooms were taken and thay they were in process of trying to kick that guy out.  My wife and I couldn't sleep at night and was seriously worried for our safety.  I talked to a another guy across from us (not even sharing a common wall) and he couldn't sleep either.  He called his American Express card and received a full refund!   I emailed  corporate about the situation to see if they could do anything for me, and left all my information.  I never heard back from them.   After two weeks I finally moved out of...With only 1 room left, they knowingly placed us next to a person with mental issues.  Now I know why everyone moved out of that room, because I did the same thing after trying to get another room for 2 weeks!!  The mental person would yell and scream at the top of his lungs about wanting to kill everyone and stab everyone using every foul language you can imagine.  He would scream, hit, and slam things on the wall.  I even heard him cutting wood in the room.  All of this happened throughout the day and into the night.  The first two weeks, I have seen the cops come by twice and an ambulance that took him away (however, he came back a few days later).  When I asked the counter about that guy and getting another room, I was told that all the rooms were taken and thay they were in process of trying to kick that guy out.  My wife and I couldn't sleep at night and was seriously worried for our safety.  I talked to a another guy across from us (not even sharing a common wall) and he couldn't sleep either.  He called his American Express card and received a full refund!   I emailed  corporate about the situation to see if they could do anything for me, and left all my information.  I never heard back from them.   After two weeks I finally moved out of the room and into another room down the hall.  It was better, but the walls are thin.  You can hear everyone above you walking, having sex, and people talking all over the place into the wee hours of the night.  None of the ranges have vents, so if you cook, the smell will stay in your room for a long time.  The windows are hard as hell to close and open!  My wife couldn't get it to budge at all.  I had to apply a lot of force to open and close the window.  This is the same for both rooms. This is the absolutely worst place I have ever stayed in my entire life and will never go back!  I would never recommend this hotel to anyone!More</t>
   </si>
   <si>
+    <t>cuongly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r153339311-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -2040,6 +2265,9 @@
     <t>This hotel is great, good location near Honda center and Angels stadium. The room is big and clean with fully equipped kitchen make life easier and affordable when travel. The staff are excellent and friendly .More</t>
   </si>
   <si>
+    <t>gr8advisor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r150462282-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -2064,6 +2292,9 @@
     <t>Room is clean, towels need to be replaced, feels like sandpaper, ouch. Most important it is a safe area. Price is very good considering what you get for what you pay. Nice kichenette. Full size refrigerator. Quite. Lots of professionals stay here, Good selections of restaurants nearby. Friendly staff.They serve continental breakfast ( Small Mufins, Coffee, Oatmeal, Apple and Oranges and etc.) The breakfast can be better or at least change the menu from day to day. I would stay here if I ever come back in the area. It is not at the center of OC, but worth the drive.More</t>
   </si>
   <si>
+    <t>Alex L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r150240625-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -2088,6 +2319,9 @@
     <t>the service was excellent compared to other hotels that i used to stay when I travelled. The staff were so friendly and know what theyre doing. Their rooms are very clean, they always check on me if I need anything. I felt like its my home but only stayed there for a week. Its been a great experienced staying in this hotel. And I will definitely tell my friends and families to stay there when they have meetings or vacations in Orange County. Thanks Extended Stay America Anaheim Hills for all your great service and you are the best.More</t>
   </si>
   <si>
+    <t>Frederick K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r149916683-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -2112,6 +2346,9 @@
     <t>I had asked for a late checkout because I had been tied up on conference calls and other various phone calls and such during my morning. The gentleman at the front desk, Louis, was very accommodating and asked "will noon work?". Well one thing lead to the next and I ended up staying until 1:20 in the afternoon. Louis was really nice and as I tried to compensate them for the room he said something to the effect that "you stay here often enough, get out of here!". What a relief it is to deal with someone that's that easy to work with, and it's in California to boot!.More</t>
   </si>
   <si>
+    <t>longtermtraveler_10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r145423787-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -2139,6 +2376,9 @@
     <t>I have been staying Mostly ES Deluxe don't understand why none in LA area, but they did nice remodeling of room  real fresh look, Take I go breakfeast is ok standard continental breakfeast stuff, but one thing I never can understand is why this chain has such bad TV selections, if you stay long you do want to see more than 5 national news channels, the local broadcast channels, 4 sport channels and two weather channels, the deluxe side of this chain is a bit better, The manager Robert make you feel right at home very friendly and does everything to make your stay pleasantMore</t>
   </si>
   <si>
+    <t>Guest123987</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r143810678-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -2166,6 +2406,9 @@
     <t>I do not have much to say about this hotel do to the fact we could not stay there because they booked our room to other guest. The reason we know this is because after we checked in and went to our room, it was already occupied by other guest.  We walked straight out and went back to the front desk, to be told that some one  did not do their job right and moved guest around with out entering it into the system. So after the front deck man ( who is so rude) called his manger, he told us they were all booked. So we had to drive around and try to find a place to stay.More</t>
   </si>
   <si>
+    <t>Rollie-65</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r140875530-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -2193,6 +2436,9 @@
     <t>The hotel was easy to find thanks to the excellent directions given by the hotel web site.  The location was right next to the Riverside Freeway so there was steady traffic noise.  To drown it out required turning the AC fan way up which wasn't any better than the freeway noise.  I skipped the "Take and Go Breakfast".  It just didn't look very appealing.  The room was clean and adequate.  I wouldn't stay there again due to the close proximity to the freeway.More</t>
   </si>
   <si>
+    <t>stganje</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r136859821-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -2220,6 +2466,9 @@
     <t>We deicded to go on a last minute trip to California and the 2 hotels we like to stay at were booked. I needed a hotel with a fridge and the location was right and based on previously reviews I booked this hotel. We arrived tired and had to wait almost 10 minutes for anyone to check us in. The front desk was empty. The room was clean and basic but lacked things like a pen or shampoo. I asked for shampoo but was told I had to go to the store and buy it. Paying over $100 a night I expect shampoo and a pen. I was not expecting the level of the Hyatt summerfield or Marriott residence but felt I got the bare bones that I could tolerate and a good location for what we needed.More</t>
   </si>
   <si>
+    <t>Russel K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r134133243-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -2247,6 +2496,9 @@
     <t>The hotel appeared to be new or just remodeled. It was clean inside and out. The room was large and also very clean and functional. The beds were as comfortable as any hotel we have stayed in and we've stayed in many. The front desk was staffed by a named Naresh Nick, Arlene and Rowena, who was very pleasant and polite and a credit to the hotel. Housekeeper was friendly gave once a week room service and provided extra towel per my request.  Because it is an Extended Stay there is no restaurant only bunch of fast food enclosed but this location was very convenient for us. Would stay there again whenever I am in AnaheimMore</t>
   </si>
   <si>
+    <t>cyclopsina</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r134115210-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -2263,6 +2515,9 @@
   </si>
   <si>
     <t>I was here to cheer my daughter at a volleyball tournament in Anaheim.  She was staying with her team, and  I wanted an inexpensive place to stay, where I could make my own food.  Couldn't be happier with the Extended StayAmerica Orange County.  Room was spacious, clean and had a kitchen!  I loved the laundry facilities, because we were traveling for a week before so I could launder my own and my daughter's clothes for the rest of our trip.  Loved the convenient location to the freeway.  There is a Starbucks nearby, for any coffee needs not met by the cofffee pot in the room.  The setting is a business park, so the neighborhood felt very safe.  I was so comfortable here.  Couldn't believe the low price!  I will be back!!!More</t>
+  </si>
+  <si>
+    <t>Ricky B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r133529480-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
@@ -2291,6 +2546,9 @@
 The funny part about it was that I had a guest voucher from my last trip...This was much better than my stay in their Huntington Beach property. The rooms where nicer and newly renovated but the checking got messed up really bad. I was very clear with my online reservation and left detailed notes in the comments box and special requests. I needed two double rooms to accommodate my mother in law and all of my kids. When I got there at 5:00 PM, the desk informed me that "Sorry. Housekeeping never cleaned your room and they left for the day so I have to give you a different room with a Queen bed."What?  We never cleaned the room for you?  They also kept asking if I had mentioned what I needed when I made the reservation. So there is obviously a communication breakdown between the corporate reservation system and the actual location. No one even looked at my special requests.I tried to call a few days before my arrival to confirm everything and was placed on hold for over 15 minutes so I hung up. We eventually got the checkin worked out and I had to settle on the room accommodations because there was no other choice. The check in clerk seemed to have no power and did pretty good with hat he had to work with. He had to call the manager a few times.The funny part about it was that I had a guest voucher from my last trip I was using. That was given to me because that last experience was so terrible. This one was much better but the problems seem to be chain wide with this place. I have to admit that the rooms where clean and the location was pretty good compared to the Huntington Beach location but these places seem to have a hard time with their housekeeping staff and the front desk staff are very passive.There where facility amenities we where not told about like the grab &amp; go breakfast.  I found it on accident one day because I was checking out early. Don't expect top notch service but do expect clean rooms. There was no maid service during my stay of 2 days but the area was safe for my family and it was conveniently located for my needs. The beds where just OK.  Could have been more comfortable for "Newly Renovated"More</t>
   </si>
   <si>
+    <t>Shawn S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r127491343-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
   </si>
   <si>
@@ -2310,6 +2568,9 @@
   </si>
   <si>
     <t>Nice location right on freeway, comfortable room, friendly staffMore</t>
+  </si>
+  <si>
+    <t>Rohit P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249725-r127490656-Extended_Stay_America_Orange_County_Anaheim_Hills-Anaheim_California.html</t>
@@ -2832,43 +3093,47 @@
       <c r="A2" t="n">
         <v>40684</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>146563</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2880,56 +3145,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>40684</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>146564</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -2951,56 +3220,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>40684</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>375</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3012,56 +3285,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>40684</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>146565</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -3083,56 +3360,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>40684</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>72885</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -3154,56 +3435,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>40684</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>54322</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3215,56 +3500,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>40684</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>146566</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
         <v>37</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -3286,56 +3575,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>40684</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>146567</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -3357,56 +3650,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>40684</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>146568</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -3428,56 +3725,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>40684</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>146569</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -3499,56 +3800,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>40684</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>146570</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3560,56 +3865,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>40684</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>146571</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -3631,56 +3940,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>40684</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>146572</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -3702,56 +4015,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="X14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>40684</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>146573</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="O15" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -3773,56 +4090,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>40684</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>146574</v>
+      </c>
+      <c r="C16" t="s">
+        <v>182</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="K16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -3844,56 +4165,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="X16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>40684</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>8986</v>
+      </c>
+      <c r="C17" t="s">
+        <v>191</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3905,56 +4230,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="X17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="Y17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>40684</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>146575</v>
+      </c>
+      <c r="C18" t="s">
+        <v>201</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="J18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="O18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P18" t="n">
         <v>2</v>
@@ -3972,56 +4301,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="X18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="Y18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>40684</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>146576</v>
+      </c>
+      <c r="C19" t="s">
+        <v>212</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="K19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="L19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="O19" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -4037,56 +4370,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="X19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="Y19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>40684</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>146577</v>
+      </c>
+      <c r="C20" t="s">
+        <v>221</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="J20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="K20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="L20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4098,47 +4435,51 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="X20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="Y20" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>40684</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>146578</v>
+      </c>
+      <c r="C21" t="s">
+        <v>231</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="J21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="K21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="L21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
@@ -4155,56 +4496,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="X21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="Y21" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>40684</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>146579</v>
+      </c>
+      <c r="C22" t="s">
+        <v>240</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="J22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="K22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="L22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="O22" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4216,56 +4561,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="X22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="Y22" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>40684</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>146580</v>
+      </c>
+      <c r="C23" t="s">
+        <v>249</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="J23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="K23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="L23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
+        <v>227</v>
+      </c>
+      <c r="O23" t="s">
         <v>208</v>
-      </c>
-      <c r="O23" t="s">
-        <v>191</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -4283,56 +4632,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="X23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="Y23" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>40684</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>146581</v>
+      </c>
+      <c r="C24" t="s">
+        <v>258</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="J24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="K24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="L24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="O24" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4344,56 +4697,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="X24" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="Y24" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>40684</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>146582</v>
+      </c>
+      <c r="C25" t="s">
+        <v>268</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="J25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="K25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="L25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="O25" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4411,56 +4768,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="X25" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="Y25" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>40684</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>508</v>
+      </c>
+      <c r="C26" t="s">
+        <v>277</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="J26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="K26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="L26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -4478,56 +4839,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="X26" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="Y26" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>40684</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>24504</v>
+      </c>
+      <c r="C27" t="s">
+        <v>287</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="J27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="K27" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="L27" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="O27" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -4543,56 +4908,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="X27" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="Y27" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>40684</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>146583</v>
+      </c>
+      <c r="C28" t="s">
+        <v>297</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="J28" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="K28" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="L28" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4604,56 +4973,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="X28" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="Y28" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>40684</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>14527</v>
+      </c>
+      <c r="C29" t="s">
+        <v>306</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="J29" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="K29" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="L29" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="O29" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4665,56 +5038,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="X29" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="Y29" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>40684</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>3802</v>
+      </c>
+      <c r="C30" t="s">
+        <v>315</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="J30" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="K30" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="L30" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4732,56 +5109,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="X30" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="Y30" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>40684</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>146584</v>
+      </c>
+      <c r="C31" t="s">
+        <v>324</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="J31" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="K31" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="L31" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4797,56 +5178,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="X31" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="Y31" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>40684</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>146585</v>
+      </c>
+      <c r="C32" t="s">
+        <v>334</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="J32" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="K32" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="L32" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="O32" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4858,56 +5243,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="X32" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="Y32" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>40684</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>146586</v>
+      </c>
+      <c r="C33" t="s">
+        <v>344</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="J33" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="K33" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="L33" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="O33" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4923,56 +5312,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="X33" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="Y33" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>40684</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>146587</v>
+      </c>
+      <c r="C34" t="s">
+        <v>354</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="J34" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="K34" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="L34" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4990,56 +5383,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="X34" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="Y34" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>40684</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>100725</v>
+      </c>
+      <c r="C35" t="s">
+        <v>360</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="J35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="K35" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="L35" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -5057,56 +5454,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="X35" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="Y35" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>40684</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>146588</v>
+      </c>
+      <c r="C36" t="s">
+        <v>370</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="J36" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="K36" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="L36" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -5124,56 +5525,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="X36" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="Y36" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>40684</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>66568</v>
+      </c>
+      <c r="C37" t="s">
+        <v>380</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="J37" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="K37" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="L37" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="O37" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5185,56 +5590,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="X37" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="Y37" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>40684</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>146589</v>
+      </c>
+      <c r="C38" t="s">
+        <v>390</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="J38" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="K38" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="L38" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5252,47 +5661,51 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="X38" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="Y38" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>40684</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>146590</v>
+      </c>
+      <c r="C39" t="s">
+        <v>400</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="J39" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="K39" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="L39" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
@@ -5309,56 +5722,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="X39" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="Y39" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>40684</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>146591</v>
+      </c>
+      <c r="C40" t="s">
+        <v>409</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="J40" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="K40" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="L40" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5376,50 +5793,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>40684</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>146592</v>
+      </c>
+      <c r="C41" t="s">
+        <v>416</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="J41" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="K41" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="L41" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5435,56 +5856,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="X41" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="Y41" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>40684</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>146593</v>
+      </c>
+      <c r="C42" t="s">
+        <v>426</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="J42" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="K42" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="L42" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -5502,56 +5927,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="X42" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="Y42" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>40684</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>146594</v>
+      </c>
+      <c r="C43" t="s">
+        <v>436</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="J43" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="K43" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="L43" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5563,56 +5992,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="X43" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="Y43" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>40684</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>1644</v>
+      </c>
+      <c r="C44" t="s">
+        <v>445</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="J44" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="K44" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="L44" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="O44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5628,47 +6061,51 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="X44" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="Y44" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>40684</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>18766</v>
+      </c>
+      <c r="C45" t="s">
+        <v>455</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="J45" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="K45" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="L45" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
@@ -5695,56 +6132,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="X45" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
       <c r="Y45" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>40684</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>146595</v>
+      </c>
+      <c r="C46" t="s">
+        <v>464</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="J46" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="K46" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="L46" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P46" t="n">
         <v>2</v>
@@ -5762,56 +6203,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="X46" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="Y46" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>40684</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>364</v>
+      </c>
+      <c r="C47" t="s">
+        <v>474</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="J47" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="K47" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="L47" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5829,50 +6274,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>40684</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>146596</v>
+      </c>
+      <c r="C48" t="s">
+        <v>482</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
       <c r="J48" t="s">
-        <v>438</v>
+        <v>485</v>
       </c>
       <c r="K48" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="L48" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="O48" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5884,47 +6333,51 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="X48" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
       <c r="Y48" t="s">
-        <v>444</v>
+        <v>491</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>40684</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>146597</v>
+      </c>
+      <c r="C49" t="s">
+        <v>492</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="J49" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="K49" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="L49" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
@@ -5951,47 +6404,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="X49" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="Y49" t="s">
-        <v>452</v>
+        <v>500</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>40684</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>146598</v>
+      </c>
+      <c r="C50" t="s">
+        <v>501</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="J50" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="K50" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="L50" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
@@ -6008,47 +6465,51 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="X50" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="Y50" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>40684</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>146599</v>
+      </c>
+      <c r="C51" t="s">
+        <v>510</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="J51" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="K51" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
       <c r="L51" t="s">
-        <v>465</v>
+        <v>515</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
@@ -6065,56 +6526,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>466</v>
+        <v>516</v>
       </c>
       <c r="X51" t="s">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="Y51" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>40684</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>104379</v>
+      </c>
+      <c r="C52" t="s">
+        <v>519</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="J52" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="K52" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
       <c r="L52" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="O52" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6136,47 +6601,51 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="X52" t="s">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="Y52" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>40684</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>146600</v>
+      </c>
+      <c r="C53" t="s">
+        <v>529</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="J53" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
       <c r="K53" t="s">
-        <v>481</v>
+        <v>533</v>
       </c>
       <c r="L53" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
@@ -6203,47 +6672,51 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
       <c r="X53" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="Y53" t="s">
-        <v>485</v>
+        <v>537</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>40684</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>33659</v>
+      </c>
+      <c r="C54" t="s">
+        <v>538</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>487</v>
+        <v>540</v>
       </c>
       <c r="J54" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
       <c r="K54" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="L54" t="s">
-        <v>489</v>
+        <v>542</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
@@ -6270,56 +6743,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
       <c r="X54" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="Y54" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>40684</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>146601</v>
+      </c>
+      <c r="C55" t="s">
+        <v>544</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
       <c r="J55" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
       <c r="K55" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
       <c r="L55" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>495</v>
+        <v>549</v>
       </c>
       <c r="O55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6341,56 +6818,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
       <c r="X55" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="Y55" t="s">
-        <v>496</v>
+        <v>550</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>40684</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>2794</v>
+      </c>
+      <c r="C56" t="s">
+        <v>551</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="J56" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
       <c r="K56" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="L56" t="s">
-        <v>501</v>
+        <v>556</v>
       </c>
       <c r="M56" t="n">
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="O56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -6412,56 +6893,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>503</v>
+        <v>558</v>
       </c>
       <c r="X56" t="s">
-        <v>504</v>
+        <v>559</v>
       </c>
       <c r="Y56" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>40684</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>146602</v>
+      </c>
+      <c r="C57" t="s">
+        <v>561</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>506</v>
+        <v>562</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="J57" t="s">
-        <v>508</v>
+        <v>564</v>
       </c>
       <c r="K57" t="s">
-        <v>509</v>
+        <v>565</v>
       </c>
       <c r="L57" t="s">
-        <v>510</v>
+        <v>566</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="O57" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6483,56 +6968,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="X57" t="s">
-        <v>512</v>
+        <v>568</v>
       </c>
       <c r="Y57" t="s">
-        <v>513</v>
+        <v>569</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>40684</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>26602</v>
+      </c>
+      <c r="C58" t="s">
+        <v>570</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="J58" t="s">
-        <v>516</v>
+        <v>573</v>
       </c>
       <c r="K58" t="s">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="L58" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6554,56 +7043,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="X58" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="Y58" t="s">
-        <v>521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>40684</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>9208</v>
+      </c>
+      <c r="C59" t="s">
+        <v>579</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
       <c r="J59" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="K59" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="L59" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="O59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6625,56 +7118,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="X59" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
       <c r="Y59" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>40684</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>146603</v>
+      </c>
+      <c r="C60" t="s">
+        <v>589</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>531</v>
+        <v>590</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
       <c r="J60" t="s">
-        <v>533</v>
+        <v>592</v>
       </c>
       <c r="K60" t="s">
-        <v>534</v>
+        <v>593</v>
       </c>
       <c r="L60" t="s">
-        <v>535</v>
+        <v>594</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="O60" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6696,56 +7193,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>536</v>
+        <v>595</v>
       </c>
       <c r="X60" t="s">
-        <v>537</v>
+        <v>596</v>
       </c>
       <c r="Y60" t="s">
-        <v>538</v>
+        <v>597</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>40684</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>37539</v>
+      </c>
+      <c r="C61" t="s">
+        <v>598</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="J61" t="s">
-        <v>541</v>
+        <v>601</v>
       </c>
       <c r="K61" t="s">
-        <v>542</v>
+        <v>602</v>
       </c>
       <c r="L61" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>544</v>
+        <v>604</v>
       </c>
       <c r="O61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6767,56 +7268,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>545</v>
+        <v>605</v>
       </c>
       <c r="X61" t="s">
-        <v>546</v>
+        <v>606</v>
       </c>
       <c r="Y61" t="s">
-        <v>547</v>
+        <v>607</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>40684</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>13265</v>
+      </c>
+      <c r="C62" t="s">
+        <v>608</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>548</v>
+        <v>609</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>549</v>
+        <v>610</v>
       </c>
       <c r="J62" t="s">
-        <v>550</v>
+        <v>611</v>
       </c>
       <c r="K62" t="s">
-        <v>551</v>
+        <v>612</v>
       </c>
       <c r="L62" t="s">
-        <v>552</v>
+        <v>613</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>553</v>
+        <v>614</v>
       </c>
       <c r="O62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P62" t="n">
         <v>2</v>
@@ -6838,56 +7343,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>554</v>
+        <v>615</v>
       </c>
       <c r="X62" t="s">
-        <v>555</v>
+        <v>616</v>
       </c>
       <c r="Y62" t="s">
-        <v>556</v>
+        <v>617</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>40684</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>146604</v>
+      </c>
+      <c r="C63" t="s">
+        <v>618</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>557</v>
+        <v>619</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>558</v>
+        <v>620</v>
       </c>
       <c r="J63" t="s">
-        <v>559</v>
+        <v>621</v>
       </c>
       <c r="K63" t="s">
-        <v>560</v>
+        <v>622</v>
       </c>
       <c r="L63" t="s">
-        <v>561</v>
+        <v>623</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>562</v>
+        <v>624</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6909,56 +7418,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>563</v>
+        <v>625</v>
       </c>
       <c r="X63" t="s">
-        <v>564</v>
+        <v>626</v>
       </c>
       <c r="Y63" t="s">
-        <v>565</v>
+        <v>627</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>40684</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>63301</v>
+      </c>
+      <c r="C64" t="s">
+        <v>628</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>566</v>
+        <v>629</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>567</v>
+        <v>630</v>
       </c>
       <c r="J64" t="s">
-        <v>568</v>
+        <v>631</v>
       </c>
       <c r="K64" t="s">
-        <v>569</v>
+        <v>632</v>
       </c>
       <c r="L64" t="s">
-        <v>570</v>
+        <v>633</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>544</v>
+        <v>604</v>
       </c>
       <c r="O64" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6980,56 +7493,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>571</v>
+        <v>634</v>
       </c>
       <c r="X64" t="s">
-        <v>572</v>
+        <v>635</v>
       </c>
       <c r="Y64" t="s">
-        <v>573</v>
+        <v>636</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>40684</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C65" t="s">
+        <v>637</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>574</v>
+        <v>638</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>575</v>
+        <v>639</v>
       </c>
       <c r="J65" t="s">
-        <v>576</v>
+        <v>640</v>
       </c>
       <c r="K65" t="s">
-        <v>577</v>
+        <v>641</v>
       </c>
       <c r="L65" t="s">
-        <v>578</v>
+        <v>642</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>544</v>
+        <v>604</v>
       </c>
       <c r="O65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -7051,47 +7568,51 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>579</v>
+        <v>643</v>
       </c>
       <c r="X65" t="s">
-        <v>580</v>
+        <v>644</v>
       </c>
       <c r="Y65" t="s">
-        <v>581</v>
+        <v>645</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>40684</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>146605</v>
+      </c>
+      <c r="C66" t="s">
+        <v>646</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>582</v>
+        <v>647</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>583</v>
+        <v>648</v>
       </c>
       <c r="J66" t="s">
-        <v>584</v>
+        <v>649</v>
       </c>
       <c r="K66" t="s">
-        <v>585</v>
+        <v>650</v>
       </c>
       <c r="L66" t="s">
-        <v>586</v>
+        <v>651</v>
       </c>
       <c r="M66" t="n">
         <v>2</v>
@@ -7118,56 +7639,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>587</v>
+        <v>652</v>
       </c>
       <c r="X66" t="s">
-        <v>588</v>
+        <v>653</v>
       </c>
       <c r="Y66" t="s">
-        <v>589</v>
+        <v>654</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>40684</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>146606</v>
+      </c>
+      <c r="C67" t="s">
+        <v>655</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>590</v>
+        <v>656</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>591</v>
+        <v>657</v>
       </c>
       <c r="J67" t="s">
-        <v>592</v>
+        <v>658</v>
       </c>
       <c r="K67" t="s">
-        <v>593</v>
+        <v>659</v>
       </c>
       <c r="L67" t="s">
-        <v>594</v>
+        <v>660</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>553</v>
+        <v>614</v>
       </c>
       <c r="O67" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -7189,47 +7714,51 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>595</v>
+        <v>661</v>
       </c>
       <c r="X67" t="s">
-        <v>596</v>
+        <v>662</v>
       </c>
       <c r="Y67" t="s">
-        <v>597</v>
+        <v>663</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>40684</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>146607</v>
+      </c>
+      <c r="C68" t="s">
+        <v>664</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>598</v>
+        <v>665</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>599</v>
+        <v>666</v>
       </c>
       <c r="J68" t="s">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="K68" t="s">
-        <v>601</v>
+        <v>668</v>
       </c>
       <c r="L68" t="s">
-        <v>602</v>
+        <v>669</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
@@ -7256,47 +7785,51 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>603</v>
+        <v>670</v>
       </c>
       <c r="X68" t="s">
-        <v>604</v>
+        <v>671</v>
       </c>
       <c r="Y68" t="s">
-        <v>605</v>
+        <v>672</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>40684</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>146608</v>
+      </c>
+      <c r="C69" t="s">
+        <v>673</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>606</v>
+        <v>674</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>607</v>
+        <v>675</v>
       </c>
       <c r="J69" t="s">
-        <v>608</v>
+        <v>676</v>
       </c>
       <c r="K69" t="s">
-        <v>609</v>
+        <v>677</v>
       </c>
       <c r="L69" t="s">
-        <v>610</v>
+        <v>678</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
@@ -7323,56 +7856,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>611</v>
+        <v>679</v>
       </c>
       <c r="X69" t="s">
-        <v>612</v>
+        <v>680</v>
       </c>
       <c r="Y69" t="s">
-        <v>613</v>
+        <v>681</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>40684</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>146609</v>
+      </c>
+      <c r="C70" t="s">
+        <v>682</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>614</v>
+        <v>683</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>615</v>
+        <v>684</v>
       </c>
       <c r="J70" t="s">
-        <v>616</v>
+        <v>685</v>
       </c>
       <c r="K70" t="s">
-        <v>617</v>
+        <v>686</v>
       </c>
       <c r="L70" t="s">
-        <v>618</v>
+        <v>687</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>619</v>
+        <v>688</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="n">
@@ -7390,47 +7927,51 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>620</v>
+        <v>689</v>
       </c>
       <c r="X70" t="s">
-        <v>621</v>
+        <v>690</v>
       </c>
       <c r="Y70" t="s">
-        <v>622</v>
+        <v>691</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>40684</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>146610</v>
+      </c>
+      <c r="C71" t="s">
+        <v>692</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>623</v>
+        <v>693</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>624</v>
+        <v>694</v>
       </c>
       <c r="J71" t="s">
-        <v>625</v>
+        <v>695</v>
       </c>
       <c r="K71" t="s">
-        <v>626</v>
+        <v>696</v>
       </c>
       <c r="L71" t="s">
-        <v>627</v>
+        <v>697</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
@@ -7457,56 +7998,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>628</v>
+        <v>698</v>
       </c>
       <c r="X71" t="s">
-        <v>629</v>
+        <v>699</v>
       </c>
       <c r="Y71" t="s">
-        <v>630</v>
+        <v>700</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>40684</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>6779</v>
+      </c>
+      <c r="C72" t="s">
+        <v>701</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>631</v>
+        <v>702</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>632</v>
+        <v>703</v>
       </c>
       <c r="J72" t="s">
-        <v>633</v>
+        <v>704</v>
       </c>
       <c r="K72" t="s">
-        <v>634</v>
+        <v>705</v>
       </c>
       <c r="L72" t="s">
-        <v>635</v>
+        <v>706</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>636</v>
+        <v>707</v>
       </c>
       <c r="O72" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7528,56 +8073,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>637</v>
+        <v>708</v>
       </c>
       <c r="X72" t="s">
-        <v>638</v>
+        <v>709</v>
       </c>
       <c r="Y72" t="s">
-        <v>639</v>
+        <v>710</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>40684</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>146611</v>
+      </c>
+      <c r="C73" t="s">
+        <v>711</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>640</v>
+        <v>712</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>641</v>
+        <v>713</v>
       </c>
       <c r="J73" t="s">
-        <v>642</v>
+        <v>714</v>
       </c>
       <c r="K73" t="s">
-        <v>643</v>
+        <v>715</v>
       </c>
       <c r="L73" t="s">
-        <v>644</v>
+        <v>716</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>636</v>
+        <v>707</v>
       </c>
       <c r="O73" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7591,50 +8140,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>645</v>
+        <v>717</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>40684</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>146612</v>
+      </c>
+      <c r="C74" t="s">
+        <v>718</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>646</v>
+        <v>719</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>647</v>
+        <v>720</v>
       </c>
       <c r="J74" t="s">
-        <v>648</v>
+        <v>721</v>
       </c>
       <c r="K74" t="s">
-        <v>649</v>
+        <v>722</v>
       </c>
       <c r="L74" t="s">
-        <v>650</v>
+        <v>723</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>651</v>
+        <v>724</v>
       </c>
       <c r="O74" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P74" t="n">
         <v>2</v>
@@ -7656,56 +8209,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>652</v>
+        <v>725</v>
       </c>
       <c r="X74" t="s">
-        <v>653</v>
+        <v>726</v>
       </c>
       <c r="Y74" t="s">
-        <v>654</v>
+        <v>727</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>40684</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>289</v>
+      </c>
+      <c r="C75" t="s">
+        <v>728</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>655</v>
+        <v>729</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>656</v>
+        <v>730</v>
       </c>
       <c r="J75" t="s">
-        <v>657</v>
+        <v>731</v>
       </c>
       <c r="K75" t="s">
-        <v>658</v>
+        <v>732</v>
       </c>
       <c r="L75" t="s">
-        <v>659</v>
+        <v>733</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>660</v>
+        <v>734</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>1</v>
@@ -7727,47 +8284,51 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>661</v>
+        <v>735</v>
       </c>
       <c r="X75" t="s">
-        <v>662</v>
+        <v>736</v>
       </c>
       <c r="Y75" t="s">
-        <v>663</v>
+        <v>737</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>40684</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>146613</v>
+      </c>
+      <c r="C76" t="s">
+        <v>738</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>665</v>
+        <v>740</v>
       </c>
       <c r="J76" t="s">
-        <v>666</v>
+        <v>741</v>
       </c>
       <c r="K76" t="s">
-        <v>667</v>
+        <v>742</v>
       </c>
       <c r="L76" t="s">
-        <v>668</v>
+        <v>743</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
@@ -7794,56 +8355,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>661</v>
+        <v>735</v>
       </c>
       <c r="X76" t="s">
-        <v>662</v>
+        <v>736</v>
       </c>
       <c r="Y76" t="s">
-        <v>669</v>
+        <v>744</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>40684</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>146614</v>
+      </c>
+      <c r="C77" t="s">
+        <v>745</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>670</v>
+        <v>746</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>671</v>
+        <v>747</v>
       </c>
       <c r="J77" t="s">
-        <v>672</v>
+        <v>748</v>
       </c>
       <c r="K77" t="s">
-        <v>673</v>
+        <v>749</v>
       </c>
       <c r="L77" t="s">
-        <v>674</v>
+        <v>750</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>660</v>
+        <v>734</v>
       </c>
       <c r="O77" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7865,56 +8430,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>675</v>
+        <v>751</v>
       </c>
       <c r="X77" t="s">
-        <v>676</v>
+        <v>752</v>
       </c>
       <c r="Y77" t="s">
-        <v>677</v>
+        <v>753</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>40684</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>64719</v>
+      </c>
+      <c r="C78" t="s">
+        <v>754</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>678</v>
+        <v>755</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>679</v>
+        <v>756</v>
       </c>
       <c r="J78" t="s">
-        <v>680</v>
+        <v>757</v>
       </c>
       <c r="K78" t="s">
-        <v>681</v>
+        <v>758</v>
       </c>
       <c r="L78" t="s">
-        <v>682</v>
+        <v>759</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>660</v>
+        <v>734</v>
       </c>
       <c r="O78" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7936,56 +8505,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>683</v>
+        <v>760</v>
       </c>
       <c r="X78" t="s">
-        <v>684</v>
+        <v>761</v>
       </c>
       <c r="Y78" t="s">
-        <v>685</v>
+        <v>762</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>40684</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C79" t="s">
+        <v>763</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>686</v>
+        <v>764</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>687</v>
+        <v>765</v>
       </c>
       <c r="J79" t="s">
-        <v>688</v>
+        <v>766</v>
       </c>
       <c r="K79" t="s">
-        <v>689</v>
+        <v>767</v>
       </c>
       <c r="L79" t="s">
-        <v>690</v>
+        <v>768</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>660</v>
+        <v>734</v>
       </c>
       <c r="O79" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -8007,56 +8580,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>691</v>
+        <v>769</v>
       </c>
       <c r="X79" t="s">
-        <v>692</v>
+        <v>770</v>
       </c>
       <c r="Y79" t="s">
-        <v>693</v>
+        <v>771</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>40684</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>130011</v>
+      </c>
+      <c r="C80" t="s">
+        <v>772</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>694</v>
+        <v>773</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>695</v>
+        <v>774</v>
       </c>
       <c r="J80" t="s">
-        <v>696</v>
+        <v>775</v>
       </c>
       <c r="K80" t="s">
-        <v>697</v>
+        <v>776</v>
       </c>
       <c r="L80" t="s">
-        <v>698</v>
+        <v>777</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>699</v>
+        <v>778</v>
       </c>
       <c r="O80" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -8078,56 +8655,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>700</v>
+        <v>779</v>
       </c>
       <c r="X80" t="s">
-        <v>701</v>
+        <v>780</v>
       </c>
       <c r="Y80" t="s">
-        <v>702</v>
+        <v>781</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>40684</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>146615</v>
+      </c>
+      <c r="C81" t="s">
+        <v>782</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>703</v>
+        <v>783</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>704</v>
+        <v>784</v>
       </c>
       <c r="J81" t="s">
-        <v>705</v>
+        <v>785</v>
       </c>
       <c r="K81" t="s">
-        <v>706</v>
+        <v>786</v>
       </c>
       <c r="L81" t="s">
-        <v>707</v>
+        <v>787</v>
       </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>708</v>
+        <v>788</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>1</v>
@@ -8149,56 +8730,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>709</v>
+        <v>789</v>
       </c>
       <c r="X81" t="s">
-        <v>710</v>
+        <v>790</v>
       </c>
       <c r="Y81" t="s">
-        <v>711</v>
+        <v>791</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>40684</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>146616</v>
+      </c>
+      <c r="C82" t="s">
+        <v>792</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>712</v>
+        <v>793</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>713</v>
+        <v>794</v>
       </c>
       <c r="J82" t="s">
-        <v>714</v>
+        <v>795</v>
       </c>
       <c r="K82" t="s">
-        <v>715</v>
+        <v>796</v>
       </c>
       <c r="L82" t="s">
-        <v>716</v>
+        <v>797</v>
       </c>
       <c r="M82" t="n">
         <v>3</v>
       </c>
       <c r="N82" t="s">
-        <v>717</v>
+        <v>798</v>
       </c>
       <c r="O82" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -8220,56 +8805,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>718</v>
+        <v>799</v>
       </c>
       <c r="X82" t="s">
-        <v>719</v>
+        <v>800</v>
       </c>
       <c r="Y82" t="s">
-        <v>720</v>
+        <v>801</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>40684</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>146617</v>
+      </c>
+      <c r="C83" t="s">
+        <v>802</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>721</v>
+        <v>803</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>722</v>
+        <v>804</v>
       </c>
       <c r="J83" t="s">
-        <v>723</v>
+        <v>805</v>
       </c>
       <c r="K83" t="s">
-        <v>724</v>
+        <v>806</v>
       </c>
       <c r="L83" t="s">
-        <v>725</v>
+        <v>807</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>726</v>
+        <v>808</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -8291,56 +8880,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>727</v>
+        <v>809</v>
       </c>
       <c r="X83" t="s">
-        <v>728</v>
+        <v>810</v>
       </c>
       <c r="Y83" t="s">
-        <v>729</v>
+        <v>811</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>40684</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>146618</v>
+      </c>
+      <c r="C84" t="s">
+        <v>812</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>730</v>
+        <v>813</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>731</v>
+        <v>814</v>
       </c>
       <c r="J84" t="s">
-        <v>732</v>
+        <v>815</v>
       </c>
       <c r="K84" t="s">
-        <v>733</v>
+        <v>816</v>
       </c>
       <c r="L84" t="s">
-        <v>734</v>
+        <v>817</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>735</v>
+        <v>818</v>
       </c>
       <c r="O84" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8362,56 +8955,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>736</v>
+        <v>819</v>
       </c>
       <c r="X84" t="s">
-        <v>737</v>
+        <v>820</v>
       </c>
       <c r="Y84" t="s">
-        <v>738</v>
+        <v>821</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>40684</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>146619</v>
+      </c>
+      <c r="C85" t="s">
+        <v>822</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>739</v>
+        <v>823</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>740</v>
+        <v>824</v>
       </c>
       <c r="J85" t="s">
-        <v>732</v>
+        <v>815</v>
       </c>
       <c r="K85" t="s">
-        <v>741</v>
+        <v>825</v>
       </c>
       <c r="L85" t="s">
-        <v>742</v>
+        <v>826</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>743</v>
+        <v>827</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8433,56 +9030,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>736</v>
+        <v>819</v>
       </c>
       <c r="X85" t="s">
-        <v>737</v>
+        <v>820</v>
       </c>
       <c r="Y85" t="s">
-        <v>744</v>
+        <v>828</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>40684</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>15251</v>
+      </c>
+      <c r="C86" t="s">
+        <v>829</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>745</v>
+        <v>830</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>746</v>
+        <v>831</v>
       </c>
       <c r="J86" t="s">
-        <v>747</v>
+        <v>832</v>
       </c>
       <c r="K86" t="s">
-        <v>748</v>
+        <v>833</v>
       </c>
       <c r="L86" t="s">
-        <v>749</v>
+        <v>834</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>735</v>
+        <v>818</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -8504,56 +9105,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>736</v>
+        <v>819</v>
       </c>
       <c r="X86" t="s">
-        <v>737</v>
+        <v>820</v>
       </c>
       <c r="Y86" t="s">
-        <v>750</v>
+        <v>835</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>40684</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>24445</v>
+      </c>
+      <c r="C87" t="s">
+        <v>836</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>751</v>
+        <v>837</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>752</v>
+        <v>838</v>
       </c>
       <c r="J87" t="s">
-        <v>753</v>
+        <v>839</v>
       </c>
       <c r="K87" t="s">
-        <v>754</v>
+        <v>840</v>
       </c>
       <c r="L87" t="s">
-        <v>755</v>
+        <v>841</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>756</v>
+        <v>842</v>
       </c>
       <c r="O87" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8575,56 +9180,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>736</v>
+        <v>819</v>
       </c>
       <c r="X87" t="s">
-        <v>737</v>
+        <v>820</v>
       </c>
       <c r="Y87" t="s">
-        <v>757</v>
+        <v>843</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>40684</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>146620</v>
+      </c>
+      <c r="C88" t="s">
+        <v>844</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>758</v>
+        <v>845</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>759</v>
+        <v>846</v>
       </c>
       <c r="J88" t="s">
-        <v>753</v>
+        <v>839</v>
       </c>
       <c r="K88" t="s">
-        <v>760</v>
+        <v>847</v>
       </c>
       <c r="L88" t="s">
-        <v>761</v>
+        <v>848</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>762</v>
+        <v>849</v>
       </c>
       <c r="O88" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8646,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>736</v>
+        <v>819</v>
       </c>
       <c r="X88" t="s">
-        <v>737</v>
+        <v>820</v>
       </c>
       <c r="Y88" t="s">
-        <v>763</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_269.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_269.xlsx
@@ -3094,7 +3094,7 @@
         <v>40684</v>
       </c>
       <c r="B2" t="n">
-        <v>146563</v>
+        <v>177910</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -3159,7 +3159,7 @@
         <v>40684</v>
       </c>
       <c r="B3" t="n">
-        <v>146564</v>
+        <v>177911</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -3299,7 +3299,7 @@
         <v>40684</v>
       </c>
       <c r="B5" t="n">
-        <v>146565</v>
+        <v>177912</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
@@ -3514,7 +3514,7 @@
         <v>40684</v>
       </c>
       <c r="B8" t="n">
-        <v>146566</v>
+        <v>177913</v>
       </c>
       <c r="C8" t="s">
         <v>108</v>
@@ -3589,7 +3589,7 @@
         <v>40684</v>
       </c>
       <c r="B9" t="n">
-        <v>146567</v>
+        <v>177914</v>
       </c>
       <c r="C9" t="s">
         <v>118</v>
@@ -3664,7 +3664,7 @@
         <v>40684</v>
       </c>
       <c r="B10" t="n">
-        <v>146568</v>
+        <v>177915</v>
       </c>
       <c r="C10" t="s">
         <v>127</v>
@@ -3739,7 +3739,7 @@
         <v>40684</v>
       </c>
       <c r="B11" t="n">
-        <v>146569</v>
+        <v>177916</v>
       </c>
       <c r="C11" t="s">
         <v>136</v>
@@ -3814,7 +3814,7 @@
         <v>40684</v>
       </c>
       <c r="B12" t="n">
-        <v>146570</v>
+        <v>177917</v>
       </c>
       <c r="C12" t="s">
         <v>145</v>
@@ -3879,7 +3879,7 @@
         <v>40684</v>
       </c>
       <c r="B13" t="n">
-        <v>146571</v>
+        <v>177918</v>
       </c>
       <c r="C13" t="s">
         <v>154</v>
@@ -3954,7 +3954,7 @@
         <v>40684</v>
       </c>
       <c r="B14" t="n">
-        <v>146572</v>
+        <v>177919</v>
       </c>
       <c r="C14" t="s">
         <v>164</v>
@@ -4029,7 +4029,7 @@
         <v>40684</v>
       </c>
       <c r="B15" t="n">
-        <v>146573</v>
+        <v>177920</v>
       </c>
       <c r="C15" t="s">
         <v>173</v>
@@ -4104,7 +4104,7 @@
         <v>40684</v>
       </c>
       <c r="B16" t="n">
-        <v>146574</v>
+        <v>177921</v>
       </c>
       <c r="C16" t="s">
         <v>182</v>
@@ -4244,7 +4244,7 @@
         <v>40684</v>
       </c>
       <c r="B18" t="n">
-        <v>146575</v>
+        <v>177922</v>
       </c>
       <c r="C18" t="s">
         <v>201</v>
@@ -4315,7 +4315,7 @@
         <v>40684</v>
       </c>
       <c r="B19" t="n">
-        <v>146576</v>
+        <v>177923</v>
       </c>
       <c r="C19" t="s">
         <v>212</v>
@@ -4384,7 +4384,7 @@
         <v>40684</v>
       </c>
       <c r="B20" t="n">
-        <v>146577</v>
+        <v>177924</v>
       </c>
       <c r="C20" t="s">
         <v>221</v>
@@ -4449,7 +4449,7 @@
         <v>40684</v>
       </c>
       <c r="B21" t="n">
-        <v>146578</v>
+        <v>177925</v>
       </c>
       <c r="C21" t="s">
         <v>231</v>
@@ -4510,7 +4510,7 @@
         <v>40684</v>
       </c>
       <c r="B22" t="n">
-        <v>146579</v>
+        <v>177926</v>
       </c>
       <c r="C22" t="s">
         <v>240</v>
@@ -4575,7 +4575,7 @@
         <v>40684</v>
       </c>
       <c r="B23" t="n">
-        <v>146580</v>
+        <v>177927</v>
       </c>
       <c r="C23" t="s">
         <v>249</v>
@@ -4646,7 +4646,7 @@
         <v>40684</v>
       </c>
       <c r="B24" t="n">
-        <v>146581</v>
+        <v>177928</v>
       </c>
       <c r="C24" t="s">
         <v>258</v>
@@ -4711,7 +4711,7 @@
         <v>40684</v>
       </c>
       <c r="B25" t="n">
-        <v>146582</v>
+        <v>177929</v>
       </c>
       <c r="C25" t="s">
         <v>268</v>
@@ -4922,7 +4922,7 @@
         <v>40684</v>
       </c>
       <c r="B28" t="n">
-        <v>146583</v>
+        <v>177930</v>
       </c>
       <c r="C28" t="s">
         <v>297</v>
@@ -5123,7 +5123,7 @@
         <v>40684</v>
       </c>
       <c r="B31" t="n">
-        <v>146584</v>
+        <v>177931</v>
       </c>
       <c r="C31" t="s">
         <v>324</v>
@@ -5192,7 +5192,7 @@
         <v>40684</v>
       </c>
       <c r="B32" t="n">
-        <v>146585</v>
+        <v>177932</v>
       </c>
       <c r="C32" t="s">
         <v>334</v>
@@ -5257,7 +5257,7 @@
         <v>40684</v>
       </c>
       <c r="B33" t="n">
-        <v>146586</v>
+        <v>177933</v>
       </c>
       <c r="C33" t="s">
         <v>344</v>
@@ -5326,7 +5326,7 @@
         <v>40684</v>
       </c>
       <c r="B34" t="n">
-        <v>146587</v>
+        <v>177934</v>
       </c>
       <c r="C34" t="s">
         <v>354</v>
@@ -5468,7 +5468,7 @@
         <v>40684</v>
       </c>
       <c r="B36" t="n">
-        <v>146588</v>
+        <v>177935</v>
       </c>
       <c r="C36" t="s">
         <v>370</v>
@@ -5604,7 +5604,7 @@
         <v>40684</v>
       </c>
       <c r="B38" t="n">
-        <v>146589</v>
+        <v>177936</v>
       </c>
       <c r="C38" t="s">
         <v>390</v>
@@ -5675,7 +5675,7 @@
         <v>40684</v>
       </c>
       <c r="B39" t="n">
-        <v>146590</v>
+        <v>177937</v>
       </c>
       <c r="C39" t="s">
         <v>400</v>
@@ -5736,7 +5736,7 @@
         <v>40684</v>
       </c>
       <c r="B40" t="n">
-        <v>146591</v>
+        <v>177938</v>
       </c>
       <c r="C40" t="s">
         <v>409</v>
@@ -5801,7 +5801,7 @@
         <v>40684</v>
       </c>
       <c r="B41" t="n">
-        <v>146592</v>
+        <v>177939</v>
       </c>
       <c r="C41" t="s">
         <v>416</v>
@@ -5870,7 +5870,7 @@
         <v>40684</v>
       </c>
       <c r="B42" t="n">
-        <v>146593</v>
+        <v>177940</v>
       </c>
       <c r="C42" t="s">
         <v>426</v>
@@ -5941,7 +5941,7 @@
         <v>40684</v>
       </c>
       <c r="B43" t="n">
-        <v>146594</v>
+        <v>177941</v>
       </c>
       <c r="C43" t="s">
         <v>436</v>
@@ -6146,7 +6146,7 @@
         <v>40684</v>
       </c>
       <c r="B46" t="n">
-        <v>146595</v>
+        <v>177942</v>
       </c>
       <c r="C46" t="s">
         <v>464</v>
@@ -6282,7 +6282,7 @@
         <v>40684</v>
       </c>
       <c r="B48" t="n">
-        <v>146596</v>
+        <v>177943</v>
       </c>
       <c r="C48" t="s">
         <v>482</v>
@@ -6347,7 +6347,7 @@
         <v>40684</v>
       </c>
       <c r="B49" t="n">
-        <v>146597</v>
+        <v>177944</v>
       </c>
       <c r="C49" t="s">
         <v>492</v>
@@ -6418,7 +6418,7 @@
         <v>40684</v>
       </c>
       <c r="B50" t="n">
-        <v>146598</v>
+        <v>177945</v>
       </c>
       <c r="C50" t="s">
         <v>501</v>
@@ -6479,7 +6479,7 @@
         <v>40684</v>
       </c>
       <c r="B51" t="n">
-        <v>146599</v>
+        <v>177946</v>
       </c>
       <c r="C51" t="s">
         <v>510</v>
@@ -6615,7 +6615,7 @@
         <v>40684</v>
       </c>
       <c r="B53" t="n">
-        <v>146600</v>
+        <v>177947</v>
       </c>
       <c r="C53" t="s">
         <v>529</v>
@@ -6757,7 +6757,7 @@
         <v>40684</v>
       </c>
       <c r="B55" t="n">
-        <v>146601</v>
+        <v>177948</v>
       </c>
       <c r="C55" t="s">
         <v>544</v>
@@ -6907,7 +6907,7 @@
         <v>40684</v>
       </c>
       <c r="B57" t="n">
-        <v>146602</v>
+        <v>177949</v>
       </c>
       <c r="C57" t="s">
         <v>561</v>
@@ -7132,7 +7132,7 @@
         <v>40684</v>
       </c>
       <c r="B60" t="n">
-        <v>146603</v>
+        <v>177950</v>
       </c>
       <c r="C60" t="s">
         <v>589</v>
@@ -7357,7 +7357,7 @@
         <v>40684</v>
       </c>
       <c r="B63" t="n">
-        <v>146604</v>
+        <v>177951</v>
       </c>
       <c r="C63" t="s">
         <v>618</v>
@@ -7582,7 +7582,7 @@
         <v>40684</v>
       </c>
       <c r="B66" t="n">
-        <v>146605</v>
+        <v>177952</v>
       </c>
       <c r="C66" t="s">
         <v>646</v>
@@ -7653,7 +7653,7 @@
         <v>40684</v>
       </c>
       <c r="B67" t="n">
-        <v>146606</v>
+        <v>177953</v>
       </c>
       <c r="C67" t="s">
         <v>655</v>
@@ -7728,7 +7728,7 @@
         <v>40684</v>
       </c>
       <c r="B68" t="n">
-        <v>146607</v>
+        <v>177954</v>
       </c>
       <c r="C68" t="s">
         <v>664</v>
@@ -7799,7 +7799,7 @@
         <v>40684</v>
       </c>
       <c r="B69" t="n">
-        <v>146608</v>
+        <v>177955</v>
       </c>
       <c r="C69" t="s">
         <v>673</v>
@@ -7870,7 +7870,7 @@
         <v>40684</v>
       </c>
       <c r="B70" t="n">
-        <v>146609</v>
+        <v>177956</v>
       </c>
       <c r="C70" t="s">
         <v>682</v>
@@ -7941,7 +7941,7 @@
         <v>40684</v>
       </c>
       <c r="B71" t="n">
-        <v>146610</v>
+        <v>177957</v>
       </c>
       <c r="C71" t="s">
         <v>692</v>
@@ -8087,7 +8087,7 @@
         <v>40684</v>
       </c>
       <c r="B73" t="n">
-        <v>146611</v>
+        <v>177958</v>
       </c>
       <c r="C73" t="s">
         <v>711</v>
@@ -8148,7 +8148,7 @@
         <v>40684</v>
       </c>
       <c r="B74" t="n">
-        <v>146612</v>
+        <v>177959</v>
       </c>
       <c r="C74" t="s">
         <v>718</v>
@@ -8298,7 +8298,7 @@
         <v>40684</v>
       </c>
       <c r="B76" t="n">
-        <v>146613</v>
+        <v>177960</v>
       </c>
       <c r="C76" t="s">
         <v>738</v>
@@ -8369,7 +8369,7 @@
         <v>40684</v>
       </c>
       <c r="B77" t="n">
-        <v>146614</v>
+        <v>177961</v>
       </c>
       <c r="C77" t="s">
         <v>745</v>
@@ -8669,7 +8669,7 @@
         <v>40684</v>
       </c>
       <c r="B81" t="n">
-        <v>146615</v>
+        <v>177962</v>
       </c>
       <c r="C81" t="s">
         <v>782</v>
@@ -8744,7 +8744,7 @@
         <v>40684</v>
       </c>
       <c r="B82" t="n">
-        <v>146616</v>
+        <v>177963</v>
       </c>
       <c r="C82" t="s">
         <v>792</v>
@@ -8819,7 +8819,7 @@
         <v>40684</v>
       </c>
       <c r="B83" t="n">
-        <v>146617</v>
+        <v>177964</v>
       </c>
       <c r="C83" t="s">
         <v>802</v>
@@ -8894,7 +8894,7 @@
         <v>40684</v>
       </c>
       <c r="B84" t="n">
-        <v>146618</v>
+        <v>177965</v>
       </c>
       <c r="C84" t="s">
         <v>812</v>
@@ -8969,7 +8969,7 @@
         <v>40684</v>
       </c>
       <c r="B85" t="n">
-        <v>146619</v>
+        <v>177966</v>
       </c>
       <c r="C85" t="s">
         <v>822</v>
@@ -9194,7 +9194,7 @@
         <v>40684</v>
       </c>
       <c r="B88" t="n">
-        <v>146620</v>
+        <v>177967</v>
       </c>
       <c r="C88" t="s">
         <v>844</v>
